--- a/doc/SUZB3cg_1anos.xlsx
+++ b/doc/SUZB3cg_1anos.xlsx
@@ -176,6 +176,9 @@
           <c:tx>
             <c:v>Retornos da Ação</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1649,6 +1652,9 @@
           <c:tx>
             <c:v>Retornos do Mercado</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>

--- a/doc/SUZB3cg_1anos.xlsx
+++ b/doc/SUZB3cg_1anos.xlsx
@@ -920,727 +920,727 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="241"/>
                 <c:pt idx="0">
-                  <c:v>-0.2704073009971331</c:v>
+                  <c:v>-0.002704073009971331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.9320454160311797</c:v>
+                  <c:v>-0.009320454160311797</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7526513855627748</c:v>
+                  <c:v>0.007526513855627748</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.154499151103572</c:v>
+                  <c:v>0.01154499151103572</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5370929842228866</c:v>
+                  <c:v>0.005370929842228866</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.101836393989997</c:v>
+                  <c:v>0.01101836393989997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.7265521796565477</c:v>
+                  <c:v>-0.007265521796565477</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7152361942781127</c:v>
+                  <c:v>0.007152361942781127</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.09000825763832</c:v>
+                  <c:v>0.0109000825763832</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.7515111909818684</c:v>
+                  <c:v>-0.007515111909818684</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.09876543209876854</c:v>
+                  <c:v>0.0009876543209876854</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.8880118401578763</c:v>
+                  <c:v>0.008880118401578763</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.4889975550122272</c:v>
+                  <c:v>-0.004889975550122272</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2457002457002533</c:v>
+                  <c:v>0.002457002457002533</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.01633986928104569</c:v>
+                  <c:v>0.0001633986928104569</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.8985459892174363</c:v>
+                  <c:v>0.008985459892174363</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.85816062176165</c:v>
+                  <c:v>0.0085816062176165</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.4976721785198368</c:v>
+                  <c:v>0.004976721785198368</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.3354632587859507</c:v>
+                  <c:v>0.003354632587859507</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.703550390065267</c:v>
+                  <c:v>0.01703550390065267</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.127113337507812</c:v>
+                  <c:v>0.01127113337507812</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9752321981424394</c:v>
+                  <c:v>0.009752321981424394</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.5212325617047431</c:v>
+                  <c:v>-0.005212325617047431</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.40237324703345</c:v>
+                  <c:v>-0.0140237324703345</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.2813379180994002</c:v>
+                  <c:v>-0.002813379180994002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.300940438871467</c:v>
+                  <c:v>-0.01300940438871467</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.143878037160551</c:v>
+                  <c:v>-0.02143878037160551</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.04829362524148006</c:v>
+                  <c:v>0.0004829362524148006</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.1769911504424737</c:v>
+                  <c:v>-0.001769911504424737</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.03223726627983314</c:v>
+                  <c:v>0.0003223726627983314</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.272961650016113</c:v>
+                  <c:v>0.01272961650016113</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.863961813842486</c:v>
+                  <c:v>-0.02863961813842486</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.4095004095004073</c:v>
+                  <c:v>-0.004095004095004073</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.138157894736836</c:v>
+                  <c:v>-0.02138157894736836</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.1176470588235334</c:v>
+                  <c:v>-0.001176470588235334</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.5384485949856965</c:v>
+                  <c:v>-0.005384485949856965</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.913551006597868</c:v>
+                  <c:v>-0.00913551006597868</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.9902680553184107</c:v>
+                  <c:v>0.009902680553184107</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.5579036348267064</c:v>
+                  <c:v>-0.005579036348267064</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.9010540632438002</c:v>
+                  <c:v>-0.009010540632438002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.480356836507112</c:v>
+                  <c:v>0.00480356836507112</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.2048830459279505</c:v>
+                  <c:v>-0.002048830459279505</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1.64242942686057</c:v>
+                  <c:v>-0.0164242942686057</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.982953557140377</c:v>
+                  <c:v>-0.01982953557140377</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.827861579414369</c:v>
+                  <c:v>0.01827861579414369</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.9759498082955731</c:v>
+                  <c:v>-0.009759498082955731</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-1.231960577261537</c:v>
+                  <c:v>-0.01231960577261537</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1.514611546685662</c:v>
+                  <c:v>-0.01514611546685662</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.850370906459208</c:v>
+                  <c:v>0.00850370906459208</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.8432005740940052</c:v>
+                  <c:v>-0.008432005740940052</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-2.533019721367846</c:v>
+                  <c:v>-0.02533019721367846</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-1.54074624095043</c:v>
+                  <c:v>-0.0154074624095043</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.01885369532428349</c:v>
+                  <c:v>0.0001885369532428349</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-1.33836003770027</c:v>
+                  <c:v>-0.0133836003770027</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.1719526175009589</c:v>
+                  <c:v>-0.001719526175009589</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.8612440191387627</c:v>
+                  <c:v>0.008612440191387627</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.423149905123333</c:v>
+                  <c:v>0.01423149905123333</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.467726847521055</c:v>
+                  <c:v>0.00467726847521055</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0186219739292337</c:v>
+                  <c:v>0.000186219739292337</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-3.649227331967975</c:v>
+                  <c:v>-0.03649227331967975</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.7922705314009626</c:v>
+                  <c:v>-0.007922705314009626</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.4674717569146947</c:v>
+                  <c:v>-0.004674717569146947</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.017612524461842</c:v>
+                  <c:v>0.01017612524461842</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.9298721425804013</c:v>
+                  <c:v>0.009298721425804013</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-2.49520153550864</c:v>
+                  <c:v>-0.0249520153550864</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.153543307086616</c:v>
+                  <c:v>0.04153543307086616</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-2.003402003401999</c:v>
+                  <c:v>-0.02003402003401999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.03857280617163283</c:v>
+                  <c:v>0.0003857280617163283</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.443416232889926</c:v>
+                  <c:v>0.00443416232889926</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.8253358925143894</c:v>
+                  <c:v>-0.008253358925143894</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.2515966711824857</c:v>
+                  <c:v>0.002515966711824857</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.5212355212355191</c:v>
+                  <c:v>-0.005212355212355191</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.270522026004262</c:v>
+                  <c:v>0.02270522026004262</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.4174573055028441</c:v>
+                  <c:v>0.004174573055028441</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.776266061980336</c:v>
+                  <c:v>0.01776266061980336</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.519866320089124</c:v>
+                  <c:v>-0.00519866320089124</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.082493467711831</c:v>
+                  <c:v>0.01082493467711831</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.7200886262924588</c:v>
+                  <c:v>-0.007200886262924588</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.5765296633810646</c:v>
+                  <c:v>0.005765296633810646</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.238905325443795</c:v>
+                  <c:v>0.01238905325443795</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-1.27853881278539</c:v>
+                  <c:v>-0.0127853881278539</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.036077705827942</c:v>
+                  <c:v>0.01036077705827942</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.538179820545693</c:v>
+                  <c:v>0.01538179820545693</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.5590622182146121</c:v>
+                  <c:v>-0.005590622182146121</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.888647080159588</c:v>
+                  <c:v>0.00888647080159588</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.1438072982203997</c:v>
+                  <c:v>-0.001438072982203997</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.5940594059405946</c:v>
+                  <c:v>-0.005940594059405946</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.5070626584570803</c:v>
+                  <c:v>-0.005070626584570803</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.8918820531488847</c:v>
+                  <c:v>-0.008918820531488847</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-1.010101010101017</c:v>
+                  <c:v>-0.01010101010101017</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-1.725417439703159</c:v>
+                  <c:v>-0.01725417439703159</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.7929016424391144</c:v>
+                  <c:v>-0.007929016424391144</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.1522359657469163</c:v>
+                  <c:v>0.001522359657469163</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.4180125403762225</c:v>
+                  <c:v>-0.004180125403762225</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-1.0684983781721</c:v>
+                  <c:v>-0.010684983781721</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-1.716489874638383</c:v>
+                  <c:v>-0.01716489874638383</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.8634222919937207</c:v>
+                  <c:v>0.008634222919937207</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-1.225680933852136</c:v>
+                  <c:v>-0.01225680933852136</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-2.028757140043336</c:v>
+                  <c:v>-0.02028757140043336</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.3216726980297402</c:v>
+                  <c:v>0.003216726980297402</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.7414829659318833</c:v>
+                  <c:v>0.007414829659318833</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.6564551422319376</c:v>
+                  <c:v>0.006564551422319376</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-0.05928853754940677</c:v>
+                  <c:v>-0.0005928853754940677</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3.915364840814717</c:v>
+                  <c:v>0.03915364840814717</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.8753568030447134</c:v>
+                  <c:v>0.008753568030447134</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-1.660064138841721</c:v>
+                  <c:v>-0.01660064138841721</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.7481296758104827</c:v>
+                  <c:v>0.007481296758104827</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-0.5331302361005319</c:v>
+                  <c:v>-0.005331302361005319</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.631699846860645</c:v>
+                  <c:v>0.00631699846860645</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-0.68480121742438</c:v>
+                  <c:v>-0.0068480121742438</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-0.8427504309519218</c:v>
+                  <c:v>-0.008427504309519218</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-0.154529650376678</c:v>
+                  <c:v>-0.00154529650376678</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.07738440704196936</c:v>
+                  <c:v>0.0007738440704196936</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.8699014111734016</c:v>
+                  <c:v>0.008699014111734016</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-1.686469911843624</c:v>
+                  <c:v>-0.01686469911843624</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3.040935672514622</c:v>
+                  <c:v>0.03040935672514622</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.002648505486192</c:v>
+                  <c:v>0.01002648505486192</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-2.210151713804087</c:v>
+                  <c:v>-0.02210151713804087</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.09576709442635778</c:v>
+                  <c:v>0.0009576709442635778</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-2.659778032912363</c:v>
+                  <c:v>-0.02659778032912363</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-0.3341851779044558</c:v>
+                  <c:v>-0.003341851779044558</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-1.400394477317557</c:v>
+                  <c:v>-0.01400394477317557</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.5601120224044909</c:v>
+                  <c:v>0.005601120224044909</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.2387109608116056</c:v>
+                  <c:v>0.002387109608116056</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.1587616590593255</c:v>
+                  <c:v>0.001587616590593255</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.5151575193184099</c:v>
+                  <c:v>0.005151575193184099</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.517839542676924</c:v>
+                  <c:v>0.01517839542676924</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-0.2135922330097073</c:v>
+                  <c:v>-0.002135922330097073</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-0.1556723097878909</c:v>
+                  <c:v>-0.001556723097878909</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.586045605145194</c:v>
+                  <c:v>0.03586045605145194</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.9219190968955848</c:v>
+                  <c:v>0.009219190968955848</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.976137211036555</c:v>
+                  <c:v>0.01976137211036555</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.1645338208409397</c:v>
+                  <c:v>0.001645338208409397</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2.482204781894515</c:v>
+                  <c:v>0.02482204781894515</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-0.1602849510240367</c:v>
+                  <c:v>-0.001602849510240367</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2.069211559043871</c:v>
+                  <c:v>0.02069211559043871</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-3.268088081090526</c:v>
+                  <c:v>-0.03268088081090526</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-0.3432700993676652</c:v>
+                  <c:v>-0.003432700993676652</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.435097897026826</c:v>
+                  <c:v>0.00435097897026826</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-0.8844765342960303</c:v>
+                  <c:v>-0.008844765342960303</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-1.675468949189574</c:v>
+                  <c:v>-0.01675468949189574</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-0.4630487127245786</c:v>
+                  <c:v>-0.004630487127245786</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.5024190547078478</c:v>
+                  <c:v>0.005024190547078478</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-1.907054249213114</c:v>
+                  <c:v>-0.01907054249213114</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.1132502831257209</c:v>
+                  <c:v>0.001132502831257209</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-0.8295625942684737</c:v>
+                  <c:v>-0.008295625942684737</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.4372623574144363</c:v>
+                  <c:v>0.004372623574144363</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.5300018928638961</c:v>
+                  <c:v>0.005300018928638961</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1.5627942007155</c:v>
+                  <c:v>0.015627942007155</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.3151649981461002</c:v>
+                  <c:v>0.003151649981461002</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.14581408242469</c:v>
+                  <c:v>0.0114581408242469</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-2.009866617942613</c:v>
+                  <c:v>-0.02009866617942613</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-3.84113369382808</c:v>
+                  <c:v>-0.0384113369382808</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-1.37676943959667</c:v>
+                  <c:v>-0.0137676943959667</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.9241053873377814</c:v>
+                  <c:v>0.009241053873377814</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-2.474186635495801</c:v>
+                  <c:v>-0.02474186635495801</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-1.91769876148622</c:v>
+                  <c:v>-0.0191769876148622</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.04073319755599769</c:v>
+                  <c:v>0.0004073319755599769</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-0.6107491856677472</c:v>
+                  <c:v>-0.006107491856677472</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-2.693877551020407</c:v>
+                  <c:v>-0.02693877551020407</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.181208053691264</c:v>
+                  <c:v>0.02181208053691264</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1.621510673234816</c:v>
+                  <c:v>0.01621510673234816</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.5857402544940493</c:v>
+                  <c:v>0.005857402544940493</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-2.385141739980445</c:v>
+                  <c:v>-0.02385141739980445</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-1.86260765071099</c:v>
+                  <c:v>-0.0186260765071099</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1.367346938775515</c:v>
+                  <c:v>0.01367346938775515</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.6241191866317664</c:v>
+                  <c:v>0.006241191866317664</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-1.66066426570628</c:v>
+                  <c:v>-0.0166066426570628</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-0.7934893184130209</c:v>
+                  <c:v>-0.007934893184130209</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-1.107465135356844</c:v>
+                  <c:v>-0.01107465135356844</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.2695976773123165</c:v>
+                  <c:v>0.002695976773123165</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.7445708376421889</c:v>
+                  <c:v>0.007445708376421889</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.4516526380619945</c:v>
+                  <c:v>0.004516526380619945</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1.205804210096062</c:v>
+                  <c:v>0.01205804210096062</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-0.5452342487883732</c:v>
+                  <c:v>-0.005452342487883732</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-0.9746192893400951</c:v>
+                  <c:v>-0.009746192893400951</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.2460529013737833</c:v>
+                  <c:v>0.002460529013737833</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1.759050930660666</c:v>
+                  <c:v>0.01759050930660666</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-1.467336683417075</c:v>
+                  <c:v>-0.01467336683417075</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-1.631986944104458</c:v>
+                  <c:v>-0.01631986944104458</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-0.1036914143508816</c:v>
+                  <c:v>-0.001036914143508816</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.9134315964293149</c:v>
+                  <c:v>0.009134315964293149</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1.542892408969343</c:v>
+                  <c:v>0.01542892408969343</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-0.4862236628849326</c:v>
+                  <c:v>-0.004862236628849326</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-1.26221498371335</c:v>
+                  <c:v>-0.0126221498371335</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-3.525773195876292</c:v>
+                  <c:v>-0.03525773195876292</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1.02586022654414</c:v>
+                  <c:v>0.0102586022654414</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-0.6346519991538013</c:v>
+                  <c:v>-0.006346519991538013</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-1.78837555886735</c:v>
+                  <c:v>-0.0178837555886735</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-0.02167786689790674</c:v>
+                  <c:v>-0.0002167786689790674</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-1.539462272333048</c:v>
+                  <c:v>-0.01539462272333048</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-2.686632900242236</c:v>
+                  <c:v>-0.02686632900242236</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-0.4525910839556335</c:v>
+                  <c:v>-0.004525910839556335</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-2.136849283928177</c:v>
+                  <c:v>-0.02136849283928177</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-0.9291521486643362</c:v>
+                  <c:v>-0.009291521486643362</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-0.4220398593200447</c:v>
+                  <c:v>-0.004220398593200447</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2.542971509300673</c:v>
+                  <c:v>0.02542971509300673</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-0.390355912743956</c:v>
+                  <c:v>-0.00390355912743956</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.3457814661134151</c:v>
+                  <c:v>0.003457814661134151</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-0.4135079255685681</c:v>
+                  <c:v>-0.004135079255685681</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-0.4152249134948049</c:v>
+                  <c:v>-0.004152249134948049</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-0.3011350474866892</c:v>
+                  <c:v>-0.003011350474866892</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-0.04646840148697651</c:v>
+                  <c:v>-0.0004646840148697651</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>1.092515109251502</c:v>
+                  <c:v>0.01092515109251502</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-0.8967578753736549</c:v>
+                  <c:v>-0.008967578753736549</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.7656612529002293</c:v>
+                  <c:v>0.007656612529002293</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.6447156343541316</c:v>
+                  <c:v>0.006447156343541316</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-1.143902997025847</c:v>
+                  <c:v>-0.01143902997025847</c:v>
                 </c:pt>
                 <c:pt idx="208">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-0.3934274473501587</c:v>
+                  <c:v>-0.003934274473501587</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.2788104089219257</c:v>
+                  <c:v>0.002788104089219257</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>1.506024096385561</c:v>
+                  <c:v>0.01506024096385561</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>1.711937913718331</c:v>
+                  <c:v>0.01711937913718331</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.7405745062836644</c:v>
+                  <c:v>0.007405745062836644</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-0.178213410559136</c:v>
+                  <c:v>-0.00178213410559136</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>1.338986833296119</c:v>
+                  <c:v>0.01338986833296119</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2.070028628055498</c:v>
+                  <c:v>0.02070028628055498</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.5609492988133624</c:v>
+                  <c:v>0.005609492988133624</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>1.244368161338771</c:v>
+                  <c:v>0.01244368161338771</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.08476372112735664</c:v>
+                  <c:v>0.0008476372112735664</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-3.493542240101633</c:v>
+                  <c:v>-0.03493542240101633</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.8556384379113657</c:v>
+                  <c:v>0.008556384379113657</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-0.7396127909506167</c:v>
+                  <c:v>-0.007396127909506167</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-3.133903133903138</c:v>
+                  <c:v>-0.03133903133903138</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>1.312217194570131</c:v>
+                  <c:v>0.01312217194570131</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2.411790978115236</c:v>
+                  <c:v>0.02411790978115236</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-0.2616659398168242</c:v>
+                  <c:v>-0.002616659398168242</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-0.8307826847398392</c:v>
+                  <c:v>-0.008307826847398392</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-3.064373897707229</c:v>
+                  <c:v>-0.03064373897707229</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-0.5003411416875103</c:v>
+                  <c:v>-0.005003411416875103</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.777142857142854</c:v>
+                  <c:v>0.00777142857142854</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.5670220004536208</c:v>
+                  <c:v>0.005670220004536208</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-0.06765899864682456</c:v>
+                  <c:v>-0.0006765899864682456</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-2.708192281652</c:v>
+                  <c:v>-0.02708192281652</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>1.067037810252836</c:v>
+                  <c:v>0.01067037810252836</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2.845994950654118</c:v>
+                  <c:v>0.02845994950654118</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-1.495201963847359</c:v>
+                  <c:v>-0.01495201963847359</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.5437245129134682</c:v>
+                  <c:v>0.005437245129134682</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-0.1577287066246047</c:v>
+                  <c:v>-0.001577287066246047</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-3.565786504175139</c:v>
+                  <c:v>-0.03565786504175139</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>-0.04680552305170727</c:v>
+                  <c:v>-0.0004680552305170727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2396,727 +2396,727 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="241"/>
                 <c:pt idx="0">
-                  <c:v>0.9513674915028192</c:v>
+                  <c:v>0.009513674915028192</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.121301589295809</c:v>
+                  <c:v>-0.01121301589295809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6528302483284065</c:v>
+                  <c:v>0.006528302483284065</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.50827142467469</c:v>
+                  <c:v>0.0150827142467469</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.07615779895944197</c:v>
+                  <c:v>-0.0007615779895944197</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.3252149455045261</c:v>
+                  <c:v>-0.003252149455045261</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.3384485518383773</c:v>
+                  <c:v>-0.003384485518383773</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35884402672548</c:v>
+                  <c:v>0.0035884402672548</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7472060291796812</c:v>
+                  <c:v>0.007472060291796812</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.02013352554139924</c:v>
+                  <c:v>0.0002013352554139924</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.1752566545273337</c:v>
+                  <c:v>-0.001752566545273337</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.7539853511417505</c:v>
+                  <c:v>-0.007539853511417505</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.4859225382306653</c:v>
+                  <c:v>-0.004859225382306653</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.138183302458473</c:v>
+                  <c:v>-0.01138183302458473</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.5138457213363146</c:v>
+                  <c:v>-0.005138457213363146</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.413503733928712</c:v>
+                  <c:v>-0.01413503733928712</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.8016638599377623</c:v>
+                  <c:v>0.008016638599377623</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.62624709176229</c:v>
+                  <c:v>0.0162624709176229</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.4967511065072094</c:v>
+                  <c:v>-0.004967511065072094</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0863978384831654</c:v>
+                  <c:v>0.000863978384831654</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.1811068687328055</c:v>
+                  <c:v>-0.001811068687328055</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.4401921411134824</c:v>
+                  <c:v>0.004401921411134824</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.8711535759449163</c:v>
+                  <c:v>-0.008711535759449163</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3250033283473286</c:v>
+                  <c:v>0.003250033283473286</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.6526725680458423</c:v>
+                  <c:v>0.006526725680458423</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.0535724133584381</c:v>
+                  <c:v>-0.000535724133584381</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.07557448416478652</c:v>
+                  <c:v>-0.0007557448416478652</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.8832778033536437</c:v>
+                  <c:v>-0.008832778033536437</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.7481122942884832</c:v>
+                  <c:v>-0.007481122942884832</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.251480055516785</c:v>
+                  <c:v>0.01251480055516785</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.4529199552593788</c:v>
+                  <c:v>0.004529199552593788</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1672689400514349</c:v>
+                  <c:v>0.001672689400514349</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.7424230558383593</c:v>
+                  <c:v>-0.007424230558383593</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.2468634282768001</c:v>
+                  <c:v>-0.002468634282768001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.2647491932199042</c:v>
+                  <c:v>0.002647491932199042</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.224192064951946</c:v>
+                  <c:v>0.01224192064951946</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.7452526540280613</c:v>
+                  <c:v>-0.007452526540280613</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.9887798036465667</c:v>
+                  <c:v>-0.009887798036465667</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.4267204593063845</c:v>
+                  <c:v>-0.004267204593063845</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.6182766319536626</c:v>
+                  <c:v>0.006182766319536626</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.1893393381694031</c:v>
+                  <c:v>-0.001893393381694031</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.6494813438612801</c:v>
+                  <c:v>-0.006494813438612801</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.1240117811192043</c:v>
+                  <c:v>0.001240117811192043</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.8720371864315624</c:v>
+                  <c:v>-0.008720371864315624</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.164865706323226</c:v>
+                  <c:v>-0.01164865706323226</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.604826825297634</c:v>
+                  <c:v>0.01604826825297634</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1468099738060058</c:v>
+                  <c:v>0.001468099738060058</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.6311376601838115</c:v>
+                  <c:v>-0.006311376601838115</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1607296665436131</c:v>
+                  <c:v>0.001607296665436131</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.08928846331475171</c:v>
+                  <c:v>0.0008928846331475171</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.6819802225735527</c:v>
+                  <c:v>0.006819802225735527</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2408215900439714</c:v>
+                  <c:v>0.002408215900439714</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.7214171700416161</c:v>
+                  <c:v>0.007214171700416161</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.6188099324505147</c:v>
+                  <c:v>0.006188099324505147</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.7873400715479706</c:v>
+                  <c:v>-0.007873400715479706</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.1489662057293506</c:v>
+                  <c:v>-0.001489662057293506</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-1.073236219986418</c:v>
+                  <c:v>-0.01073236219986418</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.6195558827137737</c:v>
+                  <c:v>-0.006195558827137737</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.212503820742517</c:v>
+                  <c:v>0.02212503820742517</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.3231589375854993</c:v>
+                  <c:v>0.003231589375854993</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1.011044434585662</c:v>
+                  <c:v>-0.01011044434585662</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.570636858914142</c:v>
+                  <c:v>0.00570636858914142</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.2747209619943236</c:v>
+                  <c:v>0.002747209619943236</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.8567893356575373</c:v>
+                  <c:v>-0.008567893356575373</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.3597819597261354</c:v>
+                  <c:v>-0.003597819597261354</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.6226154530346584</c:v>
+                  <c:v>0.006226154530346584</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.2761782562433535</c:v>
+                  <c:v>0.002761782562433535</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.3485026858875861</c:v>
+                  <c:v>-0.003485026858875861</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.311985592644671</c:v>
+                  <c:v>0.01311985592644671</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.8101162681375174</c:v>
+                  <c:v>-0.008101162681375174</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.2513431147695533</c:v>
+                  <c:v>0.002513431147695533</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.9399022750614661</c:v>
+                  <c:v>-0.009399022750614661</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.5955419431682873</c:v>
+                  <c:v>-0.005955419431682873</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-1.693265714220538</c:v>
+                  <c:v>-0.01693265714220538</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.4069075029773828</c:v>
+                  <c:v>0.004069075029773828</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.259473857434811</c:v>
+                  <c:v>0.00259473857434811</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.146742993404203</c:v>
+                  <c:v>-0.00146742993404203</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.4610223131756519</c:v>
+                  <c:v>-0.004610223131756519</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.7400303563472654</c:v>
+                  <c:v>-0.007400303563472654</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.3060072866091446</c:v>
+                  <c:v>0.003060072866091446</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.6073491533689968</c:v>
+                  <c:v>0.006073491533689968</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-1.210533447761863</c:v>
+                  <c:v>-0.01210533447761863</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.1032427259094026</c:v>
+                  <c:v>0.001032427259094026</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-1.108916793978465</c:v>
+                  <c:v>-0.01108916793978465</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.006706708198578326</c:v>
+                  <c:v>-6.706708198578326e-05</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.4950087244351531</c:v>
+                  <c:v>0.004950087244351531</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.5875573433368642</c:v>
+                  <c:v>0.005875573433368642</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.431980148583011</c:v>
+                  <c:v>0.00431980148583011</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.053484602917343</c:v>
+                  <c:v>0.01053484602917343</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.7940781639881433</c:v>
+                  <c:v>-0.007940781639881433</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.5851209911202027</c:v>
+                  <c:v>0.005851209911202027</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.6812752982019665</c:v>
+                  <c:v>0.006812752982019665</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.4929609758334452</c:v>
+                  <c:v>-0.004929609758334452</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.063607924921794</c:v>
+                  <c:v>0.01063607924921794</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.422410860501722</c:v>
+                  <c:v>0.02422410860501722</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.4042043556367947</c:v>
+                  <c:v>-0.004042043556367947</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.1400538184336053</c:v>
+                  <c:v>-0.001400538184336053</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.8602491865725037</c:v>
+                  <c:v>0.008602491865725037</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.3080646060036774</c:v>
+                  <c:v>0.003080646060036774</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-1.008644397689573</c:v>
+                  <c:v>-0.01008644397689573</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.07886248748059099</c:v>
+                  <c:v>0.0007886248748059099</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-1.014808396368549</c:v>
+                  <c:v>-0.01014808396368549</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.6062938326095058</c:v>
+                  <c:v>0.006062938326095058</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.975408601042016</c:v>
+                  <c:v>0.00975408601042016</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-0.3453508037111419</c:v>
+                  <c:v>-0.003453508037111419</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.6802829340483596</c:v>
+                  <c:v>0.006802829340483596</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.1123130107852255</c:v>
+                  <c:v>0.001123130107852255</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-0.8169005182657063</c:v>
+                  <c:v>-0.008169005182657063</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.4292458444083103</c:v>
+                  <c:v>0.004292458444083103</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.3407453406259142</c:v>
+                  <c:v>0.003407453406259142</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-0.3870097942027861</c:v>
+                  <c:v>-0.003870097942027861</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.8259903088068343</c:v>
+                  <c:v>0.008259903088068343</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.3901232982275848</c:v>
+                  <c:v>0.003901232982275848</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.011935651271401</c:v>
+                  <c:v>0.01011935651271401</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.452316076294281</c:v>
+                  <c:v>0.02452316076294281</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-0.2155243874133794</c:v>
+                  <c:v>-0.002155243874133794</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.364568278829026</c:v>
+                  <c:v>0.01364568278829026</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-0.07304847227936895</c:v>
+                  <c:v>-0.0007304847227936895</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-0.1416976892376853</c:v>
+                  <c:v>-0.001416976892376853</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.6591440411184424</c:v>
+                  <c:v>0.006591440411184424</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.2767433987813206</c:v>
+                  <c:v>0.002767433987813206</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.700494554683486</c:v>
+                  <c:v>0.02700494554683486</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.68723043201584</c:v>
+                  <c:v>0.0168723043201584</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.5438453062240001</c:v>
+                  <c:v>0.005438453062240001</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-0.6787230474576522</c:v>
+                  <c:v>-0.006787230474576522</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-1.285971928173768</c:v>
+                  <c:v>-0.01285971928173768</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.72560489231588</c:v>
+                  <c:v>0.0172560489231588</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-0.8192542325205276</c:v>
+                  <c:v>-0.008192542325205276</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.8662499445848404</c:v>
+                  <c:v>0.008662499445848404</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-0.326985108921396</c:v>
+                  <c:v>-0.00326985108921396</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-0.7447107119048502</c:v>
+                  <c:v>-0.007447107119048502</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-0.04909696650885476</c:v>
+                  <c:v>-0.0004909696650885476</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-1.594367946992448</c:v>
+                  <c:v>-0.01594367946992448</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-0.5371822815658955</c:v>
+                  <c:v>-0.005371822815658955</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.6738428045683031</c:v>
+                  <c:v>0.006738428045683031</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-1.108064006287857</c:v>
+                  <c:v>-0.01108064006287857</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.2689807002064448</c:v>
+                  <c:v>0.002689807002064448</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.372920212581197</c:v>
+                  <c:v>0.01372920212581197</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.8636244197249621</c:v>
+                  <c:v>0.008636244197249621</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.7821051516542443</c:v>
+                  <c:v>0.007821051516542443</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-0.2843134665997726</c:v>
+                  <c:v>-0.002843134665997726</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.1657570601045766</c:v>
+                  <c:v>0.001657570601045766</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-1.423642194738262</c:v>
+                  <c:v>-0.01423642194738262</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-1.293698794663922</c:v>
+                  <c:v>-0.01293698794663922</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.7206366487803706</c:v>
+                  <c:v>0.007206366487803706</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1.228056364638275</c:v>
+                  <c:v>0.01228056364638275</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.117345196290497</c:v>
+                  <c:v>0.00117345196290497</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-1.494069441449208</c:v>
+                  <c:v>-0.01494069441449208</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-0.07240817522778942</c:v>
+                  <c:v>-0.0007240817522778942</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-0.1170950105471635</c:v>
+                  <c:v>-0.001170950105471635</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-2.148363452546442</c:v>
+                  <c:v>-0.02148363452546442</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.7204317499108992</c:v>
+                  <c:v>0.007204317499108992</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-0.3736642770188037</c:v>
+                  <c:v>-0.003736642770188037</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-0.3957628117684742</c:v>
+                  <c:v>-0.003957628117684742</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-0.53102385419459</c:v>
+                  <c:v>-0.0053102385419459</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1.028973734091521</c:v>
+                  <c:v>0.01028973734091521</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.176319001763181</c:v>
+                  <c:v>0.00176319001763181</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.9282787060564734</c:v>
+                  <c:v>0.009282787060564734</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1.361511711602326</c:v>
+                  <c:v>0.01361511711602326</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-0.5793852653360299</c:v>
+                  <c:v>-0.005793852653360299</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-1.14718190418559</c:v>
+                  <c:v>-0.0114718190418559</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-0.3786817460115333</c:v>
+                  <c:v>-0.003786817460115333</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-0.09839430670184335</c:v>
+                  <c:v>-0.0009839430670184335</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1.858443780131669</c:v>
+                  <c:v>0.01858443780131669</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-1.525503041647169</c:v>
+                  <c:v>-0.01525503041647169</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-0.7339279078409477</c:v>
+                  <c:v>-0.007339279078409477</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.095448297060297</c:v>
+                  <c:v>0.01095448297060297</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1.108454120876745</c:v>
+                  <c:v>0.01108454120876745</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-1.016013535453664</c:v>
+                  <c:v>-0.01016013535453664</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-0.9387565073856186</c:v>
+                  <c:v>-0.009387565073856186</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1.703743241847167</c:v>
+                  <c:v>0.01703743241847167</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1.50923279937778</c:v>
+                  <c:v>0.0150923279937778</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-0.8491538788136133</c:v>
+                  <c:v>-0.008491538788136133</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.371362474126391</c:v>
+                  <c:v>0.00371362474126391</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-0.5277181811890075</c:v>
+                  <c:v>-0.005277181811890075</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-0.498403215948906</c:v>
+                  <c:v>-0.00498403215948906</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-0.5470422052906376</c:v>
+                  <c:v>-0.005470422052906376</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-1.062973785626564</c:v>
+                  <c:v>-0.01062973785626564</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-0.2408111533586776</c:v>
+                  <c:v>-0.002408111533586776</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-0.04982729353343318</c:v>
+                  <c:v>-0.0004982729353343318</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-0.5718364262322639</c:v>
+                  <c:v>-0.005718364262322639</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-0.2429217624392743</c:v>
+                  <c:v>-0.002429217624392743</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-0.1071058004485037</c:v>
+                  <c:v>-0.001071058004485037</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-0.893967790622463</c:v>
+                  <c:v>-0.00893967790622463</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-0.2258830538064971</c:v>
+                  <c:v>-0.002258830538064971</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-0.3208300343098491</c:v>
+                  <c:v>-0.003208300343098491</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-0.5699384138490915</c:v>
+                  <c:v>-0.005699384138490915</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1.461056520255943</c:v>
+                  <c:v>0.01461056520255943</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.1641803483623638</c:v>
+                  <c:v>0.001641803483623638</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-2.09693211488251</c:v>
+                  <c:v>-0.0209693211488251</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.4524293488951558</c:v>
+                  <c:v>0.004524293488951558</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.5488618944800683</c:v>
+                  <c:v>0.005488618944800683</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.9358077476563142</c:v>
+                  <c:v>0.009358077476563142</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>1.807203407772495</c:v>
+                  <c:v>0.01807203407772495</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.4517149857084624</c:v>
+                  <c:v>0.004517149857084624</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-0.2452457124430429</c:v>
+                  <c:v>-0.002452457124430429</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-0.3197455569747709</c:v>
+                  <c:v>-0.003197455569747709</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.4315654441810812</c:v>
+                  <c:v>0.004315654441810812</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-1.302153206332168</c:v>
+                  <c:v>-0.01302153206332168</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>1.358081348902829</c:v>
+                  <c:v>0.01358081348902829</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.3804811465620173</c:v>
+                  <c:v>0.003804811465620173</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-0.6121653015889184</c:v>
+                  <c:v>-0.006121653015889184</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-0.8040505307069901</c:v>
+                  <c:v>-0.008040505307069901</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>1.253555430654196</c:v>
+                  <c:v>0.01253555430654196</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-1.775840868597811</c:v>
+                  <c:v>-0.01775840868597811</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.3972253014881355</c:v>
+                  <c:v>0.003972253014881355</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-0.4988593918427764</c:v>
+                  <c:v>-0.004988593918427764</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>1.343077561458927</c:v>
+                  <c:v>0.01343077561458927</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-0.2500359004248942</c:v>
+                  <c:v>-0.002500359004248942</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>1.458677933853836</c:v>
+                  <c:v>0.01458677933853836</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-0.7164555023272068</c:v>
+                  <c:v>-0.007164555023272068</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-0.6089155383405376</c:v>
+                  <c:v>-0.006089155383405376</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-0.6169259604797528</c:v>
+                  <c:v>-0.006169259604797528</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.03615450586038627</c:v>
+                  <c:v>0.0003615450586038627</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-1.234014283341633</c:v>
+                  <c:v>-0.01234014283341633</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.6671013693133387</c:v>
+                  <c:v>0.006671013693133387</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-0.1968996646031118</c:v>
+                  <c:v>-0.001968996646031118</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.9262533892453462</c:v>
+                  <c:v>0.009262533892453462</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-0.3883544006508921</c:v>
+                  <c:v>-0.003883544006508921</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.1276570727897219</c:v>
+                  <c:v>0.001276570727897219</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>1.992410679869461</c:v>
+                  <c:v>0.01992410679869461</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-0.5053862412217947</c:v>
+                  <c:v>-0.005053862412217947</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.270896179252933</c:v>
+                  <c:v>0.00270896179252933</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>1.325678858409529</c:v>
+                  <c:v>0.01325678858409529</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.7660762586161773</c:v>
+                  <c:v>0.007660762586161773</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>1.69837438773337</c:v>
+                  <c:v>0.0169837438773337</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.1226034577728852</c:v>
+                  <c:v>0.001226034577728852</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>1.802559580337348</c:v>
+                  <c:v>0.01802559580337348</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2.058429870309686</c:v>
+                  <c:v>0.02058429870309686</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-0.5799921077023318</c:v>
+                  <c:v>-0.005799921077023318</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-1.238070205650166</c:v>
+                  <c:v>-0.01238070205650166</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-0.5166537428092255</c:v>
+                  <c:v>-0.005166537428092255</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.7741654097079609</c:v>
+                  <c:v>0.007741654097079609</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>1.15257352941176</c:v>
+                  <c:v>0.0115257352941176</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-1.02702653530915</c:v>
+                  <c:v>-0.0102702653530915</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-0.257682850480434</c:v>
+                  <c:v>-0.00257682850480434</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-0.4803828615287387</c:v>
+                  <c:v>-0.004803828615287387</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.5785229047843954</c:v>
+                  <c:v>0.005785229047843954</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.5919970765576377</c:v>
+                  <c:v>0.005919970765576377</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>1.170120339390346</c:v>
+                  <c:v>0.01170120339390346</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>-0.7658512872721901</c:v>
+                  <c:v>-0.007658512872721901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3545,10 +3545,10 @@
         <v>45414</v>
       </c>
       <c r="B2">
-        <v>-0.2704073009971331</v>
+        <v>-0.002704073009971331</v>
       </c>
       <c r="C2">
-        <v>0.9513674915028192</v>
+        <v>0.009513674915028192</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3559,10 +3559,10 @@
         <v>45412</v>
       </c>
       <c r="B3">
-        <v>-0.9320454160311797</v>
+        <v>-0.009320454160311797</v>
       </c>
       <c r="C3">
-        <v>-1.121301589295809</v>
+        <v>-0.01121301589295809</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -3573,10 +3573,10 @@
         <v>45411</v>
       </c>
       <c r="B4">
-        <v>0.7526513855627748</v>
+        <v>0.007526513855627748</v>
       </c>
       <c r="C4">
-        <v>0.6528302483284065</v>
+        <v>0.006528302483284065</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -3587,10 +3587,10 @@
         <v>45408</v>
       </c>
       <c r="B5">
-        <v>1.154499151103572</v>
+        <v>0.01154499151103572</v>
       </c>
       <c r="C5">
-        <v>1.50827142467469</v>
+        <v>0.0150827142467469</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -3601,10 +3601,10 @@
         <v>45407</v>
       </c>
       <c r="B6">
-        <v>0.5370929842228866</v>
+        <v>0.005370929842228866</v>
       </c>
       <c r="C6">
-        <v>-0.07615779895944197</v>
+        <v>-0.0007615779895944197</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -3615,10 +3615,10 @@
         <v>45406</v>
       </c>
       <c r="B7">
-        <v>1.101836393989997</v>
+        <v>0.01101836393989997</v>
       </c>
       <c r="C7">
-        <v>-0.3252149455045261</v>
+        <v>-0.003252149455045261</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -3629,10 +3629,10 @@
         <v>45405</v>
       </c>
       <c r="B8">
-        <v>-0.7265521796565477</v>
+        <v>-0.007265521796565477</v>
       </c>
       <c r="C8">
-        <v>-0.3384485518383773</v>
+        <v>-0.003384485518383773</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -3643,10 +3643,10 @@
         <v>45404</v>
       </c>
       <c r="B9">
-        <v>0.7152361942781127</v>
+        <v>0.007152361942781127</v>
       </c>
       <c r="C9">
-        <v>0.35884402672548</v>
+        <v>0.0035884402672548</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -3657,10 +3657,10 @@
         <v>45401</v>
       </c>
       <c r="B10">
-        <v>1.09000825763832</v>
+        <v>0.0109000825763832</v>
       </c>
       <c r="C10">
-        <v>0.7472060291796812</v>
+        <v>0.007472060291796812</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -3671,10 +3671,10 @@
         <v>45400</v>
       </c>
       <c r="B11">
-        <v>-0.7515111909818684</v>
+        <v>-0.007515111909818684</v>
       </c>
       <c r="C11">
-        <v>0.02013352554139924</v>
+        <v>0.0002013352554139924</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -3685,10 +3685,10 @@
         <v>45399</v>
       </c>
       <c r="B12">
-        <v>0.09876543209876854</v>
+        <v>0.0009876543209876854</v>
       </c>
       <c r="C12">
-        <v>-0.1752566545273337</v>
+        <v>-0.001752566545273337</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -3699,10 +3699,10 @@
         <v>45398</v>
       </c>
       <c r="B13">
-        <v>0.8880118401578763</v>
+        <v>0.008880118401578763</v>
       </c>
       <c r="C13">
-        <v>-0.7539853511417505</v>
+        <v>-0.007539853511417505</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -3713,10 +3713,10 @@
         <v>45397</v>
       </c>
       <c r="B14">
-        <v>-0.4889975550122272</v>
+        <v>-0.004889975550122272</v>
       </c>
       <c r="C14">
-        <v>-0.4859225382306653</v>
+        <v>-0.004859225382306653</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -3727,10 +3727,10 @@
         <v>45394</v>
       </c>
       <c r="B15">
-        <v>0.2457002457002533</v>
+        <v>0.002457002457002533</v>
       </c>
       <c r="C15">
-        <v>-1.138183302458473</v>
+        <v>-0.01138183302458473</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -3741,10 +3741,10 @@
         <v>45393</v>
       </c>
       <c r="B16">
-        <v>0.01633986928104569</v>
+        <v>0.0001633986928104569</v>
       </c>
       <c r="C16">
-        <v>-0.5138457213363146</v>
+        <v>-0.005138457213363146</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -3755,10 +3755,10 @@
         <v>45392</v>
       </c>
       <c r="B17">
-        <v>0.8985459892174363</v>
+        <v>0.008985459892174363</v>
       </c>
       <c r="C17">
-        <v>-1.413503733928712</v>
+        <v>-0.01413503733928712</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -3769,10 +3769,10 @@
         <v>45391</v>
       </c>
       <c r="B18">
-        <v>0.85816062176165</v>
+        <v>0.0085816062176165</v>
       </c>
       <c r="C18">
-        <v>0.8016638599377623</v>
+        <v>0.008016638599377623</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -3783,10 +3783,10 @@
         <v>45390</v>
       </c>
       <c r="B19">
-        <v>0.4976721785198368</v>
+        <v>0.004976721785198368</v>
       </c>
       <c r="C19">
-        <v>1.62624709176229</v>
+        <v>0.0162624709176229</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -3797,10 +3797,10 @@
         <v>45387</v>
       </c>
       <c r="B20">
-        <v>0.3354632587859507</v>
+        <v>0.003354632587859507</v>
       </c>
       <c r="C20">
-        <v>-0.4967511065072094</v>
+        <v>-0.004967511065072094</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -3811,10 +3811,10 @@
         <v>45386</v>
       </c>
       <c r="B21">
-        <v>1.703550390065267</v>
+        <v>0.01703550390065267</v>
       </c>
       <c r="C21">
-        <v>0.0863978384831654</v>
+        <v>0.000863978384831654</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -3825,10 +3825,10 @@
         <v>45385</v>
       </c>
       <c r="B22">
-        <v>1.127113337507812</v>
+        <v>0.01127113337507812</v>
       </c>
       <c r="C22">
-        <v>-0.1811068687328055</v>
+        <v>-0.001811068687328055</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -3839,10 +3839,10 @@
         <v>45384</v>
       </c>
       <c r="B23">
-        <v>0.9752321981424394</v>
+        <v>0.009752321981424394</v>
       </c>
       <c r="C23">
-        <v>0.4401921411134824</v>
+        <v>0.004401921411134824</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -3853,10 +3853,10 @@
         <v>45383</v>
       </c>
       <c r="B24">
-        <v>-0.5212325617047431</v>
+        <v>-0.005212325617047431</v>
       </c>
       <c r="C24">
-        <v>-0.8711535759449163</v>
+        <v>-0.008711535759449163</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -3867,10 +3867,10 @@
         <v>45379</v>
       </c>
       <c r="B25">
-        <v>-1.40237324703345</v>
+        <v>-0.0140237324703345</v>
       </c>
       <c r="C25">
-        <v>0.3250033283473286</v>
+        <v>0.003250033283473286</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -3881,10 +3881,10 @@
         <v>45378</v>
       </c>
       <c r="B26">
-        <v>-0.2813379180994002</v>
+        <v>-0.002813379180994002</v>
       </c>
       <c r="C26">
-        <v>0.6526725680458423</v>
+        <v>0.006526725680458423</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -3895,10 +3895,10 @@
         <v>45377</v>
       </c>
       <c r="B27">
-        <v>-1.300940438871467</v>
+        <v>-0.01300940438871467</v>
       </c>
       <c r="C27">
-        <v>-0.0535724133584381</v>
+        <v>-0.000535724133584381</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -3909,10 +3909,10 @@
         <v>45376</v>
       </c>
       <c r="B28">
-        <v>-2.143878037160551</v>
+        <v>-0.02143878037160551</v>
       </c>
       <c r="C28">
-        <v>-0.07557448416478652</v>
+        <v>-0.0007557448416478652</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -3923,10 +3923,10 @@
         <v>45373</v>
       </c>
       <c r="B29">
-        <v>0.04829362524148006</v>
+        <v>0.0004829362524148006</v>
       </c>
       <c r="C29">
-        <v>-0.8832778033536437</v>
+        <v>-0.008832778033536437</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -3937,10 +3937,10 @@
         <v>45372</v>
       </c>
       <c r="B30">
-        <v>-0.1769911504424737</v>
+        <v>-0.001769911504424737</v>
       </c>
       <c r="C30">
-        <v>-0.7481122942884832</v>
+        <v>-0.007481122942884832</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -3951,10 +3951,10 @@
         <v>45371</v>
       </c>
       <c r="B31">
-        <v>0.03223726627983314</v>
+        <v>0.0003223726627983314</v>
       </c>
       <c r="C31">
-        <v>1.251480055516785</v>
+        <v>0.01251480055516785</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -3965,10 +3965,10 @@
         <v>45370</v>
       </c>
       <c r="B32">
-        <v>1.272961650016113</v>
+        <v>0.01272961650016113</v>
       </c>
       <c r="C32">
-        <v>0.4529199552593788</v>
+        <v>0.004529199552593788</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -3979,10 +3979,10 @@
         <v>45369</v>
       </c>
       <c r="B33">
-        <v>-2.863961813842486</v>
+        <v>-0.02863961813842486</v>
       </c>
       <c r="C33">
-        <v>0.1672689400514349</v>
+        <v>0.001672689400514349</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -3993,10 +3993,10 @@
         <v>45366</v>
       </c>
       <c r="B34">
-        <v>-0.4095004095004073</v>
+        <v>-0.004095004095004073</v>
       </c>
       <c r="C34">
-        <v>-0.7424230558383593</v>
+        <v>-0.007424230558383593</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -4007,10 +4007,10 @@
         <v>45365</v>
       </c>
       <c r="B35">
-        <v>-2.138157894736836</v>
+        <v>-0.02138157894736836</v>
       </c>
       <c r="C35">
-        <v>-0.2468634282768001</v>
+        <v>-0.002468634282768001</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -4021,10 +4021,10 @@
         <v>45364</v>
       </c>
       <c r="B36">
-        <v>-0.1176470588235334</v>
+        <v>-0.001176470588235334</v>
       </c>
       <c r="C36">
-        <v>0.2647491932199042</v>
+        <v>0.002647491932199042</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -4035,10 +4035,10 @@
         <v>45363</v>
       </c>
       <c r="B37">
-        <v>-0.5384485949856965</v>
+        <v>-0.005384485949856965</v>
       </c>
       <c r="C37">
-        <v>1.224192064951946</v>
+        <v>0.01224192064951946</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -4049,10 +4049,10 @@
         <v>45362</v>
       </c>
       <c r="B38">
-        <v>-0.913551006597868</v>
+        <v>-0.00913551006597868</v>
       </c>
       <c r="C38">
-        <v>-0.7452526540280613</v>
+        <v>-0.007452526540280613</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -4063,10 +4063,10 @@
         <v>45359</v>
       </c>
       <c r="B39">
-        <v>0.9902680553184107</v>
+        <v>0.009902680553184107</v>
       </c>
       <c r="C39">
-        <v>-0.9887798036465667</v>
+        <v>-0.009887798036465667</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -4077,10 +4077,10 @@
         <v>45358</v>
       </c>
       <c r="B40">
-        <v>-0.5579036348267064</v>
+        <v>-0.005579036348267064</v>
       </c>
       <c r="C40">
-        <v>-0.4267204593063845</v>
+        <v>-0.004267204593063845</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -4091,10 +4091,10 @@
         <v>45357</v>
       </c>
       <c r="B41">
-        <v>-0.9010540632438002</v>
+        <v>-0.009010540632438002</v>
       </c>
       <c r="C41">
-        <v>0.6182766319536626</v>
+        <v>0.006182766319536626</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -4105,10 +4105,10 @@
         <v>45356</v>
       </c>
       <c r="B42">
-        <v>0.480356836507112</v>
+        <v>0.00480356836507112</v>
       </c>
       <c r="C42">
-        <v>-0.1893393381694031</v>
+        <v>-0.001893393381694031</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -4119,10 +4119,10 @@
         <v>45355</v>
       </c>
       <c r="B43">
-        <v>-0.2048830459279505</v>
+        <v>-0.002048830459279505</v>
       </c>
       <c r="C43">
-        <v>-0.6494813438612801</v>
+        <v>-0.006494813438612801</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -4133,10 +4133,10 @@
         <v>45352</v>
       </c>
       <c r="B44">
-        <v>-1.64242942686057</v>
+        <v>-0.0164242942686057</v>
       </c>
       <c r="C44">
-        <v>0.1240117811192043</v>
+        <v>0.001240117811192043</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -4147,10 +4147,10 @@
         <v>45351</v>
       </c>
       <c r="B45">
-        <v>-1.982953557140377</v>
+        <v>-0.01982953557140377</v>
       </c>
       <c r="C45">
-        <v>-0.8720371864315624</v>
+        <v>-0.008720371864315624</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
@@ -4161,10 +4161,10 @@
         <v>45350</v>
       </c>
       <c r="B46">
-        <v>1.827861579414369</v>
+        <v>0.01827861579414369</v>
       </c>
       <c r="C46">
-        <v>-1.164865706323226</v>
+        <v>-0.01164865706323226</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
@@ -4175,10 +4175,10 @@
         <v>45349</v>
       </c>
       <c r="B47">
-        <v>-0.9759498082955731</v>
+        <v>-0.009759498082955731</v>
       </c>
       <c r="C47">
-        <v>1.604826825297634</v>
+        <v>0.01604826825297634</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
@@ -4189,10 +4189,10 @@
         <v>45348</v>
       </c>
       <c r="B48">
-        <v>-1.231960577261537</v>
+        <v>-0.01231960577261537</v>
       </c>
       <c r="C48">
-        <v>0.1468099738060058</v>
+        <v>0.001468099738060058</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
@@ -4203,10 +4203,10 @@
         <v>45345</v>
       </c>
       <c r="B49">
-        <v>-1.514611546685662</v>
+        <v>-0.01514611546685662</v>
       </c>
       <c r="C49">
-        <v>-0.6311376601838115</v>
+        <v>-0.006311376601838115</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
@@ -4217,10 +4217,10 @@
         <v>45344</v>
       </c>
       <c r="B50">
-        <v>0.850370906459208</v>
+        <v>0.00850370906459208</v>
       </c>
       <c r="C50">
-        <v>0.1607296665436131</v>
+        <v>0.001607296665436131</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
@@ -4231,10 +4231,10 @@
         <v>45343</v>
       </c>
       <c r="B51">
-        <v>-0.8432005740940052</v>
+        <v>-0.008432005740940052</v>
       </c>
       <c r="C51">
-        <v>0.08928846331475171</v>
+        <v>0.0008928846331475171</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
@@ -4245,10 +4245,10 @@
         <v>45342</v>
       </c>
       <c r="B52">
-        <v>-2.533019721367846</v>
+        <v>-0.02533019721367846</v>
       </c>
       <c r="C52">
-        <v>0.6819802225735527</v>
+        <v>0.006819802225735527</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
@@ -4259,10 +4259,10 @@
         <v>45341</v>
       </c>
       <c r="B53">
-        <v>-1.54074624095043</v>
+        <v>-0.0154074624095043</v>
       </c>
       <c r="C53">
-        <v>0.2408215900439714</v>
+        <v>0.002408215900439714</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
@@ -4273,10 +4273,10 @@
         <v>45338</v>
       </c>
       <c r="B54">
-        <v>0.01885369532428349</v>
+        <v>0.0001885369532428349</v>
       </c>
       <c r="C54">
-        <v>0.7214171700416161</v>
+        <v>0.007214171700416161</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
@@ -4287,10 +4287,10 @@
         <v>45337</v>
       </c>
       <c r="B55">
-        <v>-1.33836003770027</v>
+        <v>-0.0133836003770027</v>
       </c>
       <c r="C55">
-        <v>0.6188099324505147</v>
+        <v>0.006188099324505147</v>
       </c>
       <c r="D55" t="s">
         <v>6</v>
@@ -4301,10 +4301,10 @@
         <v>45336</v>
       </c>
       <c r="B56">
-        <v>-0.1719526175009589</v>
+        <v>-0.001719526175009589</v>
       </c>
       <c r="C56">
-        <v>-0.7873400715479706</v>
+        <v>-0.007873400715479706</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
@@ -4315,10 +4315,10 @@
         <v>45331</v>
       </c>
       <c r="B57">
-        <v>0.8612440191387627</v>
+        <v>0.008612440191387627</v>
       </c>
       <c r="C57">
-        <v>-0.1489662057293506</v>
+        <v>-0.001489662057293506</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
@@ -4329,10 +4329,10 @@
         <v>45330</v>
       </c>
       <c r="B58">
-        <v>1.423149905123333</v>
+        <v>0.01423149905123333</v>
       </c>
       <c r="C58">
-        <v>-1.073236219986418</v>
+        <v>-0.01073236219986418</v>
       </c>
       <c r="D58" t="s">
         <v>6</v>
@@ -4343,10 +4343,10 @@
         <v>45329</v>
       </c>
       <c r="B59">
-        <v>0.467726847521055</v>
+        <v>0.00467726847521055</v>
       </c>
       <c r="C59">
-        <v>-0.6195558827137737</v>
+        <v>-0.006195558827137737</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
@@ -4357,10 +4357,10 @@
         <v>45328</v>
       </c>
       <c r="B60">
-        <v>0.0186219739292337</v>
+        <v>0.000186219739292337</v>
       </c>
       <c r="C60">
-        <v>2.212503820742517</v>
+        <v>0.02212503820742517</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
@@ -4371,10 +4371,10 @@
         <v>45327</v>
       </c>
       <c r="B61">
-        <v>-3.649227331967975</v>
+        <v>-0.03649227331967975</v>
       </c>
       <c r="C61">
-        <v>0.3231589375854993</v>
+        <v>0.003231589375854993</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
@@ -4385,10 +4385,10 @@
         <v>45324</v>
       </c>
       <c r="B62">
-        <v>-0.7922705314009626</v>
+        <v>-0.007922705314009626</v>
       </c>
       <c r="C62">
-        <v>-1.011044434585662</v>
+        <v>-0.01011044434585662</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
@@ -4399,10 +4399,10 @@
         <v>45323</v>
       </c>
       <c r="B63">
-        <v>-0.4674717569146947</v>
+        <v>-0.004674717569146947</v>
       </c>
       <c r="C63">
-        <v>0.570636858914142</v>
+        <v>0.00570636858914142</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
@@ -4413,10 +4413,10 @@
         <v>45322</v>
       </c>
       <c r="B64">
-        <v>1.017612524461842</v>
+        <v>0.01017612524461842</v>
       </c>
       <c r="C64">
-        <v>0.2747209619943236</v>
+        <v>0.002747209619943236</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -4427,10 +4427,10 @@
         <v>45321</v>
       </c>
       <c r="B65">
-        <v>0.9298721425804013</v>
+        <v>0.009298721425804013</v>
       </c>
       <c r="C65">
-        <v>-0.8567893356575373</v>
+        <v>-0.008567893356575373</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -4441,10 +4441,10 @@
         <v>45320</v>
       </c>
       <c r="B66">
-        <v>-2.49520153550864</v>
+        <v>-0.0249520153550864</v>
       </c>
       <c r="C66">
-        <v>-0.3597819597261354</v>
+        <v>-0.003597819597261354</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -4455,10 +4455,10 @@
         <v>45317</v>
       </c>
       <c r="B67">
-        <v>4.153543307086616</v>
+        <v>0.04153543307086616</v>
       </c>
       <c r="C67">
-        <v>0.6226154530346584</v>
+        <v>0.006226154530346584</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -4469,10 +4469,10 @@
         <v>45316</v>
       </c>
       <c r="B68">
-        <v>-2.003402003401999</v>
+        <v>-0.02003402003401999</v>
       </c>
       <c r="C68">
-        <v>0.2761782562433535</v>
+        <v>0.002761782562433535</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -4483,10 +4483,10 @@
         <v>45315</v>
       </c>
       <c r="B69">
-        <v>0.03857280617163283</v>
+        <v>0.0003857280617163283</v>
       </c>
       <c r="C69">
-        <v>-0.3485026858875861</v>
+        <v>-0.003485026858875861</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -4497,10 +4497,10 @@
         <v>45314</v>
       </c>
       <c r="B70">
-        <v>0.443416232889926</v>
+        <v>0.00443416232889926</v>
       </c>
       <c r="C70">
-        <v>1.311985592644671</v>
+        <v>0.01311985592644671</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -4511,10 +4511,10 @@
         <v>45313</v>
       </c>
       <c r="B71">
-        <v>-0.8253358925143894</v>
+        <v>-0.008253358925143894</v>
       </c>
       <c r="C71">
-        <v>-0.8101162681375174</v>
+        <v>-0.008101162681375174</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -4525,10 +4525,10 @@
         <v>45310</v>
       </c>
       <c r="B72">
-        <v>0.2515966711824857</v>
+        <v>0.002515966711824857</v>
       </c>
       <c r="C72">
-        <v>0.2513431147695533</v>
+        <v>0.002513431147695533</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -4539,10 +4539,10 @@
         <v>45309</v>
       </c>
       <c r="B73">
-        <v>-0.5212355212355191</v>
+        <v>-0.005212355212355191</v>
       </c>
       <c r="C73">
-        <v>-0.9399022750614661</v>
+        <v>-0.009399022750614661</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -4553,10 +4553,10 @@
         <v>45308</v>
       </c>
       <c r="B74">
-        <v>2.270522026004262</v>
+        <v>0.02270522026004262</v>
       </c>
       <c r="C74">
-        <v>-0.5955419431682873</v>
+        <v>-0.005955419431682873</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -4567,10 +4567,10 @@
         <v>45307</v>
       </c>
       <c r="B75">
-        <v>0.4174573055028441</v>
+        <v>0.004174573055028441</v>
       </c>
       <c r="C75">
-        <v>-1.693265714220538</v>
+        <v>-0.01693265714220538</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -4581,10 +4581,10 @@
         <v>45306</v>
       </c>
       <c r="B76">
-        <v>1.776266061980336</v>
+        <v>0.01776266061980336</v>
       </c>
       <c r="C76">
-        <v>0.4069075029773828</v>
+        <v>0.004069075029773828</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -4595,10 +4595,10 @@
         <v>45303</v>
       </c>
       <c r="B77">
-        <v>-0.519866320089124</v>
+        <v>-0.00519866320089124</v>
       </c>
       <c r="C77">
-        <v>0.259473857434811</v>
+        <v>0.00259473857434811</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -4609,10 +4609,10 @@
         <v>45302</v>
       </c>
       <c r="B78">
-        <v>1.082493467711831</v>
+        <v>0.01082493467711831</v>
       </c>
       <c r="C78">
-        <v>-0.146742993404203</v>
+        <v>-0.00146742993404203</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -4623,10 +4623,10 @@
         <v>45301</v>
       </c>
       <c r="B79">
-        <v>-0.7200886262924588</v>
+        <v>-0.007200886262924588</v>
       </c>
       <c r="C79">
-        <v>-0.4610223131756519</v>
+        <v>-0.004610223131756519</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -4637,10 +4637,10 @@
         <v>45300</v>
       </c>
       <c r="B80">
-        <v>0.5765296633810646</v>
+        <v>0.005765296633810646</v>
       </c>
       <c r="C80">
-        <v>-0.7400303563472654</v>
+        <v>-0.007400303563472654</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -4651,10 +4651,10 @@
         <v>45299</v>
       </c>
       <c r="B81">
-        <v>1.238905325443795</v>
+        <v>0.01238905325443795</v>
       </c>
       <c r="C81">
-        <v>0.3060072866091446</v>
+        <v>0.003060072866091446</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
@@ -4665,10 +4665,10 @@
         <v>45296</v>
       </c>
       <c r="B82">
-        <v>-1.27853881278539</v>
+        <v>-0.0127853881278539</v>
       </c>
       <c r="C82">
-        <v>0.6073491533689968</v>
+        <v>0.006073491533689968</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -4679,10 +4679,10 @@
         <v>45295</v>
       </c>
       <c r="B83">
-        <v>1.036077705827942</v>
+        <v>0.01036077705827942</v>
       </c>
       <c r="C83">
-        <v>-1.210533447761863</v>
+        <v>-0.01210533447761863</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
@@ -4693,10 +4693,10 @@
         <v>45294</v>
       </c>
       <c r="B84">
-        <v>1.538179820545693</v>
+        <v>0.01538179820545693</v>
       </c>
       <c r="C84">
-        <v>0.1032427259094026</v>
+        <v>0.001032427259094026</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -4707,10 +4707,10 @@
         <v>45293</v>
       </c>
       <c r="B85">
-        <v>-0.5590622182146121</v>
+        <v>-0.005590622182146121</v>
       </c>
       <c r="C85">
-        <v>-1.108916793978465</v>
+        <v>-0.01108916793978465</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -4721,10 +4721,10 @@
         <v>45288</v>
       </c>
       <c r="B86">
-        <v>0.888647080159588</v>
+        <v>0.00888647080159588</v>
       </c>
       <c r="C86">
-        <v>-0.006706708198578326</v>
+        <v>-6.706708198578326E-05</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
@@ -4735,10 +4735,10 @@
         <v>45287</v>
       </c>
       <c r="B87">
-        <v>-0.1438072982203997</v>
+        <v>-0.001438072982203997</v>
       </c>
       <c r="C87">
-        <v>0.4950087244351531</v>
+        <v>0.004950087244351531</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
@@ -4749,10 +4749,10 @@
         <v>45286</v>
       </c>
       <c r="B88">
-        <v>-0.5940594059405946</v>
+        <v>-0.005940594059405946</v>
       </c>
       <c r="C88">
-        <v>0.5875573433368642</v>
+        <v>0.005875573433368642</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -4763,10 +4763,10 @@
         <v>45282</v>
       </c>
       <c r="B89">
-        <v>-0.5070626584570803</v>
+        <v>-0.005070626584570803</v>
       </c>
       <c r="C89">
-        <v>0.431980148583011</v>
+        <v>0.00431980148583011</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -4777,10 +4777,10 @@
         <v>45281</v>
       </c>
       <c r="B90">
-        <v>-0.8918820531488847</v>
+        <v>-0.008918820531488847</v>
       </c>
       <c r="C90">
-        <v>1.053484602917343</v>
+        <v>0.01053484602917343</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -4791,10 +4791,10 @@
         <v>45280</v>
       </c>
       <c r="B91">
-        <v>-1.010101010101017</v>
+        <v>-0.01010101010101017</v>
       </c>
       <c r="C91">
-        <v>-0.7940781639881433</v>
+        <v>-0.007940781639881433</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
@@ -4805,10 +4805,10 @@
         <v>45279</v>
       </c>
       <c r="B92">
-        <v>-1.725417439703159</v>
+        <v>-0.01725417439703159</v>
       </c>
       <c r="C92">
-        <v>0.5851209911202027</v>
+        <v>0.005851209911202027</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -4819,10 +4819,10 @@
         <v>45278</v>
       </c>
       <c r="B93">
-        <v>-0.7929016424391144</v>
+        <v>-0.007929016424391144</v>
       </c>
       <c r="C93">
-        <v>0.6812752982019665</v>
+        <v>0.006812752982019665</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -4833,10 +4833,10 @@
         <v>45275</v>
       </c>
       <c r="B94">
-        <v>0.1522359657469163</v>
+        <v>0.001522359657469163</v>
       </c>
       <c r="C94">
-        <v>-0.4929609758334452</v>
+        <v>-0.004929609758334452</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -4847,10 +4847,10 @@
         <v>45274</v>
       </c>
       <c r="B95">
-        <v>-0.4180125403762225</v>
+        <v>-0.004180125403762225</v>
       </c>
       <c r="C95">
-        <v>1.063607924921794</v>
+        <v>0.01063607924921794</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -4861,10 +4861,10 @@
         <v>45273</v>
       </c>
       <c r="B96">
-        <v>-1.0684983781721</v>
+        <v>-0.010684983781721</v>
       </c>
       <c r="C96">
-        <v>2.422410860501722</v>
+        <v>0.02422410860501722</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -4875,10 +4875,10 @@
         <v>45272</v>
       </c>
       <c r="B97">
-        <v>-1.716489874638383</v>
+        <v>-0.01716489874638383</v>
       </c>
       <c r="C97">
-        <v>-0.4042043556367947</v>
+        <v>-0.004042043556367947</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -4889,10 +4889,10 @@
         <v>45271</v>
       </c>
       <c r="B98">
-        <v>0.8634222919937207</v>
+        <v>0.008634222919937207</v>
       </c>
       <c r="C98">
-        <v>-0.1400538184336053</v>
+        <v>-0.001400538184336053</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -4903,10 +4903,10 @@
         <v>45268</v>
       </c>
       <c r="B99">
-        <v>-1.225680933852136</v>
+        <v>-0.01225680933852136</v>
       </c>
       <c r="C99">
-        <v>0.8602491865725037</v>
+        <v>0.008602491865725037</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -4917,10 +4917,10 @@
         <v>45267</v>
       </c>
       <c r="B100">
-        <v>-2.028757140043336</v>
+        <v>-0.02028757140043336</v>
       </c>
       <c r="C100">
-        <v>0.3080646060036774</v>
+        <v>0.003080646060036774</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -4931,10 +4931,10 @@
         <v>45266</v>
       </c>
       <c r="B101">
-        <v>0.3216726980297402</v>
+        <v>0.003216726980297402</v>
       </c>
       <c r="C101">
-        <v>-1.008644397689573</v>
+        <v>-0.01008644397689573</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -4945,10 +4945,10 @@
         <v>45265</v>
       </c>
       <c r="B102">
-        <v>0.7414829659318833</v>
+        <v>0.007414829659318833</v>
       </c>
       <c r="C102">
-        <v>0.07886248748059099</v>
+        <v>0.0007886248748059099</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -4959,10 +4959,10 @@
         <v>45264</v>
       </c>
       <c r="B103">
-        <v>0.6564551422319376</v>
+        <v>0.006564551422319376</v>
       </c>
       <c r="C103">
-        <v>-1.014808396368549</v>
+        <v>-0.01014808396368549</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -4973,10 +4973,10 @@
         <v>45261</v>
       </c>
       <c r="B104">
-        <v>-0.05928853754940677</v>
+        <v>-0.0005928853754940677</v>
       </c>
       <c r="C104">
-        <v>0.6062938326095058</v>
+        <v>0.006062938326095058</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -4987,10 +4987,10 @@
         <v>45260</v>
       </c>
       <c r="B105">
-        <v>3.915364840814717</v>
+        <v>0.03915364840814717</v>
       </c>
       <c r="C105">
-        <v>0.975408601042016</v>
+        <v>0.00975408601042016</v>
       </c>
       <c r="D105" t="s">
         <v>9</v>
@@ -5001,10 +5001,10 @@
         <v>45259</v>
       </c>
       <c r="B106">
-        <v>0.8753568030447134</v>
+        <v>0.008753568030447134</v>
       </c>
       <c r="C106">
-        <v>-0.3453508037111419</v>
+        <v>-0.003453508037111419</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -5015,10 +5015,10 @@
         <v>45258</v>
       </c>
       <c r="B107">
-        <v>-1.660064138841721</v>
+        <v>-0.01660064138841721</v>
       </c>
       <c r="C107">
-        <v>0.6802829340483596</v>
+        <v>0.006802829340483596</v>
       </c>
       <c r="D107" t="s">
         <v>9</v>
@@ -5029,10 +5029,10 @@
         <v>45257</v>
       </c>
       <c r="B108">
-        <v>0.7481296758104827</v>
+        <v>0.007481296758104827</v>
       </c>
       <c r="C108">
-        <v>0.1123130107852255</v>
+        <v>0.001123130107852255</v>
       </c>
       <c r="D108" t="s">
         <v>9</v>
@@ -5043,10 +5043,10 @@
         <v>45254</v>
       </c>
       <c r="B109">
-        <v>-0.5331302361005319</v>
+        <v>-0.005331302361005319</v>
       </c>
       <c r="C109">
-        <v>-0.8169005182657063</v>
+        <v>-0.008169005182657063</v>
       </c>
       <c r="D109" t="s">
         <v>9</v>
@@ -5057,10 +5057,10 @@
         <v>45253</v>
       </c>
       <c r="B110">
-        <v>0.631699846860645</v>
+        <v>0.00631699846860645</v>
       </c>
       <c r="C110">
-        <v>0.4292458444083103</v>
+        <v>0.004292458444083103</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
@@ -5071,10 +5071,10 @@
         <v>45252</v>
       </c>
       <c r="B111">
-        <v>-0.68480121742438</v>
+        <v>-0.0068480121742438</v>
       </c>
       <c r="C111">
-        <v>0.3407453406259142</v>
+        <v>0.003407453406259142</v>
       </c>
       <c r="D111" t="s">
         <v>9</v>
@@ -5085,10 +5085,10 @@
         <v>45251</v>
       </c>
       <c r="B112">
-        <v>-0.8427504309519218</v>
+        <v>-0.008427504309519218</v>
       </c>
       <c r="C112">
-        <v>-0.3870097942027861</v>
+        <v>-0.003870097942027861</v>
       </c>
       <c r="D112" t="s">
         <v>9</v>
@@ -5099,10 +5099,10 @@
         <v>45250</v>
       </c>
       <c r="B113">
-        <v>-0.154529650376678</v>
+        <v>-0.00154529650376678</v>
       </c>
       <c r="C113">
-        <v>0.8259903088068343</v>
+        <v>0.008259903088068343</v>
       </c>
       <c r="D113" t="s">
         <v>9</v>
@@ -5113,10 +5113,10 @@
         <v>45247</v>
       </c>
       <c r="B114">
-        <v>0.07738440704196936</v>
+        <v>0.0007738440704196936</v>
       </c>
       <c r="C114">
-        <v>0.3901232982275848</v>
+        <v>0.003901232982275848</v>
       </c>
       <c r="D114" t="s">
         <v>9</v>
@@ -5127,10 +5127,10 @@
         <v>45246</v>
       </c>
       <c r="B115">
-        <v>0.8699014111734016</v>
+        <v>0.008699014111734016</v>
       </c>
       <c r="C115">
-        <v>1.011935651271401</v>
+        <v>0.01011935651271401</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
@@ -5141,10 +5141,10 @@
         <v>45244</v>
       </c>
       <c r="B116">
-        <v>-1.686469911843624</v>
+        <v>-0.01686469911843624</v>
       </c>
       <c r="C116">
-        <v>2.452316076294281</v>
+        <v>0.02452316076294281</v>
       </c>
       <c r="D116" t="s">
         <v>9</v>
@@ -5155,10 +5155,10 @@
         <v>45243</v>
       </c>
       <c r="B117">
-        <v>3.040935672514622</v>
+        <v>0.03040935672514622</v>
       </c>
       <c r="C117">
-        <v>-0.2155243874133794</v>
+        <v>-0.002155243874133794</v>
       </c>
       <c r="D117" t="s">
         <v>9</v>
@@ -5169,10 +5169,10 @@
         <v>45240</v>
       </c>
       <c r="B118">
-        <v>1.002648505486192</v>
+        <v>0.01002648505486192</v>
       </c>
       <c r="C118">
-        <v>1.364568278829026</v>
+        <v>0.01364568278829026</v>
       </c>
       <c r="D118" t="s">
         <v>9</v>
@@ -5183,10 +5183,10 @@
         <v>45239</v>
       </c>
       <c r="B119">
-        <v>-2.210151713804087</v>
+        <v>-0.02210151713804087</v>
       </c>
       <c r="C119">
-        <v>-0.07304847227936895</v>
+        <v>-0.0007304847227936895</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
@@ -5197,10 +5197,10 @@
         <v>45238</v>
       </c>
       <c r="B120">
-        <v>0.09576709442635778</v>
+        <v>0.0009576709442635778</v>
       </c>
       <c r="C120">
-        <v>-0.1416976892376853</v>
+        <v>-0.001416976892376853</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
@@ -5211,10 +5211,10 @@
         <v>45237</v>
       </c>
       <c r="B121">
-        <v>-2.659778032912363</v>
+        <v>-0.02659778032912363</v>
       </c>
       <c r="C121">
-        <v>0.6591440411184424</v>
+        <v>0.006591440411184424</v>
       </c>
       <c r="D121" t="s">
         <v>9</v>
@@ -5225,10 +5225,10 @@
         <v>45236</v>
       </c>
       <c r="B122">
-        <v>-0.3341851779044558</v>
+        <v>-0.003341851779044558</v>
       </c>
       <c r="C122">
-        <v>0.2767433987813206</v>
+        <v>0.002767433987813206</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
@@ -5239,10 +5239,10 @@
         <v>45233</v>
       </c>
       <c r="B123">
-        <v>-1.400394477317557</v>
+        <v>-0.01400394477317557</v>
       </c>
       <c r="C123">
-        <v>2.700494554683486</v>
+        <v>0.02700494554683486</v>
       </c>
       <c r="D123" t="s">
         <v>9</v>
@@ -5253,10 +5253,10 @@
         <v>45231</v>
       </c>
       <c r="B124">
-        <v>0.5601120224044909</v>
+        <v>0.005601120224044909</v>
       </c>
       <c r="C124">
-        <v>1.68723043201584</v>
+        <v>0.0168723043201584</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
@@ -5267,10 +5267,10 @@
         <v>45230</v>
       </c>
       <c r="B125">
-        <v>0.2387109608116056</v>
+        <v>0.002387109608116056</v>
       </c>
       <c r="C125">
-        <v>0.5438453062240001</v>
+        <v>0.005438453062240001</v>
       </c>
       <c r="D125" t="s">
         <v>10</v>
@@ -5281,10 +5281,10 @@
         <v>45229</v>
       </c>
       <c r="B126">
-        <v>0.1587616590593255</v>
+        <v>0.001587616590593255</v>
       </c>
       <c r="C126">
-        <v>-0.6787230474576522</v>
+        <v>-0.006787230474576522</v>
       </c>
       <c r="D126" t="s">
         <v>10</v>
@@ -5295,10 +5295,10 @@
         <v>45226</v>
       </c>
       <c r="B127">
-        <v>0.5151575193184099</v>
+        <v>0.005151575193184099</v>
       </c>
       <c r="C127">
-        <v>-1.285971928173768</v>
+        <v>-0.01285971928173768</v>
       </c>
       <c r="D127" t="s">
         <v>10</v>
@@ -5309,10 +5309,10 @@
         <v>45225</v>
       </c>
       <c r="B128">
-        <v>1.517839542676924</v>
+        <v>0.01517839542676924</v>
       </c>
       <c r="C128">
-        <v>1.72560489231588</v>
+        <v>0.0172560489231588</v>
       </c>
       <c r="D128" t="s">
         <v>10</v>
@@ -5323,10 +5323,10 @@
         <v>45224</v>
       </c>
       <c r="B129">
-        <v>-0.2135922330097073</v>
+        <v>-0.002135922330097073</v>
       </c>
       <c r="C129">
-        <v>-0.8192542325205276</v>
+        <v>-0.008192542325205276</v>
       </c>
       <c r="D129" t="s">
         <v>10</v>
@@ -5337,10 +5337,10 @@
         <v>45223</v>
       </c>
       <c r="B130">
-        <v>-0.1556723097878909</v>
+        <v>-0.001556723097878909</v>
       </c>
       <c r="C130">
-        <v>0.8662499445848404</v>
+        <v>0.008662499445848404</v>
       </c>
       <c r="D130" t="s">
         <v>10</v>
@@ -5351,10 +5351,10 @@
         <v>45222</v>
       </c>
       <c r="B131">
-        <v>3.586045605145194</v>
+        <v>0.03586045605145194</v>
       </c>
       <c r="C131">
-        <v>-0.326985108921396</v>
+        <v>-0.00326985108921396</v>
       </c>
       <c r="D131" t="s">
         <v>10</v>
@@ -5365,10 +5365,10 @@
         <v>45219</v>
       </c>
       <c r="B132">
-        <v>0.9219190968955848</v>
+        <v>0.009219190968955848</v>
       </c>
       <c r="C132">
-        <v>-0.7447107119048502</v>
+        <v>-0.007447107119048502</v>
       </c>
       <c r="D132" t="s">
         <v>10</v>
@@ -5379,10 +5379,10 @@
         <v>45218</v>
       </c>
       <c r="B133">
-        <v>1.976137211036555</v>
+        <v>0.01976137211036555</v>
       </c>
       <c r="C133">
-        <v>-0.04909696650885476</v>
+        <v>-0.0004909696650885476</v>
       </c>
       <c r="D133" t="s">
         <v>10</v>
@@ -5393,10 +5393,10 @@
         <v>45217</v>
       </c>
       <c r="B134">
-        <v>0.1645338208409397</v>
+        <v>0.001645338208409397</v>
       </c>
       <c r="C134">
-        <v>-1.594367946992448</v>
+        <v>-0.01594367946992448</v>
       </c>
       <c r="D134" t="s">
         <v>10</v>
@@ -5407,10 +5407,10 @@
         <v>45216</v>
       </c>
       <c r="B135">
-        <v>2.482204781894515</v>
+        <v>0.02482204781894515</v>
       </c>
       <c r="C135">
-        <v>-0.5371822815658955</v>
+        <v>-0.005371822815658955</v>
       </c>
       <c r="D135" t="s">
         <v>10</v>
@@ -5421,10 +5421,10 @@
         <v>45215</v>
       </c>
       <c r="B136">
-        <v>-0.1602849510240367</v>
+        <v>-0.001602849510240367</v>
       </c>
       <c r="C136">
-        <v>0.6738428045683031</v>
+        <v>0.006738428045683031</v>
       </c>
       <c r="D136" t="s">
         <v>10</v>
@@ -5435,10 +5435,10 @@
         <v>45212</v>
       </c>
       <c r="B137">
-        <v>2.069211559043871</v>
+        <v>0.02069211559043871</v>
       </c>
       <c r="C137">
-        <v>-1.108064006287857</v>
+        <v>-0.01108064006287857</v>
       </c>
       <c r="D137" t="s">
         <v>10</v>
@@ -5449,10 +5449,10 @@
         <v>45210</v>
       </c>
       <c r="B138">
-        <v>-3.268088081090526</v>
+        <v>-0.03268088081090526</v>
       </c>
       <c r="C138">
-        <v>0.2689807002064448</v>
+        <v>0.002689807002064448</v>
       </c>
       <c r="D138" t="s">
         <v>10</v>
@@ -5463,10 +5463,10 @@
         <v>45209</v>
       </c>
       <c r="B139">
-        <v>-0.3432700993676652</v>
+        <v>-0.003432700993676652</v>
       </c>
       <c r="C139">
-        <v>1.372920212581197</v>
+        <v>0.01372920212581197</v>
       </c>
       <c r="D139" t="s">
         <v>10</v>
@@ -5477,10 +5477,10 @@
         <v>45208</v>
       </c>
       <c r="B140">
-        <v>0.435097897026826</v>
+        <v>0.00435097897026826</v>
       </c>
       <c r="C140">
-        <v>0.8636244197249621</v>
+        <v>0.008636244197249621</v>
       </c>
       <c r="D140" t="s">
         <v>10</v>
@@ -5491,10 +5491,10 @@
         <v>45205</v>
       </c>
       <c r="B141">
-        <v>-0.8844765342960303</v>
+        <v>-0.008844765342960303</v>
       </c>
       <c r="C141">
-        <v>0.7821051516542443</v>
+        <v>0.007821051516542443</v>
       </c>
       <c r="D141" t="s">
         <v>10</v>
@@ -5505,10 +5505,10 @@
         <v>45204</v>
       </c>
       <c r="B142">
-        <v>-1.675468949189574</v>
+        <v>-0.01675468949189574</v>
       </c>
       <c r="C142">
-        <v>-0.2843134665997726</v>
+        <v>-0.002843134665997726</v>
       </c>
       <c r="D142" t="s">
         <v>10</v>
@@ -5519,10 +5519,10 @@
         <v>45203</v>
       </c>
       <c r="B143">
-        <v>-0.4630487127245786</v>
+        <v>-0.004630487127245786</v>
       </c>
       <c r="C143">
-        <v>0.1657570601045766</v>
+        <v>0.001657570601045766</v>
       </c>
       <c r="D143" t="s">
         <v>10</v>
@@ -5533,10 +5533,10 @@
         <v>45202</v>
       </c>
       <c r="B144">
-        <v>0.5024190547078478</v>
+        <v>0.005024190547078478</v>
       </c>
       <c r="C144">
-        <v>-1.423642194738262</v>
+        <v>-0.01423642194738262</v>
       </c>
       <c r="D144" t="s">
         <v>10</v>
@@ -5547,10 +5547,10 @@
         <v>45201</v>
       </c>
       <c r="B145">
-        <v>-1.907054249213114</v>
+        <v>-0.01907054249213114</v>
       </c>
       <c r="C145">
-        <v>-1.293698794663922</v>
+        <v>-0.01293698794663922</v>
       </c>
       <c r="D145" t="s">
         <v>10</v>
@@ -5561,10 +5561,10 @@
         <v>45198</v>
       </c>
       <c r="B146">
-        <v>0.1132502831257209</v>
+        <v>0.001132502831257209</v>
       </c>
       <c r="C146">
-        <v>0.7206366487803706</v>
+        <v>0.007206366487803706</v>
       </c>
       <c r="D146" t="s">
         <v>11</v>
@@ -5575,10 +5575,10 @@
         <v>45197</v>
       </c>
       <c r="B147">
-        <v>-0.8295625942684737</v>
+        <v>-0.008295625942684737</v>
       </c>
       <c r="C147">
-        <v>1.228056364638275</v>
+        <v>0.01228056364638275</v>
       </c>
       <c r="D147" t="s">
         <v>11</v>
@@ -5589,10 +5589,10 @@
         <v>45196</v>
       </c>
       <c r="B148">
-        <v>0.4372623574144363</v>
+        <v>0.004372623574144363</v>
       </c>
       <c r="C148">
-        <v>0.117345196290497</v>
+        <v>0.00117345196290497</v>
       </c>
       <c r="D148" t="s">
         <v>11</v>
@@ -5603,10 +5603,10 @@
         <v>45195</v>
       </c>
       <c r="B149">
-        <v>0.5300018928638961</v>
+        <v>0.005300018928638961</v>
       </c>
       <c r="C149">
-        <v>-1.494069441449208</v>
+        <v>-0.01494069441449208</v>
       </c>
       <c r="D149" t="s">
         <v>11</v>
@@ -5617,10 +5617,10 @@
         <v>45194</v>
       </c>
       <c r="B150">
-        <v>1.5627942007155</v>
+        <v>0.015627942007155</v>
       </c>
       <c r="C150">
-        <v>-0.07240817522778942</v>
+        <v>-0.0007240817522778942</v>
       </c>
       <c r="D150" t="s">
         <v>11</v>
@@ -5631,10 +5631,10 @@
         <v>45191</v>
       </c>
       <c r="B151">
-        <v>0.3151649981461002</v>
+        <v>0.003151649981461002</v>
       </c>
       <c r="C151">
-        <v>-0.1170950105471635</v>
+        <v>-0.001170950105471635</v>
       </c>
       <c r="D151" t="s">
         <v>11</v>
@@ -5645,10 +5645,10 @@
         <v>45190</v>
       </c>
       <c r="B152">
-        <v>1.14581408242469</v>
+        <v>0.0114581408242469</v>
       </c>
       <c r="C152">
-        <v>-2.148363452546442</v>
+        <v>-0.02148363452546442</v>
       </c>
       <c r="D152" t="s">
         <v>11</v>
@@ -5659,10 +5659,10 @@
         <v>45189</v>
       </c>
       <c r="B153">
-        <v>-2.009866617942613</v>
+        <v>-0.02009866617942613</v>
       </c>
       <c r="C153">
-        <v>0.7204317499108992</v>
+        <v>0.007204317499108992</v>
       </c>
       <c r="D153" t="s">
         <v>11</v>
@@ -5673,10 +5673,10 @@
         <v>45188</v>
       </c>
       <c r="B154">
-        <v>-3.84113369382808</v>
+        <v>-0.0384113369382808</v>
       </c>
       <c r="C154">
-        <v>-0.3736642770188037</v>
+        <v>-0.003736642770188037</v>
       </c>
       <c r="D154" t="s">
         <v>11</v>
@@ -5687,10 +5687,10 @@
         <v>45187</v>
       </c>
       <c r="B155">
-        <v>-1.37676943959667</v>
+        <v>-0.0137676943959667</v>
       </c>
       <c r="C155">
-        <v>-0.3957628117684742</v>
+        <v>-0.003957628117684742</v>
       </c>
       <c r="D155" t="s">
         <v>11</v>
@@ -5701,10 +5701,10 @@
         <v>45184</v>
       </c>
       <c r="B156">
-        <v>0.9241053873377814</v>
+        <v>0.009241053873377814</v>
       </c>
       <c r="C156">
-        <v>-0.53102385419459</v>
+        <v>-0.0053102385419459</v>
       </c>
       <c r="D156" t="s">
         <v>11</v>
@@ -5715,10 +5715,10 @@
         <v>45183</v>
       </c>
       <c r="B157">
-        <v>-2.474186635495801</v>
+        <v>-0.02474186635495801</v>
       </c>
       <c r="C157">
-        <v>1.028973734091521</v>
+        <v>0.01028973734091521</v>
       </c>
       <c r="D157" t="s">
         <v>11</v>
@@ -5729,10 +5729,10 @@
         <v>45182</v>
       </c>
       <c r="B158">
-        <v>-1.91769876148622</v>
+        <v>-0.0191769876148622</v>
       </c>
       <c r="C158">
-        <v>0.176319001763181</v>
+        <v>0.00176319001763181</v>
       </c>
       <c r="D158" t="s">
         <v>11</v>
@@ -5743,10 +5743,10 @@
         <v>45181</v>
       </c>
       <c r="B159">
-        <v>0.04073319755599769</v>
+        <v>0.0004073319755599769</v>
       </c>
       <c r="C159">
-        <v>0.9282787060564734</v>
+        <v>0.009282787060564734</v>
       </c>
       <c r="D159" t="s">
         <v>11</v>
@@ -5757,10 +5757,10 @@
         <v>45180</v>
       </c>
       <c r="B160">
-        <v>-0.6107491856677472</v>
+        <v>-0.006107491856677472</v>
       </c>
       <c r="C160">
-        <v>1.361511711602326</v>
+        <v>0.01361511711602326</v>
       </c>
       <c r="D160" t="s">
         <v>11</v>
@@ -5771,10 +5771,10 @@
         <v>45177</v>
       </c>
       <c r="B161">
-        <v>-2.693877551020407</v>
+        <v>-0.02693877551020407</v>
       </c>
       <c r="C161">
-        <v>-0.5793852653360299</v>
+        <v>-0.005793852653360299</v>
       </c>
       <c r="D161" t="s">
         <v>11</v>
@@ -5785,10 +5785,10 @@
         <v>45175</v>
       </c>
       <c r="B162">
-        <v>2.181208053691264</v>
+        <v>0.02181208053691264</v>
       </c>
       <c r="C162">
-        <v>-1.14718190418559</v>
+        <v>-0.0114718190418559</v>
       </c>
       <c r="D162" t="s">
         <v>11</v>
@@ -5799,10 +5799,10 @@
         <v>45174</v>
       </c>
       <c r="B163">
-        <v>1.621510673234816</v>
+        <v>0.01621510673234816</v>
       </c>
       <c r="C163">
-        <v>-0.3786817460115333</v>
+        <v>-0.003786817460115333</v>
       </c>
       <c r="D163" t="s">
         <v>11</v>
@@ -5813,10 +5813,10 @@
         <v>45173</v>
       </c>
       <c r="B164">
-        <v>0.5857402544940493</v>
+        <v>0.005857402544940493</v>
       </c>
       <c r="C164">
-        <v>-0.09839430670184335</v>
+        <v>-0.0009839430670184335</v>
       </c>
       <c r="D164" t="s">
         <v>11</v>
@@ -5827,10 +5827,10 @@
         <v>45170</v>
       </c>
       <c r="B165">
-        <v>-2.385141739980445</v>
+        <v>-0.02385141739980445</v>
       </c>
       <c r="C165">
-        <v>1.858443780131669</v>
+        <v>0.01858443780131669</v>
       </c>
       <c r="D165" t="s">
         <v>11</v>
@@ -5841,10 +5841,10 @@
         <v>45169</v>
       </c>
       <c r="B166">
-        <v>-1.86260765071099</v>
+        <v>-0.0186260765071099</v>
       </c>
       <c r="C166">
-        <v>-1.525503041647169</v>
+        <v>-0.01525503041647169</v>
       </c>
       <c r="D166" t="s">
         <v>12</v>
@@ -5855,10 +5855,10 @@
         <v>45168</v>
       </c>
       <c r="B167">
-        <v>1.367346938775515</v>
+        <v>0.01367346938775515</v>
       </c>
       <c r="C167">
-        <v>-0.7339279078409477</v>
+        <v>-0.007339279078409477</v>
       </c>
       <c r="D167" t="s">
         <v>12</v>
@@ -5869,10 +5869,10 @@
         <v>45167</v>
       </c>
       <c r="B168">
-        <v>0.6241191866317664</v>
+        <v>0.006241191866317664</v>
       </c>
       <c r="C168">
-        <v>1.095448297060297</v>
+        <v>0.01095448297060297</v>
       </c>
       <c r="D168" t="s">
         <v>12</v>
@@ -5883,10 +5883,10 @@
         <v>45166</v>
       </c>
       <c r="B169">
-        <v>-1.66066426570628</v>
+        <v>-0.0166066426570628</v>
       </c>
       <c r="C169">
-        <v>1.108454120876745</v>
+        <v>0.01108454120876745</v>
       </c>
       <c r="D169" t="s">
         <v>12</v>
@@ -5897,10 +5897,10 @@
         <v>45163</v>
       </c>
       <c r="B170">
-        <v>-0.7934893184130209</v>
+        <v>-0.007934893184130209</v>
       </c>
       <c r="C170">
-        <v>-1.016013535453664</v>
+        <v>-0.01016013535453664</v>
       </c>
       <c r="D170" t="s">
         <v>12</v>
@@ -5911,10 +5911,10 @@
         <v>45162</v>
       </c>
       <c r="B171">
-        <v>-1.107465135356844</v>
+        <v>-0.01107465135356844</v>
       </c>
       <c r="C171">
-        <v>-0.9387565073856186</v>
+        <v>-0.009387565073856186</v>
       </c>
       <c r="D171" t="s">
         <v>12</v>
@@ -5925,10 +5925,10 @@
         <v>45161</v>
       </c>
       <c r="B172">
-        <v>0.2695976773123165</v>
+        <v>0.002695976773123165</v>
       </c>
       <c r="C172">
-        <v>1.703743241847167</v>
+        <v>0.01703743241847167</v>
       </c>
       <c r="D172" t="s">
         <v>12</v>
@@ -5939,10 +5939,10 @@
         <v>45160</v>
       </c>
       <c r="B173">
-        <v>0.7445708376421889</v>
+        <v>0.007445708376421889</v>
       </c>
       <c r="C173">
-        <v>1.50923279937778</v>
+        <v>0.0150923279937778</v>
       </c>
       <c r="D173" t="s">
         <v>12</v>
@@ -5953,10 +5953,10 @@
         <v>45159</v>
       </c>
       <c r="B174">
-        <v>0.4516526380619945</v>
+        <v>0.004516526380619945</v>
       </c>
       <c r="C174">
-        <v>-0.8491538788136133</v>
+        <v>-0.008491538788136133</v>
       </c>
       <c r="D174" t="s">
         <v>12</v>
@@ -5967,10 +5967,10 @@
         <v>45156</v>
       </c>
       <c r="B175">
-        <v>1.205804210096062</v>
+        <v>0.01205804210096062</v>
       </c>
       <c r="C175">
-        <v>0.371362474126391</v>
+        <v>0.00371362474126391</v>
       </c>
       <c r="D175" t="s">
         <v>12</v>
@@ -5981,10 +5981,10 @@
         <v>45155</v>
       </c>
       <c r="B176">
-        <v>-0.5452342487883732</v>
+        <v>-0.005452342487883732</v>
       </c>
       <c r="C176">
-        <v>-0.5277181811890075</v>
+        <v>-0.005277181811890075</v>
       </c>
       <c r="D176" t="s">
         <v>12</v>
@@ -5995,10 +5995,10 @@
         <v>45154</v>
       </c>
       <c r="B177">
-        <v>-0.9746192893400951</v>
+        <v>-0.009746192893400951</v>
       </c>
       <c r="C177">
-        <v>-0.498403215948906</v>
+        <v>-0.00498403215948906</v>
       </c>
       <c r="D177" t="s">
         <v>12</v>
@@ -6009,10 +6009,10 @@
         <v>45153</v>
       </c>
       <c r="B178">
-        <v>0.2460529013737833</v>
+        <v>0.002460529013737833</v>
       </c>
       <c r="C178">
-        <v>-0.5470422052906376</v>
+        <v>-0.005470422052906376</v>
       </c>
       <c r="D178" t="s">
         <v>12</v>
@@ -6023,10 +6023,10 @@
         <v>45152</v>
       </c>
       <c r="B179">
-        <v>1.759050930660666</v>
+        <v>0.01759050930660666</v>
       </c>
       <c r="C179">
-        <v>-1.062973785626564</v>
+        <v>-0.01062973785626564</v>
       </c>
       <c r="D179" t="s">
         <v>12</v>
@@ -6037,10 +6037,10 @@
         <v>45149</v>
       </c>
       <c r="B180">
-        <v>-1.467336683417075</v>
+        <v>-0.01467336683417075</v>
       </c>
       <c r="C180">
-        <v>-0.2408111533586776</v>
+        <v>-0.002408111533586776</v>
       </c>
       <c r="D180" t="s">
         <v>12</v>
@@ -6051,10 +6051,10 @@
         <v>45148</v>
       </c>
       <c r="B181">
-        <v>-1.631986944104458</v>
+        <v>-0.01631986944104458</v>
       </c>
       <c r="C181">
-        <v>-0.04982729353343318</v>
+        <v>-0.0004982729353343318</v>
       </c>
       <c r="D181" t="s">
         <v>12</v>
@@ -6065,10 +6065,10 @@
         <v>45147</v>
       </c>
       <c r="B182">
-        <v>-0.1036914143508816</v>
+        <v>-0.001036914143508816</v>
       </c>
       <c r="C182">
-        <v>-0.5718364262322639</v>
+        <v>-0.005718364262322639</v>
       </c>
       <c r="D182" t="s">
         <v>12</v>
@@ -6079,10 +6079,10 @@
         <v>45146</v>
       </c>
       <c r="B183">
-        <v>0.9134315964293149</v>
+        <v>0.009134315964293149</v>
       </c>
       <c r="C183">
-        <v>-0.2429217624392743</v>
+        <v>-0.002429217624392743</v>
       </c>
       <c r="D183" t="s">
         <v>12</v>
@@ -6093,10 +6093,10 @@
         <v>45145</v>
       </c>
       <c r="B184">
-        <v>1.542892408969343</v>
+        <v>0.01542892408969343</v>
       </c>
       <c r="C184">
-        <v>-0.1071058004485037</v>
+        <v>-0.001071058004485037</v>
       </c>
       <c r="D184" t="s">
         <v>12</v>
@@ -6107,10 +6107,10 @@
         <v>45142</v>
       </c>
       <c r="B185">
-        <v>-0.4862236628849326</v>
+        <v>-0.004862236628849326</v>
       </c>
       <c r="C185">
-        <v>-0.893967790622463</v>
+        <v>-0.00893967790622463</v>
       </c>
       <c r="D185" t="s">
         <v>12</v>
@@ -6121,10 +6121,10 @@
         <v>45141</v>
       </c>
       <c r="B186">
-        <v>-1.26221498371335</v>
+        <v>-0.0126221498371335</v>
       </c>
       <c r="C186">
-        <v>-0.2258830538064971</v>
+        <v>-0.002258830538064971</v>
       </c>
       <c r="D186" t="s">
         <v>12</v>
@@ -6135,10 +6135,10 @@
         <v>45140</v>
       </c>
       <c r="B187">
-        <v>-3.525773195876292</v>
+        <v>-0.03525773195876292</v>
       </c>
       <c r="C187">
-        <v>-0.3208300343098491</v>
+        <v>-0.003208300343098491</v>
       </c>
       <c r="D187" t="s">
         <v>12</v>
@@ -6149,10 +6149,10 @@
         <v>45139</v>
       </c>
       <c r="B188">
-        <v>1.02586022654414</v>
+        <v>0.0102586022654414</v>
       </c>
       <c r="C188">
-        <v>-0.5699384138490915</v>
+        <v>-0.005699384138490915</v>
       </c>
       <c r="D188" t="s">
         <v>12</v>
@@ -6163,10 +6163,10 @@
         <v>45138</v>
       </c>
       <c r="B189">
-        <v>-0.6346519991538013</v>
+        <v>-0.006346519991538013</v>
       </c>
       <c r="C189">
-        <v>1.461056520255943</v>
+        <v>0.01461056520255943</v>
       </c>
       <c r="D189" t="s">
         <v>13</v>
@@ -6177,10 +6177,10 @@
         <v>45135</v>
       </c>
       <c r="B190">
-        <v>-1.78837555886735</v>
+        <v>-0.0178837555886735</v>
       </c>
       <c r="C190">
-        <v>0.1641803483623638</v>
+        <v>0.001641803483623638</v>
       </c>
       <c r="D190" t="s">
         <v>13</v>
@@ -6191,10 +6191,10 @@
         <v>45134</v>
       </c>
       <c r="B191">
-        <v>-0.02167786689790674</v>
+        <v>-0.0002167786689790674</v>
       </c>
       <c r="C191">
-        <v>-2.09693211488251</v>
+        <v>-0.0209693211488251</v>
       </c>
       <c r="D191" t="s">
         <v>13</v>
@@ -6205,10 +6205,10 @@
         <v>45133</v>
       </c>
       <c r="B192">
-        <v>-1.539462272333048</v>
+        <v>-0.01539462272333048</v>
       </c>
       <c r="C192">
-        <v>0.4524293488951558</v>
+        <v>0.004524293488951558</v>
       </c>
       <c r="D192" t="s">
         <v>13</v>
@@ -6219,10 +6219,10 @@
         <v>45132</v>
       </c>
       <c r="B193">
-        <v>-2.686632900242236</v>
+        <v>-0.02686632900242236</v>
       </c>
       <c r="C193">
-        <v>0.5488618944800683</v>
+        <v>0.005488618944800683</v>
       </c>
       <c r="D193" t="s">
         <v>13</v>
@@ -6233,10 +6233,10 @@
         <v>45131</v>
       </c>
       <c r="B194">
-        <v>-0.4525910839556335</v>
+        <v>-0.004525910839556335</v>
       </c>
       <c r="C194">
-        <v>0.9358077476563142</v>
+        <v>0.009358077476563142</v>
       </c>
       <c r="D194" t="s">
         <v>13</v>
@@ -6247,10 +6247,10 @@
         <v>45128</v>
       </c>
       <c r="B195">
-        <v>-2.136849283928177</v>
+        <v>-0.02136849283928177</v>
       </c>
       <c r="C195">
-        <v>1.807203407772495</v>
+        <v>0.01807203407772495</v>
       </c>
       <c r="D195" t="s">
         <v>13</v>
@@ -6261,10 +6261,10 @@
         <v>45127</v>
       </c>
       <c r="B196">
-        <v>-0.9291521486643362</v>
+        <v>-0.009291521486643362</v>
       </c>
       <c r="C196">
-        <v>0.4517149857084624</v>
+        <v>0.004517149857084624</v>
       </c>
       <c r="D196" t="s">
         <v>13</v>
@@ -6275,10 +6275,10 @@
         <v>45126</v>
       </c>
       <c r="B197">
-        <v>-0.4220398593200447</v>
+        <v>-0.004220398593200447</v>
       </c>
       <c r="C197">
-        <v>-0.2452457124430429</v>
+        <v>-0.002452457124430429</v>
       </c>
       <c r="D197" t="s">
         <v>13</v>
@@ -6289,10 +6289,10 @@
         <v>45125</v>
       </c>
       <c r="B198">
-        <v>2.542971509300673</v>
+        <v>0.02542971509300673</v>
       </c>
       <c r="C198">
-        <v>-0.3197455569747709</v>
+        <v>-0.003197455569747709</v>
       </c>
       <c r="D198" t="s">
         <v>13</v>
@@ -6303,10 +6303,10 @@
         <v>45124</v>
       </c>
       <c r="B199">
-        <v>-0.390355912743956</v>
+        <v>-0.00390355912743956</v>
       </c>
       <c r="C199">
-        <v>0.4315654441810812</v>
+        <v>0.004315654441810812</v>
       </c>
       <c r="D199" t="s">
         <v>13</v>
@@ -6317,10 +6317,10 @@
         <v>45121</v>
       </c>
       <c r="B200">
-        <v>0.3457814661134151</v>
+        <v>0.003457814661134151</v>
       </c>
       <c r="C200">
-        <v>-1.302153206332168</v>
+        <v>-0.01302153206332168</v>
       </c>
       <c r="D200" t="s">
         <v>13</v>
@@ -6331,10 +6331,10 @@
         <v>45120</v>
       </c>
       <c r="B201">
-        <v>-0.4135079255685681</v>
+        <v>-0.004135079255685681</v>
       </c>
       <c r="C201">
-        <v>1.358081348902829</v>
+        <v>0.01358081348902829</v>
       </c>
       <c r="D201" t="s">
         <v>13</v>
@@ -6345,10 +6345,10 @@
         <v>45119</v>
       </c>
       <c r="B202">
-        <v>-0.4152249134948049</v>
+        <v>-0.004152249134948049</v>
       </c>
       <c r="C202">
-        <v>0.3804811465620173</v>
+        <v>0.003804811465620173</v>
       </c>
       <c r="D202" t="s">
         <v>13</v>
@@ -6359,10 +6359,10 @@
         <v>45118</v>
       </c>
       <c r="B203">
-        <v>-0.3011350474866892</v>
+        <v>-0.003011350474866892</v>
       </c>
       <c r="C203">
-        <v>-0.6121653015889184</v>
+        <v>-0.006121653015889184</v>
       </c>
       <c r="D203" t="s">
         <v>13</v>
@@ -6373,10 +6373,10 @@
         <v>45117</v>
       </c>
       <c r="B204">
-        <v>-0.04646840148697651</v>
+        <v>-0.0004646840148697651</v>
       </c>
       <c r="C204">
-        <v>-0.8040505307069901</v>
+        <v>-0.008040505307069901</v>
       </c>
       <c r="D204" t="s">
         <v>13</v>
@@ -6387,10 +6387,10 @@
         <v>45114</v>
       </c>
       <c r="B205">
-        <v>1.092515109251502</v>
+        <v>0.01092515109251502</v>
       </c>
       <c r="C205">
-        <v>1.253555430654196</v>
+        <v>0.01253555430654196</v>
       </c>
       <c r="D205" t="s">
         <v>13</v>
@@ -6401,10 +6401,10 @@
         <v>45113</v>
       </c>
       <c r="B206">
-        <v>-0.8967578753736549</v>
+        <v>-0.008967578753736549</v>
       </c>
       <c r="C206">
-        <v>-1.775840868597811</v>
+        <v>-0.01775840868597811</v>
       </c>
       <c r="D206" t="s">
         <v>13</v>
@@ -6415,10 +6415,10 @@
         <v>45112</v>
       </c>
       <c r="B207">
-        <v>0.7656612529002293</v>
+        <v>0.007656612529002293</v>
       </c>
       <c r="C207">
-        <v>0.3972253014881355</v>
+        <v>0.003972253014881355</v>
       </c>
       <c r="D207" t="s">
         <v>13</v>
@@ -6429,10 +6429,10 @@
         <v>45111</v>
       </c>
       <c r="B208">
-        <v>0.6447156343541316</v>
+        <v>0.006447156343541316</v>
       </c>
       <c r="C208">
-        <v>-0.4988593918427764</v>
+        <v>-0.004988593918427764</v>
       </c>
       <c r="D208" t="s">
         <v>13</v>
@@ -6443,10 +6443,10 @@
         <v>45110</v>
       </c>
       <c r="B209">
-        <v>-1.143902997025847</v>
+        <v>-0.01143902997025847</v>
       </c>
       <c r="C209">
-        <v>1.343077561458927</v>
+        <v>0.01343077561458927</v>
       </c>
       <c r="D209" t="s">
         <v>13</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="C210">
-        <v>-0.2500359004248942</v>
+        <v>-0.002500359004248942</v>
       </c>
       <c r="D210" t="s">
         <v>14</v>
@@ -6471,10 +6471,10 @@
         <v>45106</v>
       </c>
       <c r="B211">
-        <v>-0.3934274473501587</v>
+        <v>-0.003934274473501587</v>
       </c>
       <c r="C211">
-        <v>1.458677933853836</v>
+        <v>0.01458677933853836</v>
       </c>
       <c r="D211" t="s">
         <v>14</v>
@@ -6485,10 +6485,10 @@
         <v>45105</v>
       </c>
       <c r="B212">
-        <v>0.2788104089219257</v>
+        <v>0.002788104089219257</v>
       </c>
       <c r="C212">
-        <v>-0.7164555023272068</v>
+        <v>-0.007164555023272068</v>
       </c>
       <c r="D212" t="s">
         <v>14</v>
@@ -6499,10 +6499,10 @@
         <v>45104</v>
       </c>
       <c r="B213">
-        <v>1.506024096385561</v>
+        <v>0.01506024096385561</v>
       </c>
       <c r="C213">
-        <v>-0.6089155383405376</v>
+        <v>-0.006089155383405376</v>
       </c>
       <c r="D213" t="s">
         <v>14</v>
@@ -6513,10 +6513,10 @@
         <v>45103</v>
       </c>
       <c r="B214">
-        <v>1.711937913718331</v>
+        <v>0.01711937913718331</v>
       </c>
       <c r="C214">
-        <v>-0.6169259604797528</v>
+        <v>-0.006169259604797528</v>
       </c>
       <c r="D214" t="s">
         <v>14</v>
@@ -6527,10 +6527,10 @@
         <v>45100</v>
       </c>
       <c r="B215">
-        <v>0.7405745062836644</v>
+        <v>0.007405745062836644</v>
       </c>
       <c r="C215">
-        <v>0.03615450586038627</v>
+        <v>0.0003615450586038627</v>
       </c>
       <c r="D215" t="s">
         <v>14</v>
@@ -6541,10 +6541,10 @@
         <v>45099</v>
       </c>
       <c r="B216">
-        <v>-0.178213410559136</v>
+        <v>-0.00178213410559136</v>
       </c>
       <c r="C216">
-        <v>-1.234014283341633</v>
+        <v>-0.01234014283341633</v>
       </c>
       <c r="D216" t="s">
         <v>14</v>
@@ -6555,10 +6555,10 @@
         <v>45098</v>
       </c>
       <c r="B217">
-        <v>1.338986833296119</v>
+        <v>0.01338986833296119</v>
       </c>
       <c r="C217">
-        <v>0.6671013693133387</v>
+        <v>0.006671013693133387</v>
       </c>
       <c r="D217" t="s">
         <v>14</v>
@@ -6569,10 +6569,10 @@
         <v>45097</v>
       </c>
       <c r="B218">
-        <v>2.070028628055498</v>
+        <v>0.02070028628055498</v>
       </c>
       <c r="C218">
-        <v>-0.1968996646031118</v>
+        <v>-0.001968996646031118</v>
       </c>
       <c r="D218" t="s">
         <v>14</v>
@@ -6583,10 +6583,10 @@
         <v>45096</v>
       </c>
       <c r="B219">
-        <v>0.5609492988133624</v>
+        <v>0.005609492988133624</v>
       </c>
       <c r="C219">
-        <v>0.9262533892453462</v>
+        <v>0.009262533892453462</v>
       </c>
       <c r="D219" t="s">
         <v>14</v>
@@ -6597,10 +6597,10 @@
         <v>45093</v>
       </c>
       <c r="B220">
-        <v>1.244368161338771</v>
+        <v>0.01244368161338771</v>
       </c>
       <c r="C220">
-        <v>-0.3883544006508921</v>
+        <v>-0.003883544006508921</v>
       </c>
       <c r="D220" t="s">
         <v>14</v>
@@ -6611,10 +6611,10 @@
         <v>45092</v>
       </c>
       <c r="B221">
-        <v>0.08476372112735664</v>
+        <v>0.0008476372112735664</v>
       </c>
       <c r="C221">
-        <v>0.1276570727897219</v>
+        <v>0.001276570727897219</v>
       </c>
       <c r="D221" t="s">
         <v>14</v>
@@ -6625,10 +6625,10 @@
         <v>45091</v>
       </c>
       <c r="B222">
-        <v>-3.493542240101633</v>
+        <v>-0.03493542240101633</v>
       </c>
       <c r="C222">
-        <v>1.992410679869461</v>
+        <v>0.01992410679869461</v>
       </c>
       <c r="D222" t="s">
         <v>14</v>
@@ -6639,10 +6639,10 @@
         <v>45090</v>
       </c>
       <c r="B223">
-        <v>0.8556384379113657</v>
+        <v>0.008556384379113657</v>
       </c>
       <c r="C223">
-        <v>-0.5053862412217947</v>
+        <v>-0.005053862412217947</v>
       </c>
       <c r="D223" t="s">
         <v>14</v>
@@ -6653,10 +6653,10 @@
         <v>45089</v>
       </c>
       <c r="B224">
-        <v>-0.7396127909506167</v>
+        <v>-0.007396127909506167</v>
       </c>
       <c r="C224">
-        <v>0.270896179252933</v>
+        <v>0.00270896179252933</v>
       </c>
       <c r="D224" t="s">
         <v>14</v>
@@ -6667,10 +6667,10 @@
         <v>45086</v>
       </c>
       <c r="B225">
-        <v>-3.133903133903138</v>
+        <v>-0.03133903133903138</v>
       </c>
       <c r="C225">
-        <v>1.325678858409529</v>
+        <v>0.01325678858409529</v>
       </c>
       <c r="D225" t="s">
         <v>14</v>
@@ -6681,10 +6681,10 @@
         <v>45084</v>
       </c>
       <c r="B226">
-        <v>1.312217194570131</v>
+        <v>0.01312217194570131</v>
       </c>
       <c r="C226">
-        <v>0.7660762586161773</v>
+        <v>0.007660762586161773</v>
       </c>
       <c r="D226" t="s">
         <v>14</v>
@@ -6695,10 +6695,10 @@
         <v>45083</v>
       </c>
       <c r="B227">
-        <v>2.411790978115236</v>
+        <v>0.02411790978115236</v>
       </c>
       <c r="C227">
-        <v>1.69837438773337</v>
+        <v>0.0169837438773337</v>
       </c>
       <c r="D227" t="s">
         <v>14</v>
@@ -6709,10 +6709,10 @@
         <v>45082</v>
       </c>
       <c r="B228">
-        <v>-0.2616659398168242</v>
+        <v>-0.002616659398168242</v>
       </c>
       <c r="C228">
-        <v>0.1226034577728852</v>
+        <v>0.001226034577728852</v>
       </c>
       <c r="D228" t="s">
         <v>14</v>
@@ -6723,10 +6723,10 @@
         <v>45079</v>
       </c>
       <c r="B229">
-        <v>-0.8307826847398392</v>
+        <v>-0.008307826847398392</v>
       </c>
       <c r="C229">
-        <v>1.802559580337348</v>
+        <v>0.01802559580337348</v>
       </c>
       <c r="D229" t="s">
         <v>14</v>
@@ -6737,10 +6737,10 @@
         <v>45078</v>
       </c>
       <c r="B230">
-        <v>-3.064373897707229</v>
+        <v>-0.03064373897707229</v>
       </c>
       <c r="C230">
-        <v>2.058429870309686</v>
+        <v>0.02058429870309686</v>
       </c>
       <c r="D230" t="s">
         <v>14</v>
@@ -6751,10 +6751,10 @@
         <v>45077</v>
       </c>
       <c r="B231">
-        <v>-0.5003411416875103</v>
+        <v>-0.005003411416875103</v>
       </c>
       <c r="C231">
-        <v>-0.5799921077023318</v>
+        <v>-0.005799921077023318</v>
       </c>
       <c r="D231" t="s">
         <v>15</v>
@@ -6765,10 +6765,10 @@
         <v>45076</v>
       </c>
       <c r="B232">
-        <v>0.777142857142854</v>
+        <v>0.00777142857142854</v>
       </c>
       <c r="C232">
-        <v>-1.238070205650166</v>
+        <v>-0.01238070205650166</v>
       </c>
       <c r="D232" t="s">
         <v>15</v>
@@ -6779,10 +6779,10 @@
         <v>45075</v>
       </c>
       <c r="B233">
-        <v>0.5670220004536208</v>
+        <v>0.005670220004536208</v>
       </c>
       <c r="C233">
-        <v>-0.5166537428092255</v>
+        <v>-0.005166537428092255</v>
       </c>
       <c r="D233" t="s">
         <v>15</v>
@@ -6793,10 +6793,10 @@
         <v>45072</v>
       </c>
       <c r="B234">
-        <v>-0.06765899864682456</v>
+        <v>-0.0006765899864682456</v>
       </c>
       <c r="C234">
-        <v>0.7741654097079609</v>
+        <v>0.007741654097079609</v>
       </c>
       <c r="D234" t="s">
         <v>15</v>
@@ -6807,10 +6807,10 @@
         <v>45071</v>
       </c>
       <c r="B235">
-        <v>-2.708192281652</v>
+        <v>-0.02708192281652</v>
       </c>
       <c r="C235">
-        <v>1.15257352941176</v>
+        <v>0.0115257352941176</v>
       </c>
       <c r="D235" t="s">
         <v>15</v>
@@ -6821,10 +6821,10 @@
         <v>45070</v>
       </c>
       <c r="B236">
-        <v>1.067037810252836</v>
+        <v>0.01067037810252836</v>
       </c>
       <c r="C236">
-        <v>-1.02702653530915</v>
+        <v>-0.0102702653530915</v>
       </c>
       <c r="D236" t="s">
         <v>15</v>
@@ -6835,10 +6835,10 @@
         <v>45069</v>
       </c>
       <c r="B237">
-        <v>2.845994950654118</v>
+        <v>0.02845994950654118</v>
       </c>
       <c r="C237">
-        <v>-0.257682850480434</v>
+        <v>-0.00257682850480434</v>
       </c>
       <c r="D237" t="s">
         <v>15</v>
@@ -6849,10 +6849,10 @@
         <v>45068</v>
       </c>
       <c r="B238">
-        <v>-1.495201963847359</v>
+        <v>-0.01495201963847359</v>
       </c>
       <c r="C238">
-        <v>-0.4803828615287387</v>
+        <v>-0.004803828615287387</v>
       </c>
       <c r="D238" t="s">
         <v>15</v>
@@ -6863,10 +6863,10 @@
         <v>45065</v>
       </c>
       <c r="B239">
-        <v>0.5437245129134682</v>
+        <v>0.005437245129134682</v>
       </c>
       <c r="C239">
-        <v>0.5785229047843954</v>
+        <v>0.005785229047843954</v>
       </c>
       <c r="D239" t="s">
         <v>15</v>
@@ -6877,10 +6877,10 @@
         <v>45064</v>
       </c>
       <c r="B240">
-        <v>-0.1577287066246047</v>
+        <v>-0.001577287066246047</v>
       </c>
       <c r="C240">
-        <v>0.5919970765576377</v>
+        <v>0.005919970765576377</v>
       </c>
       <c r="D240" t="s">
         <v>15</v>
@@ -6891,10 +6891,10 @@
         <v>45063</v>
       </c>
       <c r="B241">
-        <v>-3.565786504175139</v>
+        <v>-0.03565786504175139</v>
       </c>
       <c r="C241">
-        <v>1.170120339390346</v>
+        <v>0.01170120339390346</v>
       </c>
       <c r="D241" t="s">
         <v>15</v>
@@ -6905,10 +6905,10 @@
         <v>45062</v>
       </c>
       <c r="B242">
-        <v>-0.04680552305170727</v>
+        <v>-0.0004680552305170727</v>
       </c>
       <c r="C242">
-        <v>-0.7658512872721901</v>
+        <v>-0.007658512872721901</v>
       </c>
       <c r="D242" t="s">
         <v>15</v>

--- a/doc/SUZB3cg_1anos.xlsx
+++ b/doc/SUZB3cg_1anos.xlsx
@@ -184,9 +184,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$242</c:f>
+              <c:f>Retornos!$D$2:$D$241</c:f>
               <c:strCache>
-                <c:ptCount val="241"/>
+                <c:ptCount val="240"/>
                 <c:pt idx="0">
                   <c:v>05/2024</c:v>
                 </c:pt>
@@ -905,9 +905,6 @@
                   <c:v>05/2023</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>05/2023</c:v>
-                </c:pt>
-                <c:pt idx="240">
                   <c:v>05/2023</c:v>
                 </c:pt>
               </c:strCache>
@@ -915,10 +912,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$B$2:$B$242</c:f>
+              <c:f>Retornos!$B$2:$B$241</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="241"/>
+                <c:ptCount val="240"/>
                 <c:pt idx="0">
                   <c:v>-0.002704073009971331</c:v>
                 </c:pt>
@@ -1638,9 +1635,6 @@
                 </c:pt>
                 <c:pt idx="239">
                   <c:v>-0.03565786504175139</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>-0.0004680552305170727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1660,9 +1654,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$242</c:f>
+              <c:f>Retornos!$D$2:$D$241</c:f>
               <c:strCache>
-                <c:ptCount val="241"/>
+                <c:ptCount val="240"/>
                 <c:pt idx="0">
                   <c:v>05/2024</c:v>
                 </c:pt>
@@ -2381,9 +2375,6 @@
                   <c:v>05/2023</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>05/2023</c:v>
-                </c:pt>
-                <c:pt idx="240">
                   <c:v>05/2023</c:v>
                 </c:pt>
               </c:strCache>
@@ -2391,10 +2382,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$C$2:$C$242</c:f>
+              <c:f>Retornos!$C$2:$C$241</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="241"/>
+                <c:ptCount val="240"/>
                 <c:pt idx="0">
                   <c:v>0.009513674915028192</c:v>
                 </c:pt>
@@ -3114,9 +3105,6 @@
                 </c:pt>
                 <c:pt idx="239">
                   <c:v>0.01170120339390346</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>-0.007658512872721901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3528,6 +3516,11 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
@@ -6927,6 +6920,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">

--- a/doc/SUZB3cg_1anos.xlsx
+++ b/doc/SUZB3cg_1anos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="17">
   <si>
     <t>acao</t>
   </si>
@@ -184,29 +184,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$241</c:f>
+              <c:f>Retornos!$D$2:$D$247</c:f>
               <c:strCache>
-                <c:ptCount val="240"/>
+                <c:ptCount val="246"/>
                 <c:pt idx="0">
                   <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/2024</c:v>
+                  <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>04/2024</c:v>
+                  <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/2024</c:v>
+                  <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>04/2024</c:v>
+                  <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>04/2024</c:v>
+                  <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>04/2024</c:v>
+                  <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>04/2024</c:v>
@@ -257,22 +257,22 @@
                   <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>03/2024</c:v>
+                  <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>03/2024</c:v>
+                  <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>03/2024</c:v>
+                  <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>03/2024</c:v>
+                  <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>03/2024</c:v>
+                  <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>03/2024</c:v>
+                  <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>03/2024</c:v>
@@ -317,22 +317,22 @@
                   <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>02/2024</c:v>
+                  <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>02/2024</c:v>
+                  <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>02/2024</c:v>
+                  <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>02/2024</c:v>
+                  <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>02/2024</c:v>
+                  <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>02/2024</c:v>
+                  <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>02/2024</c:v>
@@ -374,22 +374,22 @@
                   <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>01/2024</c:v>
+                  <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>01/2024</c:v>
+                  <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>01/2024</c:v>
+                  <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>01/2024</c:v>
+                  <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>01/2024</c:v>
+                  <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>01/2024</c:v>
+                  <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>01/2024</c:v>
@@ -440,22 +440,22 @@
                   <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>12/2023</c:v>
+                  <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>12/2023</c:v>
+                  <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>12/2023</c:v>
+                  <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>12/2023</c:v>
+                  <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>12/2023</c:v>
+                  <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>12/2023</c:v>
+                  <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>12/2023</c:v>
@@ -497,22 +497,22 @@
                   <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>11/2023</c:v>
+                  <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>11/2023</c:v>
+                  <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>11/2023</c:v>
+                  <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>11/2023</c:v>
+                  <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>11/2023</c:v>
+                  <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>11/2023</c:v>
+                  <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>11/2023</c:v>
@@ -557,22 +557,22 @@
                   <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>10/2023</c:v>
+                  <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>10/2023</c:v>
+                  <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>10/2023</c:v>
+                  <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>10/2023</c:v>
+                  <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>10/2023</c:v>
+                  <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>10/2023</c:v>
+                  <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>10/2023</c:v>
@@ -620,22 +620,22 @@
                   <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>09/2023</c:v>
+                  <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>09/2023</c:v>
+                  <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>09/2023</c:v>
+                  <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>09/2023</c:v>
+                  <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>09/2023</c:v>
+                  <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>09/2023</c:v>
+                  <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>09/2023</c:v>
@@ -680,22 +680,22 @@
                   <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>08/2023</c:v>
+                  <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>08/2023</c:v>
+                  <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>08/2023</c:v>
+                  <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>08/2023</c:v>
+                  <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>08/2023</c:v>
+                  <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>08/2023</c:v>
+                  <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>08/2023</c:v>
@@ -749,22 +749,22 @@
                   <c:v>08/2023</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>07/2023</c:v>
+                  <c:v>08/2023</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>07/2023</c:v>
+                  <c:v>08/2023</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>07/2023</c:v>
+                  <c:v>08/2023</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>07/2023</c:v>
+                  <c:v>08/2023</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>07/2023</c:v>
+                  <c:v>08/2023</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>07/2023</c:v>
+                  <c:v>08/2023</c:v>
                 </c:pt>
                 <c:pt idx="193">
                   <c:v>07/2023</c:v>
@@ -812,22 +812,22 @@
                   <c:v>07/2023</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>06/2023</c:v>
+                  <c:v>07/2023</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>06/2023</c:v>
+                  <c:v>07/2023</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>06/2023</c:v>
+                  <c:v>07/2023</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>06/2023</c:v>
+                  <c:v>07/2023</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>06/2023</c:v>
+                  <c:v>07/2023</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>06/2023</c:v>
+                  <c:v>07/2023</c:v>
                 </c:pt>
                 <c:pt idx="214">
                   <c:v>06/2023</c:v>
@@ -875,22 +875,22 @@
                   <c:v>06/2023</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>05/2023</c:v>
+                  <c:v>06/2023</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>05/2023</c:v>
+                  <c:v>06/2023</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>05/2023</c:v>
+                  <c:v>06/2023</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>05/2023</c:v>
+                  <c:v>06/2023</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>05/2023</c:v>
+                  <c:v>06/2023</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>05/2023</c:v>
+                  <c:v>06/2023</c:v>
                 </c:pt>
                 <c:pt idx="235">
                   <c:v>05/2023</c:v>
@@ -905,6 +905,24 @@
                   <c:v>05/2023</c:v>
                 </c:pt>
                 <c:pt idx="239">
+                  <c:v>05/2023</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>05/2023</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>05/2023</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>05/2023</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>05/2023</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>05/2023</c:v>
+                </c:pt>
+                <c:pt idx="245">
                   <c:v>05/2023</c:v>
                 </c:pt>
               </c:strCache>
@@ -912,728 +930,746 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$B$2:$B$241</c:f>
+              <c:f>Retornos!$B$2:$B$247</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="240"/>
+                <c:ptCount val="246"/>
                 <c:pt idx="0">
+                  <c:v>0.01972386587771213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01934235976789167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.007210626185958358</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.002675840978593302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1399003449597547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.005211835911230533</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>-0.002704073009971331</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>-0.009320454160311797</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>0.007526513855627748</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>0.01154499151103572</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>0.005370929842228866</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>0.01101836393989997</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>-0.007265521796565477</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>0.007152361942781127</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>0.0109000825763832</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
                   <c:v>-0.007515111909818684</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16">
                   <c:v>0.0009876543209876854</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>0.008880118401578763</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
                   <c:v>-0.004889975550122272</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>0.002457002457002533</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>0.0001633986928104569</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>0.008985459892174363</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
                   <c:v>0.0085816062176165</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>0.004976721785198368</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>0.003354632587859507</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>0.01703550390065267</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
                   <c:v>0.01127113337507812</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>0.009752321981424394</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
                   <c:v>-0.005212325617047431</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29">
                   <c:v>-0.0140237324703345</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30">
                   <c:v>-0.002813379180994002</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31">
                   <c:v>-0.01300940438871467</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>-0.02143878037160551</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
                   <c:v>0.0004829362524148006</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
                   <c:v>-0.001769911504424737</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35">
                   <c:v>0.0003223726627983314</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="36">
                   <c:v>0.01272961650016113</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="37">
                   <c:v>-0.02863961813842486</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="38">
                   <c:v>-0.004095004095004073</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="39">
                   <c:v>-0.02138157894736836</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="40">
                   <c:v>-0.001176470588235334</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="41">
                   <c:v>-0.005384485949856965</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="42">
                   <c:v>-0.00913551006597868</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="43">
                   <c:v>0.009902680553184107</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="44">
                   <c:v>-0.005579036348267064</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="45">
                   <c:v>-0.009010540632438002</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="46">
                   <c:v>0.00480356836507112</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="47">
                   <c:v>-0.002048830459279505</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="48">
                   <c:v>-0.0164242942686057</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
                   <c:v>-0.01982953557140377</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="50">
                   <c:v>0.01827861579414369</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="51">
                   <c:v>-0.009759498082955731</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="52">
                   <c:v>-0.01231960577261537</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="53">
                   <c:v>-0.01514611546685662</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="54">
                   <c:v>0.00850370906459208</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="55">
                   <c:v>-0.008432005740940052</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="56">
                   <c:v>-0.02533019721367846</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="57">
                   <c:v>-0.0154074624095043</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="58">
                   <c:v>0.0001885369532428349</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="59">
                   <c:v>-0.0133836003770027</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="60">
                   <c:v>-0.001719526175009589</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="61">
                   <c:v>0.008612440191387627</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="62">
                   <c:v>0.01423149905123333</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="63">
                   <c:v>0.00467726847521055</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="64">
                   <c:v>0.000186219739292337</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="65">
                   <c:v>-0.03649227331967975</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="66">
                   <c:v>-0.007922705314009626</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="67">
                   <c:v>-0.004674717569146947</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="68">
                   <c:v>0.01017612524461842</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="69">
                   <c:v>0.009298721425804013</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="70">
                   <c:v>-0.0249520153550864</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="71">
                   <c:v>0.04153543307086616</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="72">
                   <c:v>-0.02003402003401999</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="73">
                   <c:v>0.0003857280617163283</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="74">
                   <c:v>0.00443416232889926</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="75">
                   <c:v>-0.008253358925143894</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="76">
                   <c:v>0.002515966711824857</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="77">
                   <c:v>-0.005212355212355191</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="78">
                   <c:v>0.02270522026004262</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="79">
                   <c:v>0.004174573055028441</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="80">
                   <c:v>0.01776266061980336</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="81">
                   <c:v>-0.00519866320089124</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="82">
                   <c:v>0.01082493467711831</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="83">
                   <c:v>-0.007200886262924588</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="84">
                   <c:v>0.005765296633810646</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="85">
                   <c:v>0.01238905325443795</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="86">
                   <c:v>-0.0127853881278539</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="87">
                   <c:v>0.01036077705827942</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="88">
                   <c:v>0.01538179820545693</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="89">
                   <c:v>-0.005590622182146121</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="90">
                   <c:v>0.00888647080159588</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="91">
                   <c:v>-0.001438072982203997</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="92">
                   <c:v>-0.005940594059405946</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="93">
                   <c:v>-0.005070626584570803</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="94">
                   <c:v>-0.008918820531488847</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="95">
                   <c:v>-0.01010101010101017</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="96">
                   <c:v>-0.01725417439703159</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="97">
                   <c:v>-0.007929016424391144</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="98">
                   <c:v>0.001522359657469163</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="99">
                   <c:v>-0.004180125403762225</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="100">
                   <c:v>-0.010684983781721</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="101">
                   <c:v>-0.01716489874638383</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="102">
                   <c:v>0.008634222919937207</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="103">
                   <c:v>-0.01225680933852136</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="104">
                   <c:v>-0.02028757140043336</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="105">
                   <c:v>0.003216726980297402</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="106">
                   <c:v>0.007414829659318833</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="107">
                   <c:v>0.006564551422319376</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="108">
                   <c:v>-0.0005928853754940677</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="109">
                   <c:v>0.03915364840814717</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="110">
                   <c:v>0.008753568030447134</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="111">
                   <c:v>-0.01660064138841721</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="112">
                   <c:v>0.007481296758104827</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="113">
                   <c:v>-0.005331302361005319</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="114">
                   <c:v>0.00631699846860645</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="115">
                   <c:v>-0.0068480121742438</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="116">
                   <c:v>-0.008427504309519218</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="117">
                   <c:v>-0.00154529650376678</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="118">
                   <c:v>0.0007738440704196936</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="119">
                   <c:v>0.008699014111734016</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="120">
                   <c:v>-0.01686469911843624</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="121">
                   <c:v>0.03040935672514622</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="122">
                   <c:v>0.01002648505486192</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="123">
                   <c:v>-0.02210151713804087</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="124">
                   <c:v>0.0009576709442635778</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="125">
                   <c:v>-0.02659778032912363</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="126">
                   <c:v>-0.003341851779044558</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="127">
                   <c:v>-0.01400394477317557</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="128">
                   <c:v>0.005601120224044909</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="129">
                   <c:v>0.002387109608116056</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="130">
                   <c:v>0.001587616590593255</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="131">
                   <c:v>0.005151575193184099</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="132">
                   <c:v>0.01517839542676924</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="133">
                   <c:v>-0.002135922330097073</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="134">
                   <c:v>-0.001556723097878909</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="135">
                   <c:v>0.03586045605145194</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="136">
                   <c:v>0.009219190968955848</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="137">
                   <c:v>0.01976137211036555</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="138">
                   <c:v>0.001645338208409397</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="139">
                   <c:v>0.02482204781894515</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="140">
                   <c:v>-0.001602849510240367</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="141">
                   <c:v>0.02069211559043871</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="142">
                   <c:v>-0.03268088081090526</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="143">
                   <c:v>-0.003432700993676652</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="144">
                   <c:v>0.00435097897026826</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="145">
                   <c:v>-0.008844765342960303</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="146">
                   <c:v>-0.01675468949189574</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="147">
                   <c:v>-0.004630487127245786</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="148">
                   <c:v>0.005024190547078478</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="149">
                   <c:v>-0.01907054249213114</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="150">
                   <c:v>0.001132502831257209</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="151">
                   <c:v>-0.008295625942684737</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="152">
                   <c:v>0.004372623574144363</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="153">
                   <c:v>0.005300018928638961</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="154">
                   <c:v>0.015627942007155</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="155">
                   <c:v>0.003151649981461002</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="156">
                   <c:v>0.0114581408242469</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="157">
                   <c:v>-0.02009866617942613</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="158">
                   <c:v>-0.0384113369382808</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="159">
                   <c:v>-0.0137676943959667</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="160">
                   <c:v>0.009241053873377814</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="161">
                   <c:v>-0.02474186635495801</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="162">
                   <c:v>-0.0191769876148622</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="163">
                   <c:v>0.0004073319755599769</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="164">
                   <c:v>-0.006107491856677472</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="165">
                   <c:v>-0.02693877551020407</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="166">
                   <c:v>0.02181208053691264</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="167">
                   <c:v>0.01621510673234816</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="168">
                   <c:v>0.005857402544940493</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="169">
                   <c:v>-0.02385141739980445</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="170">
                   <c:v>-0.0186260765071099</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="171">
                   <c:v>0.01367346938775515</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="172">
                   <c:v>0.006241191866317664</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="173">
                   <c:v>-0.0166066426570628</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="174">
                   <c:v>-0.007934893184130209</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="175">
                   <c:v>-0.01107465135356844</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="176">
                   <c:v>0.002695976773123165</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="177">
                   <c:v>0.007445708376421889</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="178">
                   <c:v>0.004516526380619945</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="179">
                   <c:v>0.01205804210096062</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="180">
                   <c:v>-0.005452342487883732</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="181">
                   <c:v>-0.009746192893400951</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="182">
                   <c:v>0.002460529013737833</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="183">
                   <c:v>0.01759050930660666</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="184">
                   <c:v>-0.01467336683417075</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="185">
                   <c:v>-0.01631986944104458</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="186">
                   <c:v>-0.001036914143508816</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="187">
                   <c:v>0.009134315964293149</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="188">
                   <c:v>0.01542892408969343</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="189">
                   <c:v>-0.004862236628849326</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="190">
                   <c:v>-0.0126221498371335</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="191">
                   <c:v>-0.03525773195876292</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="192">
                   <c:v>0.0102586022654414</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="193">
                   <c:v>-0.006346519991538013</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="194">
                   <c:v>-0.0178837555886735</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="195">
                   <c:v>-0.0002167786689790674</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="196">
                   <c:v>-0.01539462272333048</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="197">
                   <c:v>-0.02686632900242236</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="198">
                   <c:v>-0.004525910839556335</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="199">
                   <c:v>-0.02136849283928177</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="200">
                   <c:v>-0.009291521486643362</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="201">
                   <c:v>-0.004220398593200447</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="202">
                   <c:v>0.02542971509300673</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="203">
                   <c:v>-0.00390355912743956</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="204">
                   <c:v>0.003457814661134151</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="205">
                   <c:v>-0.004135079255685681</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="206">
                   <c:v>-0.004152249134948049</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="207">
                   <c:v>-0.003011350474866892</c:v>
                 </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="208">
                   <c:v>-0.0004646840148697651</c:v>
                 </c:pt>
-                <c:pt idx="203">
+                <c:pt idx="209">
                   <c:v>0.01092515109251502</c:v>
                 </c:pt>
-                <c:pt idx="204">
+                <c:pt idx="210">
                   <c:v>-0.008967578753736549</c:v>
                 </c:pt>
-                <c:pt idx="205">
+                <c:pt idx="211">
                   <c:v>0.007656612529002293</c:v>
                 </c:pt>
-                <c:pt idx="206">
+                <c:pt idx="212">
                   <c:v>0.006447156343541316</c:v>
                 </c:pt>
-                <c:pt idx="207">
+                <c:pt idx="213">
                   <c:v>-0.01143902997025847</c:v>
                 </c:pt>
-                <c:pt idx="208">
+                <c:pt idx="214">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="209">
+                <c:pt idx="215">
                   <c:v>-0.003934274473501587</c:v>
                 </c:pt>
-                <c:pt idx="210">
+                <c:pt idx="216">
                   <c:v>0.002788104089219257</c:v>
                 </c:pt>
-                <c:pt idx="211">
+                <c:pt idx="217">
                   <c:v>0.01506024096385561</c:v>
                 </c:pt>
-                <c:pt idx="212">
+                <c:pt idx="218">
                   <c:v>0.01711937913718331</c:v>
                 </c:pt>
-                <c:pt idx="213">
+                <c:pt idx="219">
                   <c:v>0.007405745062836644</c:v>
                 </c:pt>
-                <c:pt idx="214">
+                <c:pt idx="220">
                   <c:v>-0.00178213410559136</c:v>
                 </c:pt>
-                <c:pt idx="215">
+                <c:pt idx="221">
                   <c:v>0.01338986833296119</c:v>
                 </c:pt>
-                <c:pt idx="216">
+                <c:pt idx="222">
                   <c:v>0.02070028628055498</c:v>
                 </c:pt>
-                <c:pt idx="217">
+                <c:pt idx="223">
                   <c:v>0.005609492988133624</c:v>
                 </c:pt>
-                <c:pt idx="218">
+                <c:pt idx="224">
                   <c:v>0.01244368161338771</c:v>
                 </c:pt>
-                <c:pt idx="219">
+                <c:pt idx="225">
                   <c:v>0.0008476372112735664</c:v>
                 </c:pt>
-                <c:pt idx="220">
+                <c:pt idx="226">
                   <c:v>-0.03493542240101633</c:v>
                 </c:pt>
-                <c:pt idx="221">
+                <c:pt idx="227">
                   <c:v>0.008556384379113657</c:v>
                 </c:pt>
-                <c:pt idx="222">
+                <c:pt idx="228">
                   <c:v>-0.007396127909506167</c:v>
                 </c:pt>
-                <c:pt idx="223">
+                <c:pt idx="229">
                   <c:v>-0.03133903133903138</c:v>
                 </c:pt>
-                <c:pt idx="224">
+                <c:pt idx="230">
                   <c:v>0.01312217194570131</c:v>
                 </c:pt>
-                <c:pt idx="225">
+                <c:pt idx="231">
                   <c:v>0.02411790978115236</c:v>
                 </c:pt>
-                <c:pt idx="226">
+                <c:pt idx="232">
                   <c:v>-0.002616659398168242</c:v>
                 </c:pt>
-                <c:pt idx="227">
+                <c:pt idx="233">
                   <c:v>-0.008307826847398392</c:v>
                 </c:pt>
-                <c:pt idx="228">
+                <c:pt idx="234">
                   <c:v>-0.03064373897707229</c:v>
                 </c:pt>
-                <c:pt idx="229">
+                <c:pt idx="235">
                   <c:v>-0.005003411416875103</c:v>
                 </c:pt>
-                <c:pt idx="230">
+                <c:pt idx="236">
                   <c:v>0.00777142857142854</c:v>
                 </c:pt>
-                <c:pt idx="231">
+                <c:pt idx="237">
                   <c:v>0.005670220004536208</c:v>
                 </c:pt>
-                <c:pt idx="232">
+                <c:pt idx="238">
                   <c:v>-0.0006765899864682456</c:v>
                 </c:pt>
-                <c:pt idx="233">
+                <c:pt idx="239">
                   <c:v>-0.02708192281652</c:v>
                 </c:pt>
-                <c:pt idx="234">
+                <c:pt idx="240">
                   <c:v>0.01067037810252836</c:v>
                 </c:pt>
-                <c:pt idx="235">
+                <c:pt idx="241">
                   <c:v>0.02845994950654118</c:v>
                 </c:pt>
-                <c:pt idx="236">
+                <c:pt idx="242">
                   <c:v>-0.01495201963847359</c:v>
                 </c:pt>
-                <c:pt idx="237">
+                <c:pt idx="243">
                   <c:v>0.005437245129134682</c:v>
                 </c:pt>
-                <c:pt idx="238">
+                <c:pt idx="244">
                   <c:v>-0.001577287066246047</c:v>
                 </c:pt>
-                <c:pt idx="239">
+                <c:pt idx="245">
                   <c:v>-0.03565786504175139</c:v>
                 </c:pt>
               </c:numCache>
@@ -1654,29 +1690,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$241</c:f>
+              <c:f>Retornos!$D$2:$D$247</c:f>
               <c:strCache>
-                <c:ptCount val="240"/>
+                <c:ptCount val="246"/>
                 <c:pt idx="0">
                   <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04/2024</c:v>
+                  <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>04/2024</c:v>
+                  <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>04/2024</c:v>
+                  <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>04/2024</c:v>
+                  <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>04/2024</c:v>
+                  <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>04/2024</c:v>
+                  <c:v>05/2024</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>04/2024</c:v>
@@ -1727,22 +1763,22 @@
                   <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>03/2024</c:v>
+                  <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>03/2024</c:v>
+                  <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>03/2024</c:v>
+                  <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>03/2024</c:v>
+                  <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>03/2024</c:v>
+                  <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>03/2024</c:v>
+                  <c:v>04/2024</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>03/2024</c:v>
@@ -1787,22 +1823,22 @@
                   <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>02/2024</c:v>
+                  <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>02/2024</c:v>
+                  <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>02/2024</c:v>
+                  <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>02/2024</c:v>
+                  <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>02/2024</c:v>
+                  <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>02/2024</c:v>
+                  <c:v>03/2024</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>02/2024</c:v>
@@ -1844,22 +1880,22 @@
                   <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>01/2024</c:v>
+                  <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>01/2024</c:v>
+                  <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>01/2024</c:v>
+                  <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>01/2024</c:v>
+                  <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>01/2024</c:v>
+                  <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>01/2024</c:v>
+                  <c:v>02/2024</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>01/2024</c:v>
@@ -1910,22 +1946,22 @@
                   <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>12/2023</c:v>
+                  <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>12/2023</c:v>
+                  <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>12/2023</c:v>
+                  <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>12/2023</c:v>
+                  <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>12/2023</c:v>
+                  <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>12/2023</c:v>
+                  <c:v>01/2024</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>12/2023</c:v>
@@ -1967,22 +2003,22 @@
                   <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>11/2023</c:v>
+                  <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>11/2023</c:v>
+                  <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>11/2023</c:v>
+                  <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>11/2023</c:v>
+                  <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>11/2023</c:v>
+                  <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>11/2023</c:v>
+                  <c:v>12/2023</c:v>
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>11/2023</c:v>
@@ -2027,22 +2063,22 @@
                   <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>10/2023</c:v>
+                  <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>10/2023</c:v>
+                  <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>10/2023</c:v>
+                  <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>10/2023</c:v>
+                  <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>10/2023</c:v>
+                  <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>10/2023</c:v>
+                  <c:v>11/2023</c:v>
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>10/2023</c:v>
@@ -2090,22 +2126,22 @@
                   <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>09/2023</c:v>
+                  <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>09/2023</c:v>
+                  <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>09/2023</c:v>
+                  <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>09/2023</c:v>
+                  <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>09/2023</c:v>
+                  <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>09/2023</c:v>
+                  <c:v>10/2023</c:v>
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>09/2023</c:v>
@@ -2150,22 +2186,22 @@
                   <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>08/2023</c:v>
+                  <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>08/2023</c:v>
+                  <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>08/2023</c:v>
+                  <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>08/2023</c:v>
+                  <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>08/2023</c:v>
+                  <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>08/2023</c:v>
+                  <c:v>09/2023</c:v>
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>08/2023</c:v>
@@ -2219,22 +2255,22 @@
                   <c:v>08/2023</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>07/2023</c:v>
+                  <c:v>08/2023</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>07/2023</c:v>
+                  <c:v>08/2023</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>07/2023</c:v>
+                  <c:v>08/2023</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>07/2023</c:v>
+                  <c:v>08/2023</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>07/2023</c:v>
+                  <c:v>08/2023</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>07/2023</c:v>
+                  <c:v>08/2023</c:v>
                 </c:pt>
                 <c:pt idx="193">
                   <c:v>07/2023</c:v>
@@ -2282,22 +2318,22 @@
                   <c:v>07/2023</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>06/2023</c:v>
+                  <c:v>07/2023</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>06/2023</c:v>
+                  <c:v>07/2023</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>06/2023</c:v>
+                  <c:v>07/2023</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>06/2023</c:v>
+                  <c:v>07/2023</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>06/2023</c:v>
+                  <c:v>07/2023</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>06/2023</c:v>
+                  <c:v>07/2023</c:v>
                 </c:pt>
                 <c:pt idx="214">
                   <c:v>06/2023</c:v>
@@ -2345,22 +2381,22 @@
                   <c:v>06/2023</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>05/2023</c:v>
+                  <c:v>06/2023</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>05/2023</c:v>
+                  <c:v>06/2023</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>05/2023</c:v>
+                  <c:v>06/2023</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>05/2023</c:v>
+                  <c:v>06/2023</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>05/2023</c:v>
+                  <c:v>06/2023</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>05/2023</c:v>
+                  <c:v>06/2023</c:v>
                 </c:pt>
                 <c:pt idx="235">
                   <c:v>05/2023</c:v>
@@ -2375,6 +2411,24 @@
                   <c:v>05/2023</c:v>
                 </c:pt>
                 <c:pt idx="239">
+                  <c:v>05/2023</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>05/2023</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>05/2023</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>05/2023</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>05/2023</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>05/2023</c:v>
+                </c:pt>
+                <c:pt idx="245">
                   <c:v>05/2023</c:v>
                 </c:pt>
               </c:strCache>
@@ -2382,728 +2436,746 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$C$2:$C$241</c:f>
+              <c:f>Retornos!$C$2:$C$247</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="240"/>
+                <c:ptCount val="246"/>
                 <c:pt idx="0">
+                  <c:v>-0.004587012824913361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.009986021115067079</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.002097360885380484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0057914156274812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.0003346069146907826</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01091077862211098</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.009513674915028192</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>-0.01121301589295809</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>0.006528302483284065</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>0.0150827142467469</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>-0.0007615779895944197</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>-0.003252149455045261</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>-0.003384485518383773</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>0.0035884402672548</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>0.007472060291796812</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
                   <c:v>0.0002013352554139924</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16">
                   <c:v>-0.001752566545273337</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>-0.007539853511417505</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
                   <c:v>-0.004859225382306653</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>-0.01138183302458473</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>-0.005138457213363146</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>-0.01413503733928712</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
                   <c:v>0.008016638599377623</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>0.0162624709176229</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>-0.004967511065072094</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>0.000863978384831654</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
                   <c:v>-0.001811068687328055</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>0.004401921411134824</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
                   <c:v>-0.008711535759449163</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29">
                   <c:v>0.003250033283473286</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30">
                   <c:v>0.006526725680458423</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31">
                   <c:v>-0.000535724133584381</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>-0.0007557448416478652</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
                   <c:v>-0.008832778033536437</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
                   <c:v>-0.007481122942884832</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35">
                   <c:v>0.01251480055516785</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="36">
                   <c:v>0.004529199552593788</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="37">
                   <c:v>0.001672689400514349</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="38">
                   <c:v>-0.007424230558383593</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="39">
                   <c:v>-0.002468634282768001</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="40">
                   <c:v>0.002647491932199042</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="41">
                   <c:v>0.01224192064951946</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="42">
                   <c:v>-0.007452526540280613</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="43">
                   <c:v>-0.009887798036465667</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="44">
                   <c:v>-0.004267204593063845</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="45">
                   <c:v>0.006182766319536626</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="46">
                   <c:v>-0.001893393381694031</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="47">
                   <c:v>-0.006494813438612801</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="48">
                   <c:v>0.001240117811192043</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
                   <c:v>-0.008720371864315624</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="50">
                   <c:v>-0.01164865706323226</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="51">
                   <c:v>0.01604826825297634</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="52">
                   <c:v>0.001468099738060058</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="53">
                   <c:v>-0.006311376601838115</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="54">
                   <c:v>0.001607296665436131</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="55">
                   <c:v>0.0008928846331475171</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="56">
                   <c:v>0.006819802225735527</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="57">
                   <c:v>0.002408215900439714</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="58">
                   <c:v>0.007214171700416161</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="59">
                   <c:v>0.006188099324505147</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="60">
                   <c:v>-0.007873400715479706</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="61">
                   <c:v>-0.001489662057293506</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="62">
                   <c:v>-0.01073236219986418</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="63">
                   <c:v>-0.006195558827137737</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="64">
                   <c:v>0.02212503820742517</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="65">
                   <c:v>0.003231589375854993</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="66">
                   <c:v>-0.01011044434585662</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="67">
                   <c:v>0.00570636858914142</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="68">
                   <c:v>0.002747209619943236</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="69">
                   <c:v>-0.008567893356575373</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="70">
                   <c:v>-0.003597819597261354</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="71">
                   <c:v>0.006226154530346584</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="72">
                   <c:v>0.002761782562433535</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="73">
                   <c:v>-0.003485026858875861</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="74">
                   <c:v>0.01311985592644671</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="75">
                   <c:v>-0.008101162681375174</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="76">
                   <c:v>0.002513431147695533</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="77">
                   <c:v>-0.009399022750614661</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="78">
                   <c:v>-0.005955419431682873</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="79">
                   <c:v>-0.01693265714220538</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="80">
                   <c:v>0.004069075029773828</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="81">
                   <c:v>0.00259473857434811</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="82">
                   <c:v>-0.00146742993404203</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="83">
                   <c:v>-0.004610223131756519</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="84">
                   <c:v>-0.007400303563472654</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="85">
                   <c:v>0.003060072866091446</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="86">
                   <c:v>0.006073491533689968</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="87">
                   <c:v>-0.01210533447761863</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="88">
                   <c:v>0.001032427259094026</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="89">
                   <c:v>-0.01108916793978465</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="90">
                   <c:v>-6.706708198578326e-05</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="91">
                   <c:v>0.004950087244351531</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="92">
                   <c:v>0.005875573433368642</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="93">
                   <c:v>0.00431980148583011</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="94">
                   <c:v>0.01053484602917343</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="95">
                   <c:v>-0.007940781639881433</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="96">
                   <c:v>0.005851209911202027</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="97">
                   <c:v>0.006812752982019665</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="98">
                   <c:v>-0.004929609758334452</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="99">
                   <c:v>0.01063607924921794</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="100">
                   <c:v>0.02422410860501722</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="101">
                   <c:v>-0.004042043556367947</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="102">
                   <c:v>-0.001400538184336053</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="103">
                   <c:v>0.008602491865725037</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="104">
                   <c:v>0.003080646060036774</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="105">
                   <c:v>-0.01008644397689573</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="106">
                   <c:v>0.0007886248748059099</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="107">
                   <c:v>-0.01014808396368549</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="108">
                   <c:v>0.006062938326095058</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="109">
                   <c:v>0.00975408601042016</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="110">
                   <c:v>-0.003453508037111419</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="111">
                   <c:v>0.006802829340483596</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="112">
                   <c:v>0.001123130107852255</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="113">
                   <c:v>-0.008169005182657063</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="114">
                   <c:v>0.004292458444083103</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="115">
                   <c:v>0.003407453406259142</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="116">
                   <c:v>-0.003870097942027861</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="117">
                   <c:v>0.008259903088068343</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="118">
                   <c:v>0.003901232982275848</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="119">
                   <c:v>0.01011935651271401</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="120">
                   <c:v>0.02452316076294281</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="121">
                   <c:v>-0.002155243874133794</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="122">
                   <c:v>0.01364568278829026</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="123">
                   <c:v>-0.0007304847227936895</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="124">
                   <c:v>-0.001416976892376853</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="125">
                   <c:v>0.006591440411184424</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="126">
                   <c:v>0.002767433987813206</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="127">
                   <c:v>0.02700494554683486</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="128">
                   <c:v>0.0168723043201584</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="129">
                   <c:v>0.005438453062240001</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="130">
                   <c:v>-0.006787230474576522</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="131">
                   <c:v>-0.01285971928173768</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="132">
                   <c:v>0.0172560489231588</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="133">
                   <c:v>-0.008192542325205276</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="134">
                   <c:v>0.008662499445848404</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="135">
                   <c:v>-0.00326985108921396</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="136">
                   <c:v>-0.007447107119048502</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="137">
                   <c:v>-0.0004909696650885476</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="138">
                   <c:v>-0.01594367946992448</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="139">
                   <c:v>-0.005371822815658955</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="140">
                   <c:v>0.006738428045683031</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="141">
                   <c:v>-0.01108064006287857</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="142">
                   <c:v>0.002689807002064448</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="143">
                   <c:v>0.01372920212581197</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="144">
                   <c:v>0.008636244197249621</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="145">
                   <c:v>0.007821051516542443</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="146">
                   <c:v>-0.002843134665997726</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="147">
                   <c:v>0.001657570601045766</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="148">
                   <c:v>-0.01423642194738262</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="149">
                   <c:v>-0.01293698794663922</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="150">
                   <c:v>0.007206366487803706</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="151">
                   <c:v>0.01228056364638275</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="152">
                   <c:v>0.00117345196290497</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="153">
                   <c:v>-0.01494069441449208</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="154">
                   <c:v>-0.0007240817522778942</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="155">
                   <c:v>-0.001170950105471635</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="156">
                   <c:v>-0.02148363452546442</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="157">
                   <c:v>0.007204317499108992</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="158">
                   <c:v>-0.003736642770188037</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="159">
                   <c:v>-0.003957628117684742</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="160">
                   <c:v>-0.0053102385419459</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="161">
                   <c:v>0.01028973734091521</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="162">
                   <c:v>0.00176319001763181</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="163">
                   <c:v>0.009282787060564734</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="164">
                   <c:v>0.01361511711602326</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="165">
                   <c:v>-0.005793852653360299</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="166">
                   <c:v>-0.0114718190418559</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="167">
                   <c:v>-0.003786817460115333</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="168">
                   <c:v>-0.0009839430670184335</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="169">
                   <c:v>0.01858443780131669</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="170">
                   <c:v>-0.01525503041647169</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="171">
                   <c:v>-0.007339279078409477</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="172">
                   <c:v>0.01095448297060297</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="173">
                   <c:v>0.01108454120876745</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="174">
                   <c:v>-0.01016013535453664</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="175">
                   <c:v>-0.009387565073856186</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="176">
                   <c:v>0.01703743241847167</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="177">
                   <c:v>0.0150923279937778</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="178">
                   <c:v>-0.008491538788136133</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="179">
                   <c:v>0.00371362474126391</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="180">
                   <c:v>-0.005277181811890075</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="181">
                   <c:v>-0.00498403215948906</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="182">
                   <c:v>-0.005470422052906376</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="183">
                   <c:v>-0.01062973785626564</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="184">
                   <c:v>-0.002408111533586776</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="185">
                   <c:v>-0.0004982729353343318</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="186">
                   <c:v>-0.005718364262322639</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="187">
                   <c:v>-0.002429217624392743</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="188">
                   <c:v>-0.001071058004485037</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="189">
                   <c:v>-0.00893967790622463</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="190">
                   <c:v>-0.002258830538064971</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="191">
                   <c:v>-0.003208300343098491</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="192">
                   <c:v>-0.005699384138490915</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="193">
                   <c:v>0.01461056520255943</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="194">
                   <c:v>0.001641803483623638</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="195">
                   <c:v>-0.0209693211488251</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="196">
                   <c:v>0.004524293488951558</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="197">
                   <c:v>0.005488618944800683</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="198">
                   <c:v>0.009358077476563142</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="199">
                   <c:v>0.01807203407772495</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="200">
                   <c:v>0.004517149857084624</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="201">
                   <c:v>-0.002452457124430429</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="202">
                   <c:v>-0.003197455569747709</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="203">
                   <c:v>0.004315654441810812</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="204">
                   <c:v>-0.01302153206332168</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="205">
                   <c:v>0.01358081348902829</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="206">
                   <c:v>0.003804811465620173</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="207">
                   <c:v>-0.006121653015889184</c:v>
                 </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="208">
                   <c:v>-0.008040505307069901</c:v>
                 </c:pt>
-                <c:pt idx="203">
+                <c:pt idx="209">
                   <c:v>0.01253555430654196</c:v>
                 </c:pt>
-                <c:pt idx="204">
+                <c:pt idx="210">
                   <c:v>-0.01775840868597811</c:v>
                 </c:pt>
-                <c:pt idx="205">
+                <c:pt idx="211">
                   <c:v>0.003972253014881355</c:v>
                 </c:pt>
-                <c:pt idx="206">
+                <c:pt idx="212">
                   <c:v>-0.004988593918427764</c:v>
                 </c:pt>
-                <c:pt idx="207">
+                <c:pt idx="213">
                   <c:v>0.01343077561458927</c:v>
                 </c:pt>
-                <c:pt idx="208">
+                <c:pt idx="214">
                   <c:v>-0.002500359004248942</c:v>
                 </c:pt>
-                <c:pt idx="209">
+                <c:pt idx="215">
                   <c:v>0.01458677933853836</c:v>
                 </c:pt>
-                <c:pt idx="210">
+                <c:pt idx="216">
                   <c:v>-0.007164555023272068</c:v>
                 </c:pt>
-                <c:pt idx="211">
+                <c:pt idx="217">
                   <c:v>-0.006089155383405376</c:v>
                 </c:pt>
-                <c:pt idx="212">
+                <c:pt idx="218">
                   <c:v>-0.006169259604797528</c:v>
                 </c:pt>
-                <c:pt idx="213">
+                <c:pt idx="219">
                   <c:v>0.0003615450586038627</c:v>
                 </c:pt>
-                <c:pt idx="214">
+                <c:pt idx="220">
                   <c:v>-0.01234014283341633</c:v>
                 </c:pt>
-                <c:pt idx="215">
+                <c:pt idx="221">
                   <c:v>0.006671013693133387</c:v>
                 </c:pt>
-                <c:pt idx="216">
+                <c:pt idx="222">
                   <c:v>-0.001968996646031118</c:v>
                 </c:pt>
-                <c:pt idx="217">
+                <c:pt idx="223">
                   <c:v>0.009262533892453462</c:v>
                 </c:pt>
-                <c:pt idx="218">
+                <c:pt idx="224">
                   <c:v>-0.003883544006508921</c:v>
                 </c:pt>
-                <c:pt idx="219">
+                <c:pt idx="225">
                   <c:v>0.001276570727897219</c:v>
                 </c:pt>
-                <c:pt idx="220">
+                <c:pt idx="226">
                   <c:v>0.01992410679869461</c:v>
                 </c:pt>
-                <c:pt idx="221">
+                <c:pt idx="227">
                   <c:v>-0.005053862412217947</c:v>
                 </c:pt>
-                <c:pt idx="222">
+                <c:pt idx="228">
                   <c:v>0.00270896179252933</c:v>
                 </c:pt>
-                <c:pt idx="223">
+                <c:pt idx="229">
                   <c:v>0.01325678858409529</c:v>
                 </c:pt>
-                <c:pt idx="224">
+                <c:pt idx="230">
                   <c:v>0.007660762586161773</c:v>
                 </c:pt>
-                <c:pt idx="225">
+                <c:pt idx="231">
                   <c:v>0.0169837438773337</c:v>
                 </c:pt>
-                <c:pt idx="226">
+                <c:pt idx="232">
                   <c:v>0.001226034577728852</c:v>
                 </c:pt>
-                <c:pt idx="227">
+                <c:pt idx="233">
                   <c:v>0.01802559580337348</c:v>
                 </c:pt>
-                <c:pt idx="228">
+                <c:pt idx="234">
                   <c:v>0.02058429870309686</c:v>
                 </c:pt>
-                <c:pt idx="229">
+                <c:pt idx="235">
                   <c:v>-0.005799921077023318</c:v>
                 </c:pt>
-                <c:pt idx="230">
+                <c:pt idx="236">
                   <c:v>-0.01238070205650166</c:v>
                 </c:pt>
-                <c:pt idx="231">
+                <c:pt idx="237">
                   <c:v>-0.005166537428092255</c:v>
                 </c:pt>
-                <c:pt idx="232">
+                <c:pt idx="238">
                   <c:v>0.007741654097079609</c:v>
                 </c:pt>
-                <c:pt idx="233">
+                <c:pt idx="239">
                   <c:v>0.0115257352941176</c:v>
                 </c:pt>
-                <c:pt idx="234">
+                <c:pt idx="240">
                   <c:v>-0.0102702653530915</c:v>
                 </c:pt>
-                <c:pt idx="235">
+                <c:pt idx="241">
                   <c:v>-0.00257682850480434</c:v>
                 </c:pt>
-                <c:pt idx="236">
+                <c:pt idx="242">
                   <c:v>-0.004803828615287387</c:v>
                 </c:pt>
-                <c:pt idx="237">
+                <c:pt idx="243">
                   <c:v>0.005785229047843954</c:v>
                 </c:pt>
-                <c:pt idx="238">
+                <c:pt idx="244">
                   <c:v>0.005919970765576377</c:v>
                 </c:pt>
-                <c:pt idx="239">
+                <c:pt idx="245">
                   <c:v>0.01170120339390346</c:v>
                 </c:pt>
               </c:numCache>
@@ -3511,7 +3583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D242"/>
+  <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3535,13 +3607,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45414</v>
+        <v>45422</v>
       </c>
       <c r="B2">
-        <v>-0.002704073009971331</v>
+        <v>0.01972386587771213</v>
       </c>
       <c r="C2">
-        <v>0.009513674915028192</v>
+        <v>-0.004587012824913361</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3549,97 +3621,97 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45412</v>
+        <v>45421</v>
       </c>
       <c r="B3">
-        <v>-0.009320454160311797</v>
+        <v>0.01934235976789167</v>
       </c>
       <c r="C3">
-        <v>-0.01121301589295809</v>
+        <v>-0.009986021115067079</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45411</v>
+        <v>45420</v>
       </c>
       <c r="B4">
-        <v>0.007526513855627748</v>
+        <v>-0.007210626185958358</v>
       </c>
       <c r="C4">
-        <v>0.006528302483284065</v>
+        <v>0.002097360885380484</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45408</v>
+        <v>45419</v>
       </c>
       <c r="B5">
-        <v>0.01154499151103572</v>
+        <v>-0.002675840978593302</v>
       </c>
       <c r="C5">
-        <v>0.0150827142467469</v>
+        <v>0.0057914156274812</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45407</v>
+        <v>45418</v>
       </c>
       <c r="B6">
-        <v>0.005370929842228866</v>
+        <v>0.1399003449597547</v>
       </c>
       <c r="C6">
-        <v>-0.0007615779895944197</v>
+        <v>-0.0003346069146907826</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45406</v>
+        <v>45415</v>
       </c>
       <c r="B7">
-        <v>0.01101836393989997</v>
+        <v>-0.005211835911230533</v>
       </c>
       <c r="C7">
-        <v>-0.003252149455045261</v>
+        <v>0.01091077862211098</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45405</v>
+        <v>45414</v>
       </c>
       <c r="B8">
-        <v>-0.007265521796565477</v>
+        <v>-0.002704073009971331</v>
       </c>
       <c r="C8">
-        <v>-0.003384485518383773</v>
+        <v>0.009513674915028192</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45404</v>
+        <v>45412</v>
       </c>
       <c r="B9">
-        <v>0.007152361942781127</v>
+        <v>-0.009320454160311797</v>
       </c>
       <c r="C9">
-        <v>0.0035884402672548</v>
+        <v>-0.01121301589295809</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -3647,13 +3719,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45401</v>
+        <v>45411</v>
       </c>
       <c r="B10">
-        <v>0.0109000825763832</v>
+        <v>0.007526513855627748</v>
       </c>
       <c r="C10">
-        <v>0.007472060291796812</v>
+        <v>0.006528302483284065</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -3661,13 +3733,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45400</v>
+        <v>45408</v>
       </c>
       <c r="B11">
-        <v>-0.007515111909818684</v>
+        <v>0.01154499151103572</v>
       </c>
       <c r="C11">
-        <v>0.0002013352554139924</v>
+        <v>0.0150827142467469</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -3675,13 +3747,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45399</v>
+        <v>45407</v>
       </c>
       <c r="B12">
-        <v>0.0009876543209876854</v>
+        <v>0.005370929842228866</v>
       </c>
       <c r="C12">
-        <v>-0.001752566545273337</v>
+        <v>-0.0007615779895944197</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -3689,13 +3761,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45398</v>
+        <v>45406</v>
       </c>
       <c r="B13">
-        <v>0.008880118401578763</v>
+        <v>0.01101836393989997</v>
       </c>
       <c r="C13">
-        <v>-0.007539853511417505</v>
+        <v>-0.003252149455045261</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -3703,13 +3775,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45397</v>
+        <v>45405</v>
       </c>
       <c r="B14">
-        <v>-0.004889975550122272</v>
+        <v>-0.007265521796565477</v>
       </c>
       <c r="C14">
-        <v>-0.004859225382306653</v>
+        <v>-0.003384485518383773</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -3717,13 +3789,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45394</v>
+        <v>45404</v>
       </c>
       <c r="B15">
-        <v>0.002457002457002533</v>
+        <v>0.007152361942781127</v>
       </c>
       <c r="C15">
-        <v>-0.01138183302458473</v>
+        <v>0.0035884402672548</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -3731,13 +3803,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45393</v>
+        <v>45401</v>
       </c>
       <c r="B16">
-        <v>0.0001633986928104569</v>
+        <v>0.0109000825763832</v>
       </c>
       <c r="C16">
-        <v>-0.005138457213363146</v>
+        <v>0.007472060291796812</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -3745,13 +3817,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45392</v>
+        <v>45400</v>
       </c>
       <c r="B17">
-        <v>0.008985459892174363</v>
+        <v>-0.007515111909818684</v>
       </c>
       <c r="C17">
-        <v>-0.01413503733928712</v>
+        <v>0.0002013352554139924</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -3759,13 +3831,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45391</v>
+        <v>45399</v>
       </c>
       <c r="B18">
-        <v>0.0085816062176165</v>
+        <v>0.0009876543209876854</v>
       </c>
       <c r="C18">
-        <v>0.008016638599377623</v>
+        <v>-0.001752566545273337</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -3773,13 +3845,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45390</v>
+        <v>45398</v>
       </c>
       <c r="B19">
-        <v>0.004976721785198368</v>
+        <v>0.008880118401578763</v>
       </c>
       <c r="C19">
-        <v>0.0162624709176229</v>
+        <v>-0.007539853511417505</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -3787,13 +3859,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45387</v>
+        <v>45397</v>
       </c>
       <c r="B20">
-        <v>0.003354632587859507</v>
+        <v>-0.004889975550122272</v>
       </c>
       <c r="C20">
-        <v>-0.004967511065072094</v>
+        <v>-0.004859225382306653</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -3801,13 +3873,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45386</v>
+        <v>45394</v>
       </c>
       <c r="B21">
-        <v>0.01703550390065267</v>
+        <v>0.002457002457002533</v>
       </c>
       <c r="C21">
-        <v>0.000863978384831654</v>
+        <v>-0.01138183302458473</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -3815,13 +3887,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45385</v>
+        <v>45393</v>
       </c>
       <c r="B22">
-        <v>0.01127113337507812</v>
+        <v>0.0001633986928104569</v>
       </c>
       <c r="C22">
-        <v>-0.001811068687328055</v>
+        <v>-0.005138457213363146</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -3829,13 +3901,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45384</v>
+        <v>45392</v>
       </c>
       <c r="B23">
-        <v>0.009752321981424394</v>
+        <v>0.008985459892174363</v>
       </c>
       <c r="C23">
-        <v>0.004401921411134824</v>
+        <v>-0.01413503733928712</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -3843,13 +3915,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45383</v>
+        <v>45391</v>
       </c>
       <c r="B24">
-        <v>-0.005212325617047431</v>
+        <v>0.0085816062176165</v>
       </c>
       <c r="C24">
-        <v>-0.008711535759449163</v>
+        <v>0.008016638599377623</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -3857,97 +3929,97 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45379</v>
+        <v>45390</v>
       </c>
       <c r="B25">
-        <v>-0.0140237324703345</v>
+        <v>0.004976721785198368</v>
       </c>
       <c r="C25">
-        <v>0.003250033283473286</v>
+        <v>0.0162624709176229</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45378</v>
+        <v>45387</v>
       </c>
       <c r="B26">
-        <v>-0.002813379180994002</v>
+        <v>0.003354632587859507</v>
       </c>
       <c r="C26">
-        <v>0.006526725680458423</v>
+        <v>-0.004967511065072094</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45377</v>
+        <v>45386</v>
       </c>
       <c r="B27">
-        <v>-0.01300940438871467</v>
+        <v>0.01703550390065267</v>
       </c>
       <c r="C27">
-        <v>-0.000535724133584381</v>
+        <v>0.000863978384831654</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45376</v>
+        <v>45385</v>
       </c>
       <c r="B28">
-        <v>-0.02143878037160551</v>
+        <v>0.01127113337507812</v>
       </c>
       <c r="C28">
-        <v>-0.0007557448416478652</v>
+        <v>-0.001811068687328055</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45373</v>
+        <v>45384</v>
       </c>
       <c r="B29">
-        <v>0.0004829362524148006</v>
+        <v>0.009752321981424394</v>
       </c>
       <c r="C29">
-        <v>-0.008832778033536437</v>
+        <v>0.004401921411134824</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45372</v>
+        <v>45383</v>
       </c>
       <c r="B30">
-        <v>-0.001769911504424737</v>
+        <v>-0.005212325617047431</v>
       </c>
       <c r="C30">
-        <v>-0.007481122942884832</v>
+        <v>-0.008711535759449163</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45371</v>
+        <v>45379</v>
       </c>
       <c r="B31">
-        <v>0.0003223726627983314</v>
+        <v>-0.0140237324703345</v>
       </c>
       <c r="C31">
-        <v>0.01251480055516785</v>
+        <v>0.003250033283473286</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -3955,13 +4027,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45370</v>
+        <v>45378</v>
       </c>
       <c r="B32">
-        <v>0.01272961650016113</v>
+        <v>-0.002813379180994002</v>
       </c>
       <c r="C32">
-        <v>0.004529199552593788</v>
+        <v>0.006526725680458423</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -3969,13 +4041,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45369</v>
+        <v>45377</v>
       </c>
       <c r="B33">
-        <v>-0.02863961813842486</v>
+        <v>-0.01300940438871467</v>
       </c>
       <c r="C33">
-        <v>0.001672689400514349</v>
+        <v>-0.000535724133584381</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -3983,13 +4055,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45366</v>
+        <v>45376</v>
       </c>
       <c r="B34">
-        <v>-0.004095004095004073</v>
+        <v>-0.02143878037160551</v>
       </c>
       <c r="C34">
-        <v>-0.007424230558383593</v>
+        <v>-0.0007557448416478652</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -3997,13 +4069,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45365</v>
+        <v>45373</v>
       </c>
       <c r="B35">
-        <v>-0.02138157894736836</v>
+        <v>0.0004829362524148006</v>
       </c>
       <c r="C35">
-        <v>-0.002468634282768001</v>
+        <v>-0.008832778033536437</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -4011,13 +4083,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45364</v>
+        <v>45372</v>
       </c>
       <c r="B36">
-        <v>-0.001176470588235334</v>
+        <v>-0.001769911504424737</v>
       </c>
       <c r="C36">
-        <v>0.002647491932199042</v>
+        <v>-0.007481122942884832</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -4025,13 +4097,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45363</v>
+        <v>45371</v>
       </c>
       <c r="B37">
-        <v>-0.005384485949856965</v>
+        <v>0.0003223726627983314</v>
       </c>
       <c r="C37">
-        <v>0.01224192064951946</v>
+        <v>0.01251480055516785</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -4039,13 +4111,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45362</v>
+        <v>45370</v>
       </c>
       <c r="B38">
-        <v>-0.00913551006597868</v>
+        <v>0.01272961650016113</v>
       </c>
       <c r="C38">
-        <v>-0.007452526540280613</v>
+        <v>0.004529199552593788</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -4053,13 +4125,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45359</v>
+        <v>45369</v>
       </c>
       <c r="B39">
-        <v>0.009902680553184107</v>
+        <v>-0.02863961813842486</v>
       </c>
       <c r="C39">
-        <v>-0.009887798036465667</v>
+        <v>0.001672689400514349</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -4067,13 +4139,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45358</v>
+        <v>45366</v>
       </c>
       <c r="B40">
-        <v>-0.005579036348267064</v>
+        <v>-0.004095004095004073</v>
       </c>
       <c r="C40">
-        <v>-0.004267204593063845</v>
+        <v>-0.007424230558383593</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -4081,13 +4153,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45357</v>
+        <v>45365</v>
       </c>
       <c r="B41">
-        <v>-0.009010540632438002</v>
+        <v>-0.02138157894736836</v>
       </c>
       <c r="C41">
-        <v>0.006182766319536626</v>
+        <v>-0.002468634282768001</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -4095,13 +4167,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45356</v>
+        <v>45364</v>
       </c>
       <c r="B42">
-        <v>0.00480356836507112</v>
+        <v>-0.001176470588235334</v>
       </c>
       <c r="C42">
-        <v>-0.001893393381694031</v>
+        <v>0.002647491932199042</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -4109,13 +4181,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45355</v>
+        <v>45363</v>
       </c>
       <c r="B43">
-        <v>-0.002048830459279505</v>
+        <v>-0.005384485949856965</v>
       </c>
       <c r="C43">
-        <v>-0.006494813438612801</v>
+        <v>0.01224192064951946</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -4123,13 +4195,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45352</v>
+        <v>45362</v>
       </c>
       <c r="B44">
-        <v>-0.0164242942686057</v>
+        <v>-0.00913551006597868</v>
       </c>
       <c r="C44">
-        <v>0.001240117811192043</v>
+        <v>-0.007452526540280613</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -4137,97 +4209,97 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45351</v>
+        <v>45359</v>
       </c>
       <c r="B45">
-        <v>-0.01982953557140377</v>
+        <v>0.009902680553184107</v>
       </c>
       <c r="C45">
-        <v>-0.008720371864315624</v>
+        <v>-0.009887798036465667</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45350</v>
+        <v>45358</v>
       </c>
       <c r="B46">
-        <v>0.01827861579414369</v>
+        <v>-0.005579036348267064</v>
       </c>
       <c r="C46">
-        <v>-0.01164865706323226</v>
+        <v>-0.004267204593063845</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45349</v>
+        <v>45357</v>
       </c>
       <c r="B47">
-        <v>-0.009759498082955731</v>
+        <v>-0.009010540632438002</v>
       </c>
       <c r="C47">
-        <v>0.01604826825297634</v>
+        <v>0.006182766319536626</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45348</v>
+        <v>45356</v>
       </c>
       <c r="B48">
-        <v>-0.01231960577261537</v>
+        <v>0.00480356836507112</v>
       </c>
       <c r="C48">
-        <v>0.001468099738060058</v>
+        <v>-0.001893393381694031</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45345</v>
+        <v>45355</v>
       </c>
       <c r="B49">
-        <v>-0.01514611546685662</v>
+        <v>-0.002048830459279505</v>
       </c>
       <c r="C49">
-        <v>-0.006311376601838115</v>
+        <v>-0.006494813438612801</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45344</v>
+        <v>45352</v>
       </c>
       <c r="B50">
-        <v>0.00850370906459208</v>
+        <v>-0.0164242942686057</v>
       </c>
       <c r="C50">
-        <v>0.001607296665436131</v>
+        <v>0.001240117811192043</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45343</v>
+        <v>45351</v>
       </c>
       <c r="B51">
-        <v>-0.008432005740940052</v>
+        <v>-0.01982953557140377</v>
       </c>
       <c r="C51">
-        <v>0.0008928846331475171</v>
+        <v>-0.008720371864315624</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
@@ -4235,13 +4307,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45342</v>
+        <v>45350</v>
       </c>
       <c r="B52">
-        <v>-0.02533019721367846</v>
+        <v>0.01827861579414369</v>
       </c>
       <c r="C52">
-        <v>0.006819802225735527</v>
+        <v>-0.01164865706323226</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
@@ -4249,13 +4321,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45341</v>
+        <v>45349</v>
       </c>
       <c r="B53">
-        <v>-0.0154074624095043</v>
+        <v>-0.009759498082955731</v>
       </c>
       <c r="C53">
-        <v>0.002408215900439714</v>
+        <v>0.01604826825297634</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
@@ -4263,13 +4335,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45338</v>
+        <v>45348</v>
       </c>
       <c r="B54">
-        <v>0.0001885369532428349</v>
+        <v>-0.01231960577261537</v>
       </c>
       <c r="C54">
-        <v>0.007214171700416161</v>
+        <v>0.001468099738060058</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
@@ -4277,13 +4349,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45337</v>
+        <v>45345</v>
       </c>
       <c r="B55">
-        <v>-0.0133836003770027</v>
+        <v>-0.01514611546685662</v>
       </c>
       <c r="C55">
-        <v>0.006188099324505147</v>
+        <v>-0.006311376601838115</v>
       </c>
       <c r="D55" t="s">
         <v>6</v>
@@ -4291,13 +4363,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B56">
-        <v>-0.001719526175009589</v>
+        <v>0.00850370906459208</v>
       </c>
       <c r="C56">
-        <v>-0.007873400715479706</v>
+        <v>0.001607296665436131</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
@@ -4305,13 +4377,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45331</v>
+        <v>45343</v>
       </c>
       <c r="B57">
-        <v>0.008612440191387627</v>
+        <v>-0.008432005740940052</v>
       </c>
       <c r="C57">
-        <v>-0.001489662057293506</v>
+        <v>0.0008928846331475171</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
@@ -4319,13 +4391,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45330</v>
+        <v>45342</v>
       </c>
       <c r="B58">
-        <v>0.01423149905123333</v>
+        <v>-0.02533019721367846</v>
       </c>
       <c r="C58">
-        <v>-0.01073236219986418</v>
+        <v>0.006819802225735527</v>
       </c>
       <c r="D58" t="s">
         <v>6</v>
@@ -4333,13 +4405,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45329</v>
+        <v>45341</v>
       </c>
       <c r="B59">
-        <v>0.00467726847521055</v>
+        <v>-0.0154074624095043</v>
       </c>
       <c r="C59">
-        <v>-0.006195558827137737</v>
+        <v>0.002408215900439714</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
@@ -4347,13 +4419,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45328</v>
+        <v>45338</v>
       </c>
       <c r="B60">
-        <v>0.000186219739292337</v>
+        <v>0.0001885369532428349</v>
       </c>
       <c r="C60">
-        <v>0.02212503820742517</v>
+        <v>0.007214171700416161</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
@@ -4361,13 +4433,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45327</v>
+        <v>45337</v>
       </c>
       <c r="B61">
-        <v>-0.03649227331967975</v>
+        <v>-0.0133836003770027</v>
       </c>
       <c r="C61">
-        <v>0.003231589375854993</v>
+        <v>0.006188099324505147</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
@@ -4375,13 +4447,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45324</v>
+        <v>45336</v>
       </c>
       <c r="B62">
-        <v>-0.007922705314009626</v>
+        <v>-0.001719526175009589</v>
       </c>
       <c r="C62">
-        <v>-0.01011044434585662</v>
+        <v>-0.007873400715479706</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
@@ -4389,13 +4461,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45323</v>
+        <v>45331</v>
       </c>
       <c r="B63">
-        <v>-0.004674717569146947</v>
+        <v>0.008612440191387627</v>
       </c>
       <c r="C63">
-        <v>0.00570636858914142</v>
+        <v>-0.001489662057293506</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
@@ -4403,97 +4475,97 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45322</v>
+        <v>45330</v>
       </c>
       <c r="B64">
-        <v>0.01017612524461842</v>
+        <v>0.01423149905123333</v>
       </c>
       <c r="C64">
-        <v>0.002747209619943236</v>
+        <v>-0.01073236219986418</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45321</v>
+        <v>45329</v>
       </c>
       <c r="B65">
-        <v>0.009298721425804013</v>
+        <v>0.00467726847521055</v>
       </c>
       <c r="C65">
-        <v>-0.008567893356575373</v>
+        <v>-0.006195558827137737</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45320</v>
+        <v>45328</v>
       </c>
       <c r="B66">
-        <v>-0.0249520153550864</v>
+        <v>0.000186219739292337</v>
       </c>
       <c r="C66">
-        <v>-0.003597819597261354</v>
+        <v>0.02212503820742517</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45317</v>
+        <v>45327</v>
       </c>
       <c r="B67">
-        <v>0.04153543307086616</v>
+        <v>-0.03649227331967975</v>
       </c>
       <c r="C67">
-        <v>0.006226154530346584</v>
+        <v>0.003231589375854993</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45316</v>
+        <v>45324</v>
       </c>
       <c r="B68">
-        <v>-0.02003402003401999</v>
+        <v>-0.007922705314009626</v>
       </c>
       <c r="C68">
-        <v>0.002761782562433535</v>
+        <v>-0.01011044434585662</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45315</v>
+        <v>45323</v>
       </c>
       <c r="B69">
-        <v>0.0003857280617163283</v>
+        <v>-0.004674717569146947</v>
       </c>
       <c r="C69">
-        <v>-0.003485026858875861</v>
+        <v>0.00570636858914142</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45314</v>
+        <v>45322</v>
       </c>
       <c r="B70">
-        <v>0.00443416232889926</v>
+        <v>0.01017612524461842</v>
       </c>
       <c r="C70">
-        <v>0.01311985592644671</v>
+        <v>0.002747209619943236</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -4501,13 +4573,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45313</v>
+        <v>45321</v>
       </c>
       <c r="B71">
-        <v>-0.008253358925143894</v>
+        <v>0.009298721425804013</v>
       </c>
       <c r="C71">
-        <v>-0.008101162681375174</v>
+        <v>-0.008567893356575373</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -4515,13 +4587,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45310</v>
+        <v>45320</v>
       </c>
       <c r="B72">
-        <v>0.002515966711824857</v>
+        <v>-0.0249520153550864</v>
       </c>
       <c r="C72">
-        <v>0.002513431147695533</v>
+        <v>-0.003597819597261354</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -4529,13 +4601,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45309</v>
+        <v>45317</v>
       </c>
       <c r="B73">
-        <v>-0.005212355212355191</v>
+        <v>0.04153543307086616</v>
       </c>
       <c r="C73">
-        <v>-0.009399022750614661</v>
+        <v>0.006226154530346584</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -4543,13 +4615,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45308</v>
+        <v>45316</v>
       </c>
       <c r="B74">
-        <v>0.02270522026004262</v>
+        <v>-0.02003402003401999</v>
       </c>
       <c r="C74">
-        <v>-0.005955419431682873</v>
+        <v>0.002761782562433535</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -4557,13 +4629,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45307</v>
+        <v>45315</v>
       </c>
       <c r="B75">
-        <v>0.004174573055028441</v>
+        <v>0.0003857280617163283</v>
       </c>
       <c r="C75">
-        <v>-0.01693265714220538</v>
+        <v>-0.003485026858875861</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -4571,13 +4643,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45306</v>
+        <v>45314</v>
       </c>
       <c r="B76">
-        <v>0.01776266061980336</v>
+        <v>0.00443416232889926</v>
       </c>
       <c r="C76">
-        <v>0.004069075029773828</v>
+        <v>0.01311985592644671</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -4585,13 +4657,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45303</v>
+        <v>45313</v>
       </c>
       <c r="B77">
-        <v>-0.00519866320089124</v>
+        <v>-0.008253358925143894</v>
       </c>
       <c r="C77">
-        <v>0.00259473857434811</v>
+        <v>-0.008101162681375174</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -4599,13 +4671,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45302</v>
+        <v>45310</v>
       </c>
       <c r="B78">
-        <v>0.01082493467711831</v>
+        <v>0.002515966711824857</v>
       </c>
       <c r="C78">
-        <v>-0.00146742993404203</v>
+        <v>0.002513431147695533</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -4613,13 +4685,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45301</v>
+        <v>45309</v>
       </c>
       <c r="B79">
-        <v>-0.007200886262924588</v>
+        <v>-0.005212355212355191</v>
       </c>
       <c r="C79">
-        <v>-0.004610223131756519</v>
+        <v>-0.009399022750614661</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -4627,13 +4699,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45300</v>
+        <v>45308</v>
       </c>
       <c r="B80">
-        <v>0.005765296633810646</v>
+        <v>0.02270522026004262</v>
       </c>
       <c r="C80">
-        <v>-0.007400303563472654</v>
+        <v>-0.005955419431682873</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -4641,13 +4713,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45299</v>
+        <v>45307</v>
       </c>
       <c r="B81">
-        <v>0.01238905325443795</v>
+        <v>0.004174573055028441</v>
       </c>
       <c r="C81">
-        <v>0.003060072866091446</v>
+        <v>-0.01693265714220538</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
@@ -4655,13 +4727,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45296</v>
+        <v>45306</v>
       </c>
       <c r="B82">
-        <v>-0.0127853881278539</v>
+        <v>0.01776266061980336</v>
       </c>
       <c r="C82">
-        <v>0.006073491533689968</v>
+        <v>0.004069075029773828</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -4669,13 +4741,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45295</v>
+        <v>45303</v>
       </c>
       <c r="B83">
-        <v>0.01036077705827942</v>
+        <v>-0.00519866320089124</v>
       </c>
       <c r="C83">
-        <v>-0.01210533447761863</v>
+        <v>0.00259473857434811</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
@@ -4683,13 +4755,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45294</v>
+        <v>45302</v>
       </c>
       <c r="B84">
-        <v>0.01538179820545693</v>
+        <v>0.01082493467711831</v>
       </c>
       <c r="C84">
-        <v>0.001032427259094026</v>
+        <v>-0.00146742993404203</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -4697,13 +4769,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45293</v>
+        <v>45301</v>
       </c>
       <c r="B85">
-        <v>-0.005590622182146121</v>
+        <v>-0.007200886262924588</v>
       </c>
       <c r="C85">
-        <v>-0.01108916793978465</v>
+        <v>-0.004610223131756519</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -4711,97 +4783,97 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45288</v>
+        <v>45300</v>
       </c>
       <c r="B86">
-        <v>0.00888647080159588</v>
+        <v>0.005765296633810646</v>
       </c>
       <c r="C86">
-        <v>-6.706708198578326E-05</v>
+        <v>-0.007400303563472654</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45287</v>
+        <v>45299</v>
       </c>
       <c r="B87">
-        <v>-0.001438072982203997</v>
+        <v>0.01238905325443795</v>
       </c>
       <c r="C87">
-        <v>0.004950087244351531</v>
+        <v>0.003060072866091446</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45286</v>
+        <v>45296</v>
       </c>
       <c r="B88">
-        <v>-0.005940594059405946</v>
+        <v>-0.0127853881278539</v>
       </c>
       <c r="C88">
-        <v>0.005875573433368642</v>
+        <v>0.006073491533689968</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45282</v>
+        <v>45295</v>
       </c>
       <c r="B89">
-        <v>-0.005070626584570803</v>
+        <v>0.01036077705827942</v>
       </c>
       <c r="C89">
-        <v>0.00431980148583011</v>
+        <v>-0.01210533447761863</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45281</v>
+        <v>45294</v>
       </c>
       <c r="B90">
-        <v>-0.008918820531488847</v>
+        <v>0.01538179820545693</v>
       </c>
       <c r="C90">
-        <v>0.01053484602917343</v>
+        <v>0.001032427259094026</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45280</v>
+        <v>45293</v>
       </c>
       <c r="B91">
-        <v>-0.01010101010101017</v>
+        <v>-0.005590622182146121</v>
       </c>
       <c r="C91">
-        <v>-0.007940781639881433</v>
+        <v>-0.01108916793978465</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45279</v>
+        <v>45288</v>
       </c>
       <c r="B92">
-        <v>-0.01725417439703159</v>
+        <v>0.00888647080159588</v>
       </c>
       <c r="C92">
-        <v>0.005851209911202027</v>
+        <v>-6.706708198578326E-05</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -4809,13 +4881,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45278</v>
+        <v>45287</v>
       </c>
       <c r="B93">
-        <v>-0.007929016424391144</v>
+        <v>-0.001438072982203997</v>
       </c>
       <c r="C93">
-        <v>0.006812752982019665</v>
+        <v>0.004950087244351531</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -4823,13 +4895,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45275</v>
+        <v>45286</v>
       </c>
       <c r="B94">
-        <v>0.001522359657469163</v>
+        <v>-0.005940594059405946</v>
       </c>
       <c r="C94">
-        <v>-0.004929609758334452</v>
+        <v>0.005875573433368642</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -4837,13 +4909,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45274</v>
+        <v>45282</v>
       </c>
       <c r="B95">
-        <v>-0.004180125403762225</v>
+        <v>-0.005070626584570803</v>
       </c>
       <c r="C95">
-        <v>0.01063607924921794</v>
+        <v>0.00431980148583011</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -4851,13 +4923,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45273</v>
+        <v>45281</v>
       </c>
       <c r="B96">
-        <v>-0.010684983781721</v>
+        <v>-0.008918820531488847</v>
       </c>
       <c r="C96">
-        <v>0.02422410860501722</v>
+        <v>0.01053484602917343</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -4865,13 +4937,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>45272</v>
+        <v>45280</v>
       </c>
       <c r="B97">
-        <v>-0.01716489874638383</v>
+        <v>-0.01010101010101017</v>
       </c>
       <c r="C97">
-        <v>-0.004042043556367947</v>
+        <v>-0.007940781639881433</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -4879,13 +4951,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>45271</v>
+        <v>45279</v>
       </c>
       <c r="B98">
-        <v>0.008634222919937207</v>
+        <v>-0.01725417439703159</v>
       </c>
       <c r="C98">
-        <v>-0.001400538184336053</v>
+        <v>0.005851209911202027</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -4893,13 +4965,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>45268</v>
+        <v>45278</v>
       </c>
       <c r="B99">
-        <v>-0.01225680933852136</v>
+        <v>-0.007929016424391144</v>
       </c>
       <c r="C99">
-        <v>0.008602491865725037</v>
+        <v>0.006812752982019665</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -4907,13 +4979,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>45267</v>
+        <v>45275</v>
       </c>
       <c r="B100">
-        <v>-0.02028757140043336</v>
+        <v>0.001522359657469163</v>
       </c>
       <c r="C100">
-        <v>0.003080646060036774</v>
+        <v>-0.004929609758334452</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -4921,13 +4993,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>45266</v>
+        <v>45274</v>
       </c>
       <c r="B101">
-        <v>0.003216726980297402</v>
+        <v>-0.004180125403762225</v>
       </c>
       <c r="C101">
-        <v>-0.01008644397689573</v>
+        <v>0.01063607924921794</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -4935,13 +5007,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>45265</v>
+        <v>45273</v>
       </c>
       <c r="B102">
-        <v>0.007414829659318833</v>
+        <v>-0.010684983781721</v>
       </c>
       <c r="C102">
-        <v>0.0007886248748059099</v>
+        <v>0.02422410860501722</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -4949,13 +5021,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>45264</v>
+        <v>45272</v>
       </c>
       <c r="B103">
-        <v>0.006564551422319376</v>
+        <v>-0.01716489874638383</v>
       </c>
       <c r="C103">
-        <v>-0.01014808396368549</v>
+        <v>-0.004042043556367947</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -4963,13 +5035,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>45261</v>
+        <v>45271</v>
       </c>
       <c r="B104">
-        <v>-0.0005928853754940677</v>
+        <v>0.008634222919937207</v>
       </c>
       <c r="C104">
-        <v>0.006062938326095058</v>
+        <v>-0.001400538184336053</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -4977,97 +5049,97 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>45260</v>
+        <v>45268</v>
       </c>
       <c r="B105">
-        <v>0.03915364840814717</v>
+        <v>-0.01225680933852136</v>
       </c>
       <c r="C105">
-        <v>0.00975408601042016</v>
+        <v>0.008602491865725037</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>45259</v>
+        <v>45267</v>
       </c>
       <c r="B106">
-        <v>0.008753568030447134</v>
+        <v>-0.02028757140043336</v>
       </c>
       <c r="C106">
-        <v>-0.003453508037111419</v>
+        <v>0.003080646060036774</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>45258</v>
+        <v>45266</v>
       </c>
       <c r="B107">
-        <v>-0.01660064138841721</v>
+        <v>0.003216726980297402</v>
       </c>
       <c r="C107">
-        <v>0.006802829340483596</v>
+        <v>-0.01008644397689573</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>45257</v>
+        <v>45265</v>
       </c>
       <c r="B108">
-        <v>0.007481296758104827</v>
+        <v>0.007414829659318833</v>
       </c>
       <c r="C108">
-        <v>0.001123130107852255</v>
+        <v>0.0007886248748059099</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>45254</v>
+        <v>45264</v>
       </c>
       <c r="B109">
-        <v>-0.005331302361005319</v>
+        <v>0.006564551422319376</v>
       </c>
       <c r="C109">
-        <v>-0.008169005182657063</v>
+        <v>-0.01014808396368549</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>45253</v>
+        <v>45261</v>
       </c>
       <c r="B110">
-        <v>0.00631699846860645</v>
+        <v>-0.0005928853754940677</v>
       </c>
       <c r="C110">
-        <v>0.004292458444083103</v>
+        <v>0.006062938326095058</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>45252</v>
+        <v>45260</v>
       </c>
       <c r="B111">
-        <v>-0.0068480121742438</v>
+        <v>0.03915364840814717</v>
       </c>
       <c r="C111">
-        <v>0.003407453406259142</v>
+        <v>0.00975408601042016</v>
       </c>
       <c r="D111" t="s">
         <v>9</v>
@@ -5075,13 +5147,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>45251</v>
+        <v>45259</v>
       </c>
       <c r="B112">
-        <v>-0.008427504309519218</v>
+        <v>0.008753568030447134</v>
       </c>
       <c r="C112">
-        <v>-0.003870097942027861</v>
+        <v>-0.003453508037111419</v>
       </c>
       <c r="D112" t="s">
         <v>9</v>
@@ -5089,13 +5161,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>45250</v>
+        <v>45258</v>
       </c>
       <c r="B113">
-        <v>-0.00154529650376678</v>
+        <v>-0.01660064138841721</v>
       </c>
       <c r="C113">
-        <v>0.008259903088068343</v>
+        <v>0.006802829340483596</v>
       </c>
       <c r="D113" t="s">
         <v>9</v>
@@ -5103,13 +5175,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>45247</v>
+        <v>45257</v>
       </c>
       <c r="B114">
-        <v>0.0007738440704196936</v>
+        <v>0.007481296758104827</v>
       </c>
       <c r="C114">
-        <v>0.003901232982275848</v>
+        <v>0.001123130107852255</v>
       </c>
       <c r="D114" t="s">
         <v>9</v>
@@ -5117,13 +5189,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>45246</v>
+        <v>45254</v>
       </c>
       <c r="B115">
-        <v>0.008699014111734016</v>
+        <v>-0.005331302361005319</v>
       </c>
       <c r="C115">
-        <v>0.01011935651271401</v>
+        <v>-0.008169005182657063</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
@@ -5131,13 +5203,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>45244</v>
+        <v>45253</v>
       </c>
       <c r="B116">
-        <v>-0.01686469911843624</v>
+        <v>0.00631699846860645</v>
       </c>
       <c r="C116">
-        <v>0.02452316076294281</v>
+        <v>0.004292458444083103</v>
       </c>
       <c r="D116" t="s">
         <v>9</v>
@@ -5145,13 +5217,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>45243</v>
+        <v>45252</v>
       </c>
       <c r="B117">
-        <v>0.03040935672514622</v>
+        <v>-0.0068480121742438</v>
       </c>
       <c r="C117">
-        <v>-0.002155243874133794</v>
+        <v>0.003407453406259142</v>
       </c>
       <c r="D117" t="s">
         <v>9</v>
@@ -5159,13 +5231,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>45240</v>
+        <v>45251</v>
       </c>
       <c r="B118">
-        <v>0.01002648505486192</v>
+        <v>-0.008427504309519218</v>
       </c>
       <c r="C118">
-        <v>0.01364568278829026</v>
+        <v>-0.003870097942027861</v>
       </c>
       <c r="D118" t="s">
         <v>9</v>
@@ -5173,13 +5245,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>45239</v>
+        <v>45250</v>
       </c>
       <c r="B119">
-        <v>-0.02210151713804087</v>
+        <v>-0.00154529650376678</v>
       </c>
       <c r="C119">
-        <v>-0.0007304847227936895</v>
+        <v>0.008259903088068343</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
@@ -5187,13 +5259,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>45238</v>
+        <v>45247</v>
       </c>
       <c r="B120">
-        <v>0.0009576709442635778</v>
+        <v>0.0007738440704196936</v>
       </c>
       <c r="C120">
-        <v>-0.001416976892376853</v>
+        <v>0.003901232982275848</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
@@ -5201,13 +5273,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>45237</v>
+        <v>45246</v>
       </c>
       <c r="B121">
-        <v>-0.02659778032912363</v>
+        <v>0.008699014111734016</v>
       </c>
       <c r="C121">
-        <v>0.006591440411184424</v>
+        <v>0.01011935651271401</v>
       </c>
       <c r="D121" t="s">
         <v>9</v>
@@ -5215,13 +5287,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>45236</v>
+        <v>45244</v>
       </c>
       <c r="B122">
-        <v>-0.003341851779044558</v>
+        <v>-0.01686469911843624</v>
       </c>
       <c r="C122">
-        <v>0.002767433987813206</v>
+        <v>0.02452316076294281</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
@@ -5229,13 +5301,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="B123">
-        <v>-0.01400394477317557</v>
+        <v>0.03040935672514622</v>
       </c>
       <c r="C123">
-        <v>0.02700494554683486</v>
+        <v>-0.002155243874133794</v>
       </c>
       <c r="D123" t="s">
         <v>9</v>
@@ -5243,13 +5315,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>45231</v>
+        <v>45240</v>
       </c>
       <c r="B124">
-        <v>0.005601120224044909</v>
+        <v>0.01002648505486192</v>
       </c>
       <c r="C124">
-        <v>0.0168723043201584</v>
+        <v>0.01364568278829026</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
@@ -5257,97 +5329,97 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>45230</v>
+        <v>45239</v>
       </c>
       <c r="B125">
-        <v>0.002387109608116056</v>
+        <v>-0.02210151713804087</v>
       </c>
       <c r="C125">
-        <v>0.005438453062240001</v>
+        <v>-0.0007304847227936895</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>45229</v>
+        <v>45238</v>
       </c>
       <c r="B126">
-        <v>0.001587616590593255</v>
+        <v>0.0009576709442635778</v>
       </c>
       <c r="C126">
-        <v>-0.006787230474576522</v>
+        <v>-0.001416976892376853</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>45226</v>
+        <v>45237</v>
       </c>
       <c r="B127">
-        <v>0.005151575193184099</v>
+        <v>-0.02659778032912363</v>
       </c>
       <c r="C127">
-        <v>-0.01285971928173768</v>
+        <v>0.006591440411184424</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>45225</v>
+        <v>45236</v>
       </c>
       <c r="B128">
-        <v>0.01517839542676924</v>
+        <v>-0.003341851779044558</v>
       </c>
       <c r="C128">
-        <v>0.0172560489231588</v>
+        <v>0.002767433987813206</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="B129">
-        <v>-0.002135922330097073</v>
+        <v>-0.01400394477317557</v>
       </c>
       <c r="C129">
-        <v>-0.008192542325205276</v>
+        <v>0.02700494554683486</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>45223</v>
+        <v>45231</v>
       </c>
       <c r="B130">
-        <v>-0.001556723097878909</v>
+        <v>0.005601120224044909</v>
       </c>
       <c r="C130">
-        <v>0.008662499445848404</v>
+        <v>0.0168723043201584</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>45222</v>
+        <v>45230</v>
       </c>
       <c r="B131">
-        <v>0.03586045605145194</v>
+        <v>0.002387109608116056</v>
       </c>
       <c r="C131">
-        <v>-0.00326985108921396</v>
+        <v>0.005438453062240001</v>
       </c>
       <c r="D131" t="s">
         <v>10</v>
@@ -5355,13 +5427,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>45219</v>
+        <v>45229</v>
       </c>
       <c r="B132">
-        <v>0.009219190968955848</v>
+        <v>0.001587616590593255</v>
       </c>
       <c r="C132">
-        <v>-0.007447107119048502</v>
+        <v>-0.006787230474576522</v>
       </c>
       <c r="D132" t="s">
         <v>10</v>
@@ -5369,13 +5441,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>45218</v>
+        <v>45226</v>
       </c>
       <c r="B133">
-        <v>0.01976137211036555</v>
+        <v>0.005151575193184099</v>
       </c>
       <c r="C133">
-        <v>-0.0004909696650885476</v>
+        <v>-0.01285971928173768</v>
       </c>
       <c r="D133" t="s">
         <v>10</v>
@@ -5383,13 +5455,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>45217</v>
+        <v>45225</v>
       </c>
       <c r="B134">
-        <v>0.001645338208409397</v>
+        <v>0.01517839542676924</v>
       </c>
       <c r="C134">
-        <v>-0.01594367946992448</v>
+        <v>0.0172560489231588</v>
       </c>
       <c r="D134" t="s">
         <v>10</v>
@@ -5397,13 +5469,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>45216</v>
+        <v>45224</v>
       </c>
       <c r="B135">
-        <v>0.02482204781894515</v>
+        <v>-0.002135922330097073</v>
       </c>
       <c r="C135">
-        <v>-0.005371822815658955</v>
+        <v>-0.008192542325205276</v>
       </c>
       <c r="D135" t="s">
         <v>10</v>
@@ -5411,13 +5483,13 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>45215</v>
+        <v>45223</v>
       </c>
       <c r="B136">
-        <v>-0.001602849510240367</v>
+        <v>-0.001556723097878909</v>
       </c>
       <c r="C136">
-        <v>0.006738428045683031</v>
+        <v>0.008662499445848404</v>
       </c>
       <c r="D136" t="s">
         <v>10</v>
@@ -5425,13 +5497,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>45212</v>
+        <v>45222</v>
       </c>
       <c r="B137">
-        <v>0.02069211559043871</v>
+        <v>0.03586045605145194</v>
       </c>
       <c r="C137">
-        <v>-0.01108064006287857</v>
+        <v>-0.00326985108921396</v>
       </c>
       <c r="D137" t="s">
         <v>10</v>
@@ -5439,13 +5511,13 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>45210</v>
+        <v>45219</v>
       </c>
       <c r="B138">
-        <v>-0.03268088081090526</v>
+        <v>0.009219190968955848</v>
       </c>
       <c r="C138">
-        <v>0.002689807002064448</v>
+        <v>-0.007447107119048502</v>
       </c>
       <c r="D138" t="s">
         <v>10</v>
@@ -5453,13 +5525,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>45209</v>
+        <v>45218</v>
       </c>
       <c r="B139">
-        <v>-0.003432700993676652</v>
+        <v>0.01976137211036555</v>
       </c>
       <c r="C139">
-        <v>0.01372920212581197</v>
+        <v>-0.0004909696650885476</v>
       </c>
       <c r="D139" t="s">
         <v>10</v>
@@ -5467,13 +5539,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>45208</v>
+        <v>45217</v>
       </c>
       <c r="B140">
-        <v>0.00435097897026826</v>
+        <v>0.001645338208409397</v>
       </c>
       <c r="C140">
-        <v>0.008636244197249621</v>
+        <v>-0.01594367946992448</v>
       </c>
       <c r="D140" t="s">
         <v>10</v>
@@ -5481,13 +5553,13 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>45205</v>
+        <v>45216</v>
       </c>
       <c r="B141">
-        <v>-0.008844765342960303</v>
+        <v>0.02482204781894515</v>
       </c>
       <c r="C141">
-        <v>0.007821051516542443</v>
+        <v>-0.005371822815658955</v>
       </c>
       <c r="D141" t="s">
         <v>10</v>
@@ -5495,13 +5567,13 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>45204</v>
+        <v>45215</v>
       </c>
       <c r="B142">
-        <v>-0.01675468949189574</v>
+        <v>-0.001602849510240367</v>
       </c>
       <c r="C142">
-        <v>-0.002843134665997726</v>
+        <v>0.006738428045683031</v>
       </c>
       <c r="D142" t="s">
         <v>10</v>
@@ -5509,13 +5581,13 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>45203</v>
+        <v>45212</v>
       </c>
       <c r="B143">
-        <v>-0.004630487127245786</v>
+        <v>0.02069211559043871</v>
       </c>
       <c r="C143">
-        <v>0.001657570601045766</v>
+        <v>-0.01108064006287857</v>
       </c>
       <c r="D143" t="s">
         <v>10</v>
@@ -5523,13 +5595,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>45202</v>
+        <v>45210</v>
       </c>
       <c r="B144">
-        <v>0.005024190547078478</v>
+        <v>-0.03268088081090526</v>
       </c>
       <c r="C144">
-        <v>-0.01423642194738262</v>
+        <v>0.002689807002064448</v>
       </c>
       <c r="D144" t="s">
         <v>10</v>
@@ -5537,13 +5609,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>45201</v>
+        <v>45209</v>
       </c>
       <c r="B145">
-        <v>-0.01907054249213114</v>
+        <v>-0.003432700993676652</v>
       </c>
       <c r="C145">
-        <v>-0.01293698794663922</v>
+        <v>0.01372920212581197</v>
       </c>
       <c r="D145" t="s">
         <v>10</v>
@@ -5551,97 +5623,97 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>45198</v>
+        <v>45208</v>
       </c>
       <c r="B146">
-        <v>0.001132502831257209</v>
+        <v>0.00435097897026826</v>
       </c>
       <c r="C146">
-        <v>0.007206366487803706</v>
+        <v>0.008636244197249621</v>
       </c>
       <c r="D146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>45197</v>
+        <v>45205</v>
       </c>
       <c r="B147">
-        <v>-0.008295625942684737</v>
+        <v>-0.008844765342960303</v>
       </c>
       <c r="C147">
-        <v>0.01228056364638275</v>
+        <v>0.007821051516542443</v>
       </c>
       <c r="D147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>45196</v>
+        <v>45204</v>
       </c>
       <c r="B148">
-        <v>0.004372623574144363</v>
+        <v>-0.01675468949189574</v>
       </c>
       <c r="C148">
-        <v>0.00117345196290497</v>
+        <v>-0.002843134665997726</v>
       </c>
       <c r="D148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>45195</v>
+        <v>45203</v>
       </c>
       <c r="B149">
-        <v>0.005300018928638961</v>
+        <v>-0.004630487127245786</v>
       </c>
       <c r="C149">
-        <v>-0.01494069441449208</v>
+        <v>0.001657570601045766</v>
       </c>
       <c r="D149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>45194</v>
+        <v>45202</v>
       </c>
       <c r="B150">
-        <v>0.015627942007155</v>
+        <v>0.005024190547078478</v>
       </c>
       <c r="C150">
-        <v>-0.0007240817522778942</v>
+        <v>-0.01423642194738262</v>
       </c>
       <c r="D150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>45191</v>
+        <v>45201</v>
       </c>
       <c r="B151">
-        <v>0.003151649981461002</v>
+        <v>-0.01907054249213114</v>
       </c>
       <c r="C151">
-        <v>-0.001170950105471635</v>
+        <v>-0.01293698794663922</v>
       </c>
       <c r="D151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>45190</v>
+        <v>45198</v>
       </c>
       <c r="B152">
-        <v>0.0114581408242469</v>
+        <v>0.001132502831257209</v>
       </c>
       <c r="C152">
-        <v>-0.02148363452546442</v>
+        <v>0.007206366487803706</v>
       </c>
       <c r="D152" t="s">
         <v>11</v>
@@ -5649,13 +5721,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>45189</v>
+        <v>45197</v>
       </c>
       <c r="B153">
-        <v>-0.02009866617942613</v>
+        <v>-0.008295625942684737</v>
       </c>
       <c r="C153">
-        <v>0.007204317499108992</v>
+        <v>0.01228056364638275</v>
       </c>
       <c r="D153" t="s">
         <v>11</v>
@@ -5663,13 +5735,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>45188</v>
+        <v>45196</v>
       </c>
       <c r="B154">
-        <v>-0.0384113369382808</v>
+        <v>0.004372623574144363</v>
       </c>
       <c r="C154">
-        <v>-0.003736642770188037</v>
+        <v>0.00117345196290497</v>
       </c>
       <c r="D154" t="s">
         <v>11</v>
@@ -5677,13 +5749,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>45187</v>
+        <v>45195</v>
       </c>
       <c r="B155">
-        <v>-0.0137676943959667</v>
+        <v>0.005300018928638961</v>
       </c>
       <c r="C155">
-        <v>-0.003957628117684742</v>
+        <v>-0.01494069441449208</v>
       </c>
       <c r="D155" t="s">
         <v>11</v>
@@ -5691,13 +5763,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>45184</v>
+        <v>45194</v>
       </c>
       <c r="B156">
-        <v>0.009241053873377814</v>
+        <v>0.015627942007155</v>
       </c>
       <c r="C156">
-        <v>-0.0053102385419459</v>
+        <v>-0.0007240817522778942</v>
       </c>
       <c r="D156" t="s">
         <v>11</v>
@@ -5705,13 +5777,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>45183</v>
+        <v>45191</v>
       </c>
       <c r="B157">
-        <v>-0.02474186635495801</v>
+        <v>0.003151649981461002</v>
       </c>
       <c r="C157">
-        <v>0.01028973734091521</v>
+        <v>-0.001170950105471635</v>
       </c>
       <c r="D157" t="s">
         <v>11</v>
@@ -5719,13 +5791,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>45182</v>
+        <v>45190</v>
       </c>
       <c r="B158">
-        <v>-0.0191769876148622</v>
+        <v>0.0114581408242469</v>
       </c>
       <c r="C158">
-        <v>0.00176319001763181</v>
+        <v>-0.02148363452546442</v>
       </c>
       <c r="D158" t="s">
         <v>11</v>
@@ -5733,13 +5805,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>45181</v>
+        <v>45189</v>
       </c>
       <c r="B159">
-        <v>0.0004073319755599769</v>
+        <v>-0.02009866617942613</v>
       </c>
       <c r="C159">
-        <v>0.009282787060564734</v>
+        <v>0.007204317499108992</v>
       </c>
       <c r="D159" t="s">
         <v>11</v>
@@ -5747,13 +5819,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>45180</v>
+        <v>45188</v>
       </c>
       <c r="B160">
-        <v>-0.006107491856677472</v>
+        <v>-0.0384113369382808</v>
       </c>
       <c r="C160">
-        <v>0.01361511711602326</v>
+        <v>-0.003736642770188037</v>
       </c>
       <c r="D160" t="s">
         <v>11</v>
@@ -5761,13 +5833,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>45177</v>
+        <v>45187</v>
       </c>
       <c r="B161">
-        <v>-0.02693877551020407</v>
+        <v>-0.0137676943959667</v>
       </c>
       <c r="C161">
-        <v>-0.005793852653360299</v>
+        <v>-0.003957628117684742</v>
       </c>
       <c r="D161" t="s">
         <v>11</v>
@@ -5775,13 +5847,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>45175</v>
+        <v>45184</v>
       </c>
       <c r="B162">
-        <v>0.02181208053691264</v>
+        <v>0.009241053873377814</v>
       </c>
       <c r="C162">
-        <v>-0.0114718190418559</v>
+        <v>-0.0053102385419459</v>
       </c>
       <c r="D162" t="s">
         <v>11</v>
@@ -5789,13 +5861,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>45174</v>
+        <v>45183</v>
       </c>
       <c r="B163">
-        <v>0.01621510673234816</v>
+        <v>-0.02474186635495801</v>
       </c>
       <c r="C163">
-        <v>-0.003786817460115333</v>
+        <v>0.01028973734091521</v>
       </c>
       <c r="D163" t="s">
         <v>11</v>
@@ -5803,13 +5875,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>45173</v>
+        <v>45182</v>
       </c>
       <c r="B164">
-        <v>0.005857402544940493</v>
+        <v>-0.0191769876148622</v>
       </c>
       <c r="C164">
-        <v>-0.0009839430670184335</v>
+        <v>0.00176319001763181</v>
       </c>
       <c r="D164" t="s">
         <v>11</v>
@@ -5817,13 +5889,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>45170</v>
+        <v>45181</v>
       </c>
       <c r="B165">
-        <v>-0.02385141739980445</v>
+        <v>0.0004073319755599769</v>
       </c>
       <c r="C165">
-        <v>0.01858443780131669</v>
+        <v>0.009282787060564734</v>
       </c>
       <c r="D165" t="s">
         <v>11</v>
@@ -5831,97 +5903,97 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>45169</v>
+        <v>45180</v>
       </c>
       <c r="B166">
-        <v>-0.0186260765071099</v>
+        <v>-0.006107491856677472</v>
       </c>
       <c r="C166">
-        <v>-0.01525503041647169</v>
+        <v>0.01361511711602326</v>
       </c>
       <c r="D166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>45168</v>
+        <v>45177</v>
       </c>
       <c r="B167">
-        <v>0.01367346938775515</v>
+        <v>-0.02693877551020407</v>
       </c>
       <c r="C167">
-        <v>-0.007339279078409477</v>
+        <v>-0.005793852653360299</v>
       </c>
       <c r="D167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>45167</v>
+        <v>45175</v>
       </c>
       <c r="B168">
-        <v>0.006241191866317664</v>
+        <v>0.02181208053691264</v>
       </c>
       <c r="C168">
-        <v>0.01095448297060297</v>
+        <v>-0.0114718190418559</v>
       </c>
       <c r="D168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>45166</v>
+        <v>45174</v>
       </c>
       <c r="B169">
-        <v>-0.0166066426570628</v>
+        <v>0.01621510673234816</v>
       </c>
       <c r="C169">
-        <v>0.01108454120876745</v>
+        <v>-0.003786817460115333</v>
       </c>
       <c r="D169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>45163</v>
+        <v>45173</v>
       </c>
       <c r="B170">
-        <v>-0.007934893184130209</v>
+        <v>0.005857402544940493</v>
       </c>
       <c r="C170">
-        <v>-0.01016013535453664</v>
+        <v>-0.0009839430670184335</v>
       </c>
       <c r="D170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>45162</v>
+        <v>45170</v>
       </c>
       <c r="B171">
-        <v>-0.01107465135356844</v>
+        <v>-0.02385141739980445</v>
       </c>
       <c r="C171">
-        <v>-0.009387565073856186</v>
+        <v>0.01858443780131669</v>
       </c>
       <c r="D171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>45161</v>
+        <v>45169</v>
       </c>
       <c r="B172">
-        <v>0.002695976773123165</v>
+        <v>-0.0186260765071099</v>
       </c>
       <c r="C172">
-        <v>0.01703743241847167</v>
+        <v>-0.01525503041647169</v>
       </c>
       <c r="D172" t="s">
         <v>12</v>
@@ -5929,13 +6001,13 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45160</v>
+        <v>45168</v>
       </c>
       <c r="B173">
-        <v>0.007445708376421889</v>
+        <v>0.01367346938775515</v>
       </c>
       <c r="C173">
-        <v>0.0150923279937778</v>
+        <v>-0.007339279078409477</v>
       </c>
       <c r="D173" t="s">
         <v>12</v>
@@ -5943,13 +6015,13 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45159</v>
+        <v>45167</v>
       </c>
       <c r="B174">
-        <v>0.004516526380619945</v>
+        <v>0.006241191866317664</v>
       </c>
       <c r="C174">
-        <v>-0.008491538788136133</v>
+        <v>0.01095448297060297</v>
       </c>
       <c r="D174" t="s">
         <v>12</v>
@@ -5957,13 +6029,13 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45156</v>
+        <v>45166</v>
       </c>
       <c r="B175">
-        <v>0.01205804210096062</v>
+        <v>-0.0166066426570628</v>
       </c>
       <c r="C175">
-        <v>0.00371362474126391</v>
+        <v>0.01108454120876745</v>
       </c>
       <c r="D175" t="s">
         <v>12</v>
@@ -5971,13 +6043,13 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45155</v>
+        <v>45163</v>
       </c>
       <c r="B176">
-        <v>-0.005452342487883732</v>
+        <v>-0.007934893184130209</v>
       </c>
       <c r="C176">
-        <v>-0.005277181811890075</v>
+        <v>-0.01016013535453664</v>
       </c>
       <c r="D176" t="s">
         <v>12</v>
@@ -5985,13 +6057,13 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45154</v>
+        <v>45162</v>
       </c>
       <c r="B177">
-        <v>-0.009746192893400951</v>
+        <v>-0.01107465135356844</v>
       </c>
       <c r="C177">
-        <v>-0.00498403215948906</v>
+        <v>-0.009387565073856186</v>
       </c>
       <c r="D177" t="s">
         <v>12</v>
@@ -5999,13 +6071,13 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45153</v>
+        <v>45161</v>
       </c>
       <c r="B178">
-        <v>0.002460529013737833</v>
+        <v>0.002695976773123165</v>
       </c>
       <c r="C178">
-        <v>-0.005470422052906376</v>
+        <v>0.01703743241847167</v>
       </c>
       <c r="D178" t="s">
         <v>12</v>
@@ -6013,13 +6085,13 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45152</v>
+        <v>45160</v>
       </c>
       <c r="B179">
-        <v>0.01759050930660666</v>
+        <v>0.007445708376421889</v>
       </c>
       <c r="C179">
-        <v>-0.01062973785626564</v>
+        <v>0.0150923279937778</v>
       </c>
       <c r="D179" t="s">
         <v>12</v>
@@ -6027,13 +6099,13 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45149</v>
+        <v>45159</v>
       </c>
       <c r="B180">
-        <v>-0.01467336683417075</v>
+        <v>0.004516526380619945</v>
       </c>
       <c r="C180">
-        <v>-0.002408111533586776</v>
+        <v>-0.008491538788136133</v>
       </c>
       <c r="D180" t="s">
         <v>12</v>
@@ -6041,13 +6113,13 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45148</v>
+        <v>45156</v>
       </c>
       <c r="B181">
-        <v>-0.01631986944104458</v>
+        <v>0.01205804210096062</v>
       </c>
       <c r="C181">
-        <v>-0.0004982729353343318</v>
+        <v>0.00371362474126391</v>
       </c>
       <c r="D181" t="s">
         <v>12</v>
@@ -6055,13 +6127,13 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45147</v>
+        <v>45155</v>
       </c>
       <c r="B182">
-        <v>-0.001036914143508816</v>
+        <v>-0.005452342487883732</v>
       </c>
       <c r="C182">
-        <v>-0.005718364262322639</v>
+        <v>-0.005277181811890075</v>
       </c>
       <c r="D182" t="s">
         <v>12</v>
@@ -6069,13 +6141,13 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45146</v>
+        <v>45154</v>
       </c>
       <c r="B183">
-        <v>0.009134315964293149</v>
+        <v>-0.009746192893400951</v>
       </c>
       <c r="C183">
-        <v>-0.002429217624392743</v>
+        <v>-0.00498403215948906</v>
       </c>
       <c r="D183" t="s">
         <v>12</v>
@@ -6083,13 +6155,13 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45145</v>
+        <v>45153</v>
       </c>
       <c r="B184">
-        <v>0.01542892408969343</v>
+        <v>0.002460529013737833</v>
       </c>
       <c r="C184">
-        <v>-0.001071058004485037</v>
+        <v>-0.005470422052906376</v>
       </c>
       <c r="D184" t="s">
         <v>12</v>
@@ -6097,13 +6169,13 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45142</v>
+        <v>45152</v>
       </c>
       <c r="B185">
-        <v>-0.004862236628849326</v>
+        <v>0.01759050930660666</v>
       </c>
       <c r="C185">
-        <v>-0.00893967790622463</v>
+        <v>-0.01062973785626564</v>
       </c>
       <c r="D185" t="s">
         <v>12</v>
@@ -6111,13 +6183,13 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45141</v>
+        <v>45149</v>
       </c>
       <c r="B186">
-        <v>-0.0126221498371335</v>
+        <v>-0.01467336683417075</v>
       </c>
       <c r="C186">
-        <v>-0.002258830538064971</v>
+        <v>-0.002408111533586776</v>
       </c>
       <c r="D186" t="s">
         <v>12</v>
@@ -6125,13 +6197,13 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45140</v>
+        <v>45148</v>
       </c>
       <c r="B187">
-        <v>-0.03525773195876292</v>
+        <v>-0.01631986944104458</v>
       </c>
       <c r="C187">
-        <v>-0.003208300343098491</v>
+        <v>-0.0004982729353343318</v>
       </c>
       <c r="D187" t="s">
         <v>12</v>
@@ -6139,13 +6211,13 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45139</v>
+        <v>45147</v>
       </c>
       <c r="B188">
-        <v>0.0102586022654414</v>
+        <v>-0.001036914143508816</v>
       </c>
       <c r="C188">
-        <v>-0.005699384138490915</v>
+        <v>-0.005718364262322639</v>
       </c>
       <c r="D188" t="s">
         <v>12</v>
@@ -6153,97 +6225,97 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45138</v>
+        <v>45146</v>
       </c>
       <c r="B189">
-        <v>-0.006346519991538013</v>
+        <v>0.009134315964293149</v>
       </c>
       <c r="C189">
-        <v>0.01461056520255943</v>
+        <v>-0.002429217624392743</v>
       </c>
       <c r="D189" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45135</v>
+        <v>45145</v>
       </c>
       <c r="B190">
-        <v>-0.0178837555886735</v>
+        <v>0.01542892408969343</v>
       </c>
       <c r="C190">
-        <v>0.001641803483623638</v>
+        <v>-0.001071058004485037</v>
       </c>
       <c r="D190" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45134</v>
+        <v>45142</v>
       </c>
       <c r="B191">
-        <v>-0.0002167786689790674</v>
+        <v>-0.004862236628849326</v>
       </c>
       <c r="C191">
-        <v>-0.0209693211488251</v>
+        <v>-0.00893967790622463</v>
       </c>
       <c r="D191" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45133</v>
+        <v>45141</v>
       </c>
       <c r="B192">
-        <v>-0.01539462272333048</v>
+        <v>-0.0126221498371335</v>
       </c>
       <c r="C192">
-        <v>0.004524293488951558</v>
+        <v>-0.002258830538064971</v>
       </c>
       <c r="D192" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45132</v>
+        <v>45140</v>
       </c>
       <c r="B193">
-        <v>-0.02686632900242236</v>
+        <v>-0.03525773195876292</v>
       </c>
       <c r="C193">
-        <v>0.005488618944800683</v>
+        <v>-0.003208300343098491</v>
       </c>
       <c r="D193" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>45131</v>
+        <v>45139</v>
       </c>
       <c r="B194">
-        <v>-0.004525910839556335</v>
+        <v>0.0102586022654414</v>
       </c>
       <c r="C194">
-        <v>0.009358077476563142</v>
+        <v>-0.005699384138490915</v>
       </c>
       <c r="D194" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>45128</v>
+        <v>45138</v>
       </c>
       <c r="B195">
-        <v>-0.02136849283928177</v>
+        <v>-0.006346519991538013</v>
       </c>
       <c r="C195">
-        <v>0.01807203407772495</v>
+        <v>0.01461056520255943</v>
       </c>
       <c r="D195" t="s">
         <v>13</v>
@@ -6251,13 +6323,13 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>45127</v>
+        <v>45135</v>
       </c>
       <c r="B196">
-        <v>-0.009291521486643362</v>
+        <v>-0.0178837555886735</v>
       </c>
       <c r="C196">
-        <v>0.004517149857084624</v>
+        <v>0.001641803483623638</v>
       </c>
       <c r="D196" t="s">
         <v>13</v>
@@ -6265,13 +6337,13 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>45126</v>
+        <v>45134</v>
       </c>
       <c r="B197">
-        <v>-0.004220398593200447</v>
+        <v>-0.0002167786689790674</v>
       </c>
       <c r="C197">
-        <v>-0.002452457124430429</v>
+        <v>-0.0209693211488251</v>
       </c>
       <c r="D197" t="s">
         <v>13</v>
@@ -6279,13 +6351,13 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>45125</v>
+        <v>45133</v>
       </c>
       <c r="B198">
-        <v>0.02542971509300673</v>
+        <v>-0.01539462272333048</v>
       </c>
       <c r="C198">
-        <v>-0.003197455569747709</v>
+        <v>0.004524293488951558</v>
       </c>
       <c r="D198" t="s">
         <v>13</v>
@@ -6293,13 +6365,13 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>45124</v>
+        <v>45132</v>
       </c>
       <c r="B199">
-        <v>-0.00390355912743956</v>
+        <v>-0.02686632900242236</v>
       </c>
       <c r="C199">
-        <v>0.004315654441810812</v>
+        <v>0.005488618944800683</v>
       </c>
       <c r="D199" t="s">
         <v>13</v>
@@ -6307,13 +6379,13 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>45121</v>
+        <v>45131</v>
       </c>
       <c r="B200">
-        <v>0.003457814661134151</v>
+        <v>-0.004525910839556335</v>
       </c>
       <c r="C200">
-        <v>-0.01302153206332168</v>
+        <v>0.009358077476563142</v>
       </c>
       <c r="D200" t="s">
         <v>13</v>
@@ -6321,13 +6393,13 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>45120</v>
+        <v>45128</v>
       </c>
       <c r="B201">
-        <v>-0.004135079255685681</v>
+        <v>-0.02136849283928177</v>
       </c>
       <c r="C201">
-        <v>0.01358081348902829</v>
+        <v>0.01807203407772495</v>
       </c>
       <c r="D201" t="s">
         <v>13</v>
@@ -6335,13 +6407,13 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>45119</v>
+        <v>45127</v>
       </c>
       <c r="B202">
-        <v>-0.004152249134948049</v>
+        <v>-0.009291521486643362</v>
       </c>
       <c r="C202">
-        <v>0.003804811465620173</v>
+        <v>0.004517149857084624</v>
       </c>
       <c r="D202" t="s">
         <v>13</v>
@@ -6349,13 +6421,13 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>45118</v>
+        <v>45126</v>
       </c>
       <c r="B203">
-        <v>-0.003011350474866892</v>
+        <v>-0.004220398593200447</v>
       </c>
       <c r="C203">
-        <v>-0.006121653015889184</v>
+        <v>-0.002452457124430429</v>
       </c>
       <c r="D203" t="s">
         <v>13</v>
@@ -6363,13 +6435,13 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>45117</v>
+        <v>45125</v>
       </c>
       <c r="B204">
-        <v>-0.0004646840148697651</v>
+        <v>0.02542971509300673</v>
       </c>
       <c r="C204">
-        <v>-0.008040505307069901</v>
+        <v>-0.003197455569747709</v>
       </c>
       <c r="D204" t="s">
         <v>13</v>
@@ -6377,13 +6449,13 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>45114</v>
+        <v>45124</v>
       </c>
       <c r="B205">
-        <v>0.01092515109251502</v>
+        <v>-0.00390355912743956</v>
       </c>
       <c r="C205">
-        <v>0.01253555430654196</v>
+        <v>0.004315654441810812</v>
       </c>
       <c r="D205" t="s">
         <v>13</v>
@@ -6391,13 +6463,13 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>45113</v>
+        <v>45121</v>
       </c>
       <c r="B206">
-        <v>-0.008967578753736549</v>
+        <v>0.003457814661134151</v>
       </c>
       <c r="C206">
-        <v>-0.01775840868597811</v>
+        <v>-0.01302153206332168</v>
       </c>
       <c r="D206" t="s">
         <v>13</v>
@@ -6405,13 +6477,13 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>45112</v>
+        <v>45120</v>
       </c>
       <c r="B207">
-        <v>0.007656612529002293</v>
+        <v>-0.004135079255685681</v>
       </c>
       <c r="C207">
-        <v>0.003972253014881355</v>
+        <v>0.01358081348902829</v>
       </c>
       <c r="D207" t="s">
         <v>13</v>
@@ -6419,13 +6491,13 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>45111</v>
+        <v>45119</v>
       </c>
       <c r="B208">
-        <v>0.006447156343541316</v>
+        <v>-0.004152249134948049</v>
       </c>
       <c r="C208">
-        <v>-0.004988593918427764</v>
+        <v>0.003804811465620173</v>
       </c>
       <c r="D208" t="s">
         <v>13</v>
@@ -6433,13 +6505,13 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>45110</v>
+        <v>45118</v>
       </c>
       <c r="B209">
-        <v>-0.01143902997025847</v>
+        <v>-0.003011350474866892</v>
       </c>
       <c r="C209">
-        <v>0.01343077561458927</v>
+        <v>-0.006121653015889184</v>
       </c>
       <c r="D209" t="s">
         <v>13</v>
@@ -6447,97 +6519,97 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>45107</v>
+        <v>45117</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>-0.0004646840148697651</v>
       </c>
       <c r="C210">
-        <v>-0.002500359004248942</v>
+        <v>-0.008040505307069901</v>
       </c>
       <c r="D210" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>45106</v>
+        <v>45114</v>
       </c>
       <c r="B211">
-        <v>-0.003934274473501587</v>
+        <v>0.01092515109251502</v>
       </c>
       <c r="C211">
-        <v>0.01458677933853836</v>
+        <v>0.01253555430654196</v>
       </c>
       <c r="D211" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>45105</v>
+        <v>45113</v>
       </c>
       <c r="B212">
-        <v>0.002788104089219257</v>
+        <v>-0.008967578753736549</v>
       </c>
       <c r="C212">
-        <v>-0.007164555023272068</v>
+        <v>-0.01775840868597811</v>
       </c>
       <c r="D212" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>45104</v>
+        <v>45112</v>
       </c>
       <c r="B213">
-        <v>0.01506024096385561</v>
+        <v>0.007656612529002293</v>
       </c>
       <c r="C213">
-        <v>-0.006089155383405376</v>
+        <v>0.003972253014881355</v>
       </c>
       <c r="D213" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>45103</v>
+        <v>45111</v>
       </c>
       <c r="B214">
-        <v>0.01711937913718331</v>
+        <v>0.006447156343541316</v>
       </c>
       <c r="C214">
-        <v>-0.006169259604797528</v>
+        <v>-0.004988593918427764</v>
       </c>
       <c r="D214" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>45100</v>
+        <v>45110</v>
       </c>
       <c r="B215">
-        <v>0.007405745062836644</v>
+        <v>-0.01143902997025847</v>
       </c>
       <c r="C215">
-        <v>0.0003615450586038627</v>
+        <v>0.01343077561458927</v>
       </c>
       <c r="D215" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>45099</v>
+        <v>45107</v>
       </c>
       <c r="B216">
-        <v>-0.00178213410559136</v>
+        <v>0</v>
       </c>
       <c r="C216">
-        <v>-0.01234014283341633</v>
+        <v>-0.002500359004248942</v>
       </c>
       <c r="D216" t="s">
         <v>14</v>
@@ -6545,13 +6617,13 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>45098</v>
+        <v>45106</v>
       </c>
       <c r="B217">
-        <v>0.01338986833296119</v>
+        <v>-0.003934274473501587</v>
       </c>
       <c r="C217">
-        <v>0.006671013693133387</v>
+        <v>0.01458677933853836</v>
       </c>
       <c r="D217" t="s">
         <v>14</v>
@@ -6559,13 +6631,13 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>45097</v>
+        <v>45105</v>
       </c>
       <c r="B218">
-        <v>0.02070028628055498</v>
+        <v>0.002788104089219257</v>
       </c>
       <c r="C218">
-        <v>-0.001968996646031118</v>
+        <v>-0.007164555023272068</v>
       </c>
       <c r="D218" t="s">
         <v>14</v>
@@ -6573,13 +6645,13 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>45096</v>
+        <v>45104</v>
       </c>
       <c r="B219">
-        <v>0.005609492988133624</v>
+        <v>0.01506024096385561</v>
       </c>
       <c r="C219">
-        <v>0.009262533892453462</v>
+        <v>-0.006089155383405376</v>
       </c>
       <c r="D219" t="s">
         <v>14</v>
@@ -6587,13 +6659,13 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>45093</v>
+        <v>45103</v>
       </c>
       <c r="B220">
-        <v>0.01244368161338771</v>
+        <v>0.01711937913718331</v>
       </c>
       <c r="C220">
-        <v>-0.003883544006508921</v>
+        <v>-0.006169259604797528</v>
       </c>
       <c r="D220" t="s">
         <v>14</v>
@@ -6601,13 +6673,13 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>45092</v>
+        <v>45100</v>
       </c>
       <c r="B221">
-        <v>0.0008476372112735664</v>
+        <v>0.007405745062836644</v>
       </c>
       <c r="C221">
-        <v>0.001276570727897219</v>
+        <v>0.0003615450586038627</v>
       </c>
       <c r="D221" t="s">
         <v>14</v>
@@ -6615,13 +6687,13 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>45091</v>
+        <v>45099</v>
       </c>
       <c r="B222">
-        <v>-0.03493542240101633</v>
+        <v>-0.00178213410559136</v>
       </c>
       <c r="C222">
-        <v>0.01992410679869461</v>
+        <v>-0.01234014283341633</v>
       </c>
       <c r="D222" t="s">
         <v>14</v>
@@ -6629,13 +6701,13 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>45090</v>
+        <v>45098</v>
       </c>
       <c r="B223">
-        <v>0.008556384379113657</v>
+        <v>0.01338986833296119</v>
       </c>
       <c r="C223">
-        <v>-0.005053862412217947</v>
+        <v>0.006671013693133387</v>
       </c>
       <c r="D223" t="s">
         <v>14</v>
@@ -6643,13 +6715,13 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>45089</v>
+        <v>45097</v>
       </c>
       <c r="B224">
-        <v>-0.007396127909506167</v>
+        <v>0.02070028628055498</v>
       </c>
       <c r="C224">
-        <v>0.00270896179252933</v>
+        <v>-0.001968996646031118</v>
       </c>
       <c r="D224" t="s">
         <v>14</v>
@@ -6657,13 +6729,13 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>45086</v>
+        <v>45096</v>
       </c>
       <c r="B225">
-        <v>-0.03133903133903138</v>
+        <v>0.005609492988133624</v>
       </c>
       <c r="C225">
-        <v>0.01325678858409529</v>
+        <v>0.009262533892453462</v>
       </c>
       <c r="D225" t="s">
         <v>14</v>
@@ -6671,13 +6743,13 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>45084</v>
+        <v>45093</v>
       </c>
       <c r="B226">
-        <v>0.01312217194570131</v>
+        <v>0.01244368161338771</v>
       </c>
       <c r="C226">
-        <v>0.007660762586161773</v>
+        <v>-0.003883544006508921</v>
       </c>
       <c r="D226" t="s">
         <v>14</v>
@@ -6685,13 +6757,13 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>45083</v>
+        <v>45092</v>
       </c>
       <c r="B227">
-        <v>0.02411790978115236</v>
+        <v>0.0008476372112735664</v>
       </c>
       <c r="C227">
-        <v>0.0169837438773337</v>
+        <v>0.001276570727897219</v>
       </c>
       <c r="D227" t="s">
         <v>14</v>
@@ -6699,13 +6771,13 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>45082</v>
+        <v>45091</v>
       </c>
       <c r="B228">
-        <v>-0.002616659398168242</v>
+        <v>-0.03493542240101633</v>
       </c>
       <c r="C228">
-        <v>0.001226034577728852</v>
+        <v>0.01992410679869461</v>
       </c>
       <c r="D228" t="s">
         <v>14</v>
@@ -6713,13 +6785,13 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>45079</v>
+        <v>45090</v>
       </c>
       <c r="B229">
-        <v>-0.008307826847398392</v>
+        <v>0.008556384379113657</v>
       </c>
       <c r="C229">
-        <v>0.01802559580337348</v>
+        <v>-0.005053862412217947</v>
       </c>
       <c r="D229" t="s">
         <v>14</v>
@@ -6727,13 +6799,13 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>45078</v>
+        <v>45089</v>
       </c>
       <c r="B230">
-        <v>-0.03064373897707229</v>
+        <v>-0.007396127909506167</v>
       </c>
       <c r="C230">
-        <v>0.02058429870309686</v>
+        <v>0.00270896179252933</v>
       </c>
       <c r="D230" t="s">
         <v>14</v>
@@ -6741,97 +6813,97 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>45077</v>
+        <v>45086</v>
       </c>
       <c r="B231">
-        <v>-0.005003411416875103</v>
+        <v>-0.03133903133903138</v>
       </c>
       <c r="C231">
-        <v>-0.005799921077023318</v>
+        <v>0.01325678858409529</v>
       </c>
       <c r="D231" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>45076</v>
+        <v>45084</v>
       </c>
       <c r="B232">
-        <v>0.00777142857142854</v>
+        <v>0.01312217194570131</v>
       </c>
       <c r="C232">
-        <v>-0.01238070205650166</v>
+        <v>0.007660762586161773</v>
       </c>
       <c r="D232" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>45075</v>
+        <v>45083</v>
       </c>
       <c r="B233">
-        <v>0.005670220004536208</v>
+        <v>0.02411790978115236</v>
       </c>
       <c r="C233">
-        <v>-0.005166537428092255</v>
+        <v>0.0169837438773337</v>
       </c>
       <c r="D233" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>45072</v>
+        <v>45082</v>
       </c>
       <c r="B234">
-        <v>-0.0006765899864682456</v>
+        <v>-0.002616659398168242</v>
       </c>
       <c r="C234">
-        <v>0.007741654097079609</v>
+        <v>0.001226034577728852</v>
       </c>
       <c r="D234" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>45071</v>
+        <v>45079</v>
       </c>
       <c r="B235">
-        <v>-0.02708192281652</v>
+        <v>-0.008307826847398392</v>
       </c>
       <c r="C235">
-        <v>0.0115257352941176</v>
+        <v>0.01802559580337348</v>
       </c>
       <c r="D235" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>45070</v>
+        <v>45078</v>
       </c>
       <c r="B236">
-        <v>0.01067037810252836</v>
+        <v>-0.03064373897707229</v>
       </c>
       <c r="C236">
-        <v>-0.0102702653530915</v>
+        <v>0.02058429870309686</v>
       </c>
       <c r="D236" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>45069</v>
+        <v>45077</v>
       </c>
       <c r="B237">
-        <v>0.02845994950654118</v>
+        <v>-0.005003411416875103</v>
       </c>
       <c r="C237">
-        <v>-0.00257682850480434</v>
+        <v>-0.005799921077023318</v>
       </c>
       <c r="D237" t="s">
         <v>15</v>
@@ -6839,13 +6911,13 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>45068</v>
+        <v>45076</v>
       </c>
       <c r="B238">
-        <v>-0.01495201963847359</v>
+        <v>0.00777142857142854</v>
       </c>
       <c r="C238">
-        <v>-0.004803828615287387</v>
+        <v>-0.01238070205650166</v>
       </c>
       <c r="D238" t="s">
         <v>15</v>
@@ -6853,13 +6925,13 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>45065</v>
+        <v>45075</v>
       </c>
       <c r="B239">
-        <v>0.005437245129134682</v>
+        <v>0.005670220004536208</v>
       </c>
       <c r="C239">
-        <v>0.005785229047843954</v>
+        <v>-0.005166537428092255</v>
       </c>
       <c r="D239" t="s">
         <v>15</v>
@@ -6867,13 +6939,13 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>45064</v>
+        <v>45072</v>
       </c>
       <c r="B240">
-        <v>-0.001577287066246047</v>
+        <v>-0.0006765899864682456</v>
       </c>
       <c r="C240">
-        <v>0.005919970765576377</v>
+        <v>0.007741654097079609</v>
       </c>
       <c r="D240" t="s">
         <v>15</v>
@@ -6881,13 +6953,13 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>45063</v>
+        <v>45071</v>
       </c>
       <c r="B241">
-        <v>-0.03565786504175139</v>
+        <v>-0.02708192281652</v>
       </c>
       <c r="C241">
-        <v>0.01170120339390346</v>
+        <v>0.0115257352941176</v>
       </c>
       <c r="D241" t="s">
         <v>15</v>
@@ -6895,15 +6967,99 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B242">
+        <v>0.01067037810252836</v>
+      </c>
+      <c r="C242">
+        <v>-0.0102702653530915</v>
+      </c>
+      <c r="D242" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B243">
+        <v>0.02845994950654118</v>
+      </c>
+      <c r="C243">
+        <v>-0.00257682850480434</v>
+      </c>
+      <c r="D243" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B244">
+        <v>-0.01495201963847359</v>
+      </c>
+      <c r="C244">
+        <v>-0.004803828615287387</v>
+      </c>
+      <c r="D244" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B245">
+        <v>0.005437245129134682</v>
+      </c>
+      <c r="C245">
+        <v>0.005785229047843954</v>
+      </c>
+      <c r="D245" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B246">
+        <v>-0.001577287066246047</v>
+      </c>
+      <c r="C246">
+        <v>0.005919970765576377</v>
+      </c>
+      <c r="D246" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B247">
+        <v>-0.03565786504175139</v>
+      </c>
+      <c r="C247">
+        <v>0.01170120339390346</v>
+      </c>
+      <c r="D247" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>45062</v>
       </c>
-      <c r="B242">
+      <c r="B248">
         <v>-0.0004680552305170727</v>
       </c>
-      <c r="C242">
+      <c r="C248">
         <v>-0.007658512872721901</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D248" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6936,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.2957109638466428</v>
+        <v>-0.3182495238079706</v>
       </c>
     </row>
   </sheetData>
